--- a/static/ModeloFactura/002-0-230723.xlsx
+++ b/static/ModeloFactura/002-0-230723.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>ASOCIACION DE USUARIOS DE LA EMPRESA COMUNITARIA DE ACUEDUCTO Y ALCANTARILLADO DE CAIMALITO ESP
 NIT 900.017.239-2</t>
@@ -114,9 +114,6 @@
     <t>emp.acueducto.caimalito@gmail.com</t>
   </si>
   <si>
-    <t>Recargo por mora</t>
-  </si>
-  <si>
     <t>Derecho de conexión</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>COMPORTAMIENTO DE CONSUMO GENERAL M3 - TODOS LOS USUARIOS</t>
+  </si>
+  <si>
+    <t>Aporte por mora</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +431,19 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -717,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -887,7 +900,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,9 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1209,6 +1225,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,15 +1527,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>56007</xdr:colOff>
+      <xdr:colOff>11079</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>24242</xdr:rowOff>
+      <xdr:rowOff>33228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>124550</xdr:colOff>
+      <xdr:colOff>8987</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>148552</xdr:rowOff>
+      <xdr:rowOff>94261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1535,8 +1557,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7056882" y="3986642"/>
-          <a:ext cx="3535643" cy="3172310"/>
+          <a:off x="7046999" y="3978016"/>
+          <a:ext cx="3448474" cy="3089264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1599,20 +1621,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>89858</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71887</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>161746</xdr:rowOff>
+      <xdr:rowOff>80873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>123640</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>62901</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>121814</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1631,8 +1653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1958915" y="4106534"/>
-          <a:ext cx="5056871" cy="2084716"/>
+          <a:off x="2084717" y="4025661"/>
+          <a:ext cx="4785470" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13:AP13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="BJ20" sqref="BJ20:BQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1929,40 +1951,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="167" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
+      <c r="A1" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
       <c r="AG1" s="11"/>
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
@@ -1972,31 +1994,31 @@
       <c r="AM1" s="11"/>
       <c r="AN1" s="11"/>
       <c r="AO1" s="11"/>
-      <c r="AP1" s="124" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="124"/>
+      <c r="AP1" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="125"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="125"/>
+      <c r="AY1" s="125"/>
+      <c r="AZ1" s="125"/>
+      <c r="BA1" s="125"/>
+      <c r="BB1" s="125"/>
+      <c r="BC1" s="125"/>
+      <c r="BD1" s="125"/>
+      <c r="BE1" s="125"/>
+      <c r="BF1" s="125"/>
+      <c r="BG1" s="125"/>
+      <c r="BH1" s="125"/>
+      <c r="BI1" s="125"/>
+      <c r="BJ1" s="125"/>
+      <c r="BK1" s="125"/>
+      <c r="BL1" s="125"/>
       <c r="BM1" s="11"/>
       <c r="BN1" s="11"/>
       <c r="BO1" s="11"/>
@@ -2004,40 +2026,40 @@
       <c r="BQ1" s="11"/>
     </row>
     <row r="2" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="168" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
+      <c r="A2" s="169" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
@@ -2047,29 +2069,29 @@
       <c r="AM2" s="12"/>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124"/>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="124"/>
-      <c r="BF2" s="124"/>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="125"/>
+      <c r="BK2" s="125"/>
+      <c r="BL2" s="125"/>
       <c r="BM2" s="12"/>
       <c r="BN2" s="12"/>
       <c r="BO2" s="12"/>
@@ -2091,55 +2113,55 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="169" t="s">
+      <c r="O3" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="170"/>
-      <c r="AO3" s="170"/>
-      <c r="AP3" s="170"/>
-      <c r="AQ3" s="170"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="170"/>
-      <c r="AT3" s="170"/>
-      <c r="AU3" s="170"/>
-      <c r="AV3" s="170"/>
-      <c r="AW3" s="170"/>
-      <c r="AX3" s="170"/>
-      <c r="AY3" s="171"/>
-      <c r="AZ3" s="172"/>
-      <c r="BA3" s="173"/>
-      <c r="BB3" s="173"/>
-      <c r="BC3" s="173"/>
-      <c r="BD3" s="173"/>
-      <c r="BE3" s="173"/>
-      <c r="BF3" s="174"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="171"/>
+      <c r="AG3" s="171"/>
+      <c r="AH3" s="171"/>
+      <c r="AI3" s="171"/>
+      <c r="AJ3" s="171"/>
+      <c r="AK3" s="171"/>
+      <c r="AL3" s="171"/>
+      <c r="AM3" s="171"/>
+      <c r="AN3" s="171"/>
+      <c r="AO3" s="171"/>
+      <c r="AP3" s="171"/>
+      <c r="AQ3" s="171"/>
+      <c r="AR3" s="171"/>
+      <c r="AS3" s="171"/>
+      <c r="AT3" s="171"/>
+      <c r="AU3" s="171"/>
+      <c r="AV3" s="171"/>
+      <c r="AW3" s="171"/>
+      <c r="AX3" s="171"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="173"/>
+      <c r="BA3" s="174"/>
+      <c r="BB3" s="174"/>
+      <c r="BC3" s="174"/>
+      <c r="BD3" s="174"/>
+      <c r="BE3" s="174"/>
+      <c r="BF3" s="175"/>
       <c r="BG3" s="22"/>
       <c r="BH3" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BI3" s="42"/>
       <c r="BJ3" s="42"/>
@@ -2166,73 +2188,73 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="157" t="s">
+      <c r="O4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158" t="s">
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="159" t="s">
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="159"/>
+      <c r="AI4" s="159"/>
+      <c r="AJ4" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="159"/>
-      <c r="AM4" s="159" t="s">
+      <c r="AK4" s="160"/>
+      <c r="AL4" s="160"/>
+      <c r="AM4" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" s="159"/>
-      <c r="AO4" s="159"/>
-      <c r="AP4" s="159"/>
-      <c r="AQ4" s="159" t="s">
+      <c r="AN4" s="160"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="160"/>
+      <c r="AT4" s="160"/>
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="160"/>
+      <c r="AX4" s="160"/>
+      <c r="AY4" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AR4" s="159"/>
-      <c r="AS4" s="159"/>
-      <c r="AT4" s="159"/>
-      <c r="AU4" s="159"/>
-      <c r="AV4" s="159"/>
-      <c r="AW4" s="159"/>
-      <c r="AX4" s="159"/>
-      <c r="AY4" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ4" s="159"/>
-      <c r="BA4" s="159"/>
-      <c r="BB4" s="159"/>
-      <c r="BC4" s="159"/>
-      <c r="BD4" s="159"/>
-      <c r="BE4" s="159"/>
-      <c r="BF4" s="163"/>
+      <c r="AZ4" s="160"/>
+      <c r="BA4" s="160"/>
+      <c r="BB4" s="160"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="164"/>
       <c r="BG4" s="2"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="155"/>
-      <c r="BJ4" s="155"/>
-      <c r="BK4" s="155"/>
-      <c r="BL4" s="155"/>
-      <c r="BM4" s="155"/>
-      <c r="BN4" s="155"/>
-      <c r="BO4" s="155"/>
-      <c r="BP4" s="155"/>
-      <c r="BQ4" s="156"/>
+      <c r="BH4" s="155"/>
+      <c r="BI4" s="156"/>
+      <c r="BJ4" s="156"/>
+      <c r="BK4" s="156"/>
+      <c r="BL4" s="156"/>
+      <c r="BM4" s="156"/>
+      <c r="BN4" s="156"/>
+      <c r="BO4" s="156"/>
+      <c r="BP4" s="156"/>
+      <c r="BQ4" s="157"/>
     </row>
     <row r="5" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -2249,50 +2271,50 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="165"/>
-      <c r="AR5" s="165"/>
-      <c r="AS5" s="165"/>
-      <c r="AT5" s="165"/>
-      <c r="AU5" s="165"/>
-      <c r="AV5" s="165"/>
-      <c r="AW5" s="165"/>
-      <c r="AX5" s="165"/>
-      <c r="AY5" s="165"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="165"/>
-      <c r="BD5" s="165"/>
-      <c r="BE5" s="165"/>
-      <c r="BF5" s="166"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
+      <c r="AS5" s="166"/>
+      <c r="AT5" s="166"/>
+      <c r="AU5" s="166"/>
+      <c r="AV5" s="166"/>
+      <c r="AW5" s="166"/>
+      <c r="AX5" s="166"/>
+      <c r="AY5" s="166"/>
+      <c r="AZ5" s="166"/>
+      <c r="BA5" s="166"/>
+      <c r="BB5" s="166"/>
+      <c r="BC5" s="166"/>
+      <c r="BD5" s="166"/>
+      <c r="BE5" s="166"/>
+      <c r="BF5" s="167"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
       <c r="BO5" s="2"/>
@@ -2314,65 +2336,65 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="157" t="s">
+      <c r="O6" s="158" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="159"/>
+      <c r="V6" s="159" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="159"/>
+      <c r="X6" s="159"/>
+      <c r="Y6" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="159" t="s">
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="159"/>
+      <c r="AC6" s="159"/>
+      <c r="AD6" s="159"/>
+      <c r="AE6" s="159"/>
+      <c r="AF6" s="159"/>
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="159"/>
+      <c r="AI6" s="159"/>
+      <c r="AJ6" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" s="159"/>
-      <c r="AL6" s="159"/>
-      <c r="AM6" s="159"/>
-      <c r="AN6" s="159"/>
-      <c r="AO6" s="159" t="s">
+      <c r="AK6" s="160"/>
+      <c r="AL6" s="160"/>
+      <c r="AM6" s="160"/>
+      <c r="AN6" s="160"/>
+      <c r="AO6" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="159"/>
-      <c r="AQ6" s="159"/>
-      <c r="AR6" s="160" t="s">
+      <c r="AP6" s="160"/>
+      <c r="AQ6" s="160"/>
+      <c r="AR6" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="161"/>
-      <c r="AT6" s="161"/>
-      <c r="AU6" s="161"/>
-      <c r="AV6" s="161"/>
-      <c r="AW6" s="161"/>
-      <c r="AX6" s="161"/>
-      <c r="AY6" s="161"/>
-      <c r="AZ6" s="161"/>
-      <c r="BA6" s="161"/>
-      <c r="BB6" s="161"/>
-      <c r="BC6" s="161"/>
-      <c r="BD6" s="161"/>
-      <c r="BE6" s="161"/>
-      <c r="BF6" s="162"/>
+      <c r="AS6" s="162"/>
+      <c r="AT6" s="162"/>
+      <c r="AU6" s="162"/>
+      <c r="AV6" s="162"/>
+      <c r="AW6" s="162"/>
+      <c r="AX6" s="162"/>
+      <c r="AY6" s="162"/>
+      <c r="AZ6" s="162"/>
+      <c r="BA6" s="162"/>
+      <c r="BB6" s="162"/>
+      <c r="BC6" s="162"/>
+      <c r="BD6" s="162"/>
+      <c r="BE6" s="162"/>
+      <c r="BF6" s="163"/>
       <c r="BG6" s="16"/>
       <c r="BH6" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BI6" s="42"/>
       <c r="BJ6" s="42"/>
@@ -2399,63 +2421,63 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="151"/>
-      <c r="AH7" s="151"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="151"/>
-      <c r="AL7" s="151"/>
-      <c r="AM7" s="151"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="152"/>
-      <c r="AP7" s="152"/>
-      <c r="AQ7" s="152"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="152"/>
+      <c r="AM7" s="152"/>
+      <c r="AN7" s="152"/>
+      <c r="AO7" s="153"/>
+      <c r="AP7" s="153"/>
+      <c r="AQ7" s="153"/>
       <c r="AR7" s="26"/>
       <c r="AS7" s="23"/>
       <c r="AT7" s="23"/>
-      <c r="AU7" s="153"/>
-      <c r="AV7" s="152"/>
-      <c r="AW7" s="152"/>
-      <c r="AX7" s="152"/>
-      <c r="AY7" s="152"/>
-      <c r="AZ7" s="153"/>
-      <c r="BA7" s="152"/>
-      <c r="BB7" s="152"/>
+      <c r="AU7" s="154"/>
+      <c r="AV7" s="153"/>
+      <c r="AW7" s="153"/>
+      <c r="AX7" s="153"/>
+      <c r="AY7" s="153"/>
+      <c r="AZ7" s="154"/>
+      <c r="BA7" s="153"/>
+      <c r="BB7" s="153"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="24"/>
       <c r="BE7" s="24"/>
       <c r="BF7" s="25"/>
       <c r="BG7" s="17"/>
-      <c r="BH7" s="154" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI7" s="155"/>
-      <c r="BJ7" s="155"/>
-      <c r="BK7" s="155"/>
-      <c r="BL7" s="155"/>
-      <c r="BM7" s="155"/>
-      <c r="BN7" s="155"/>
-      <c r="BO7" s="155"/>
-      <c r="BP7" s="155"/>
-      <c r="BQ7" s="156"/>
+      <c r="BH7" s="155" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI7" s="156"/>
+      <c r="BJ7" s="156"/>
+      <c r="BK7" s="156"/>
+      <c r="BL7" s="156"/>
+      <c r="BM7" s="156"/>
+      <c r="BN7" s="156"/>
+      <c r="BO7" s="156"/>
+      <c r="BP7" s="156"/>
+      <c r="BQ7" s="157"/>
     </row>
     <row r="8" spans="1:69" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
@@ -2483,21 +2505,21 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
       <c r="N9" s="8"/>
       <c r="O9" s="41" t="s">
         <v>12</v>
@@ -2531,7 +2553,7 @@
       <c r="AP9" s="43"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS9" s="42"/>
       <c r="AT9" s="42"/>
@@ -2560,68 +2582,68 @@
       <c r="BQ9" s="43"/>
     </row>
     <row r="10" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="143"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="113" t="s">
+      <c r="O10" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114"/>
-      <c r="AK10" s="114" t="s">
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="115"/>
+      <c r="AK10" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="116"/>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS10" s="136"/>
-      <c r="AT10" s="136"/>
-      <c r="AU10" s="136"/>
-      <c r="AV10" s="136"/>
-      <c r="AW10" s="136"/>
-      <c r="AX10" s="136"/>
-      <c r="AY10" s="136"/>
-      <c r="AZ10" s="136"/>
+      <c r="AR10" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS10" s="137"/>
+      <c r="AT10" s="137"/>
+      <c r="AU10" s="137"/>
+      <c r="AV10" s="137"/>
+      <c r="AW10" s="137"/>
+      <c r="AX10" s="137"/>
+      <c r="AY10" s="137"/>
+      <c r="AZ10" s="137"/>
       <c r="BA10" s="13"/>
       <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
@@ -2641,66 +2663,66 @@
       <c r="BQ10" s="28"/>
     </row>
     <row r="11" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="143"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="144"/>
-      <c r="AH11" s="144"/>
-      <c r="AI11" s="144"/>
-      <c r="AJ11" s="144"/>
-      <c r="AK11" s="145"/>
-      <c r="AL11" s="145"/>
-      <c r="AM11" s="145"/>
-      <c r="AN11" s="145"/>
-      <c r="AO11" s="145"/>
-      <c r="AP11" s="146"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="145"/>
+      <c r="AH11" s="145"/>
+      <c r="AI11" s="145"/>
+      <c r="AJ11" s="145"/>
+      <c r="AK11" s="146"/>
+      <c r="AL11" s="146"/>
+      <c r="AM11" s="146"/>
+      <c r="AN11" s="146"/>
+      <c r="AO11" s="146"/>
+      <c r="AP11" s="147"/>
       <c r="AQ11" s="10"/>
-      <c r="AR11" s="147"/>
-      <c r="AS11" s="148"/>
-      <c r="AT11" s="148"/>
-      <c r="AU11" s="148"/>
-      <c r="AV11" s="148"/>
-      <c r="AW11" s="148"/>
-      <c r="AX11" s="148"/>
-      <c r="AY11" s="148"/>
-      <c r="AZ11" s="148"/>
+      <c r="AR11" s="148"/>
+      <c r="AS11" s="149"/>
+      <c r="AT11" s="149"/>
+      <c r="AU11" s="149"/>
+      <c r="AV11" s="149"/>
+      <c r="AW11" s="149"/>
+      <c r="AX11" s="149"/>
+      <c r="AY11" s="149"/>
+      <c r="AZ11" s="149"/>
       <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
-      <c r="BC11" s="120"/>
-      <c r="BD11" s="120"/>
-      <c r="BE11" s="120"/>
-      <c r="BF11" s="120"/>
-      <c r="BG11" s="140"/>
-      <c r="BH11" s="140"/>
+      <c r="BC11" s="121"/>
+      <c r="BD11" s="121"/>
+      <c r="BE11" s="121"/>
+      <c r="BF11" s="121"/>
+      <c r="BG11" s="141"/>
+      <c r="BH11" s="141"/>
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
@@ -2712,68 +2734,68 @@
       <c r="BQ11" s="28"/>
     </row>
     <row r="12" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="143"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="86"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="86"/>
-      <c r="AO12" s="86"/>
-      <c r="AP12" s="137"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="138"/>
       <c r="AQ12" s="10"/>
-      <c r="AR12" s="135" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS12" s="136"/>
-      <c r="AT12" s="136"/>
-      <c r="AU12" s="136"/>
-      <c r="AV12" s="136"/>
-      <c r="AW12" s="136"/>
-      <c r="AX12" s="136"/>
-      <c r="AY12" s="136"/>
-      <c r="AZ12" s="136"/>
+      <c r="AR12" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS12" s="137"/>
+      <c r="AT12" s="137"/>
+      <c r="AU12" s="137"/>
+      <c r="AV12" s="137"/>
+      <c r="AW12" s="137"/>
+      <c r="AX12" s="137"/>
+      <c r="AY12" s="137"/>
+      <c r="AZ12" s="137"/>
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
-      <c r="BC12" s="120"/>
-      <c r="BD12" s="120"/>
-      <c r="BE12" s="120"/>
-      <c r="BF12" s="120"/>
-      <c r="BG12" s="140"/>
-      <c r="BH12" s="140"/>
+      <c r="BC12" s="121"/>
+      <c r="BD12" s="121"/>
+      <c r="BE12" s="121"/>
+      <c r="BF12" s="121"/>
+      <c r="BG12" s="141"/>
+      <c r="BH12" s="141"/>
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
@@ -2785,65 +2807,65 @@
       <c r="BQ12" s="28"/>
     </row>
     <row r="13" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="143"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="86"/>
-      <c r="AO13" s="86"/>
-      <c r="AP13" s="137"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="138"/>
       <c r="AQ13" s="10"/>
-      <c r="AR13" s="138"/>
-      <c r="AS13" s="139"/>
-      <c r="AT13" s="139"/>
-      <c r="AU13" s="139"/>
-      <c r="AV13" s="139"/>
-      <c r="AW13" s="139"/>
-      <c r="AX13" s="139"/>
-      <c r="AY13" s="139"/>
-      <c r="AZ13" s="139"/>
+      <c r="AR13" s="139"/>
+      <c r="AS13" s="140"/>
+      <c r="AT13" s="140"/>
+      <c r="AU13" s="140"/>
+      <c r="AV13" s="140"/>
+      <c r="AW13" s="140"/>
+      <c r="AX13" s="140"/>
+      <c r="AY13" s="140"/>
+      <c r="AZ13" s="140"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5"/>
-      <c r="BC13" s="120"/>
-      <c r="BD13" s="120"/>
-      <c r="BE13" s="120"/>
-      <c r="BF13" s="120"/>
-      <c r="BG13" s="140"/>
-      <c r="BH13" s="140"/>
+      <c r="BC13" s="121"/>
+      <c r="BD13" s="121"/>
+      <c r="BE13" s="121"/>
+      <c r="BF13" s="121"/>
+      <c r="BG13" s="141"/>
+      <c r="BH13" s="141"/>
       <c r="BI13" s="5"/>
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
@@ -2855,67 +2877,67 @@
       <c r="BQ13" s="28"/>
     </row>
     <row r="14" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="143"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="137"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="138"/>
       <c r="AQ14" s="10"/>
-      <c r="AR14" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS14" s="136"/>
-      <c r="AT14" s="136"/>
-      <c r="AU14" s="136"/>
-      <c r="AV14" s="136"/>
-      <c r="AW14" s="136"/>
-      <c r="AX14" s="136"/>
-      <c r="AY14" s="136"/>
-      <c r="AZ14" s="136"/>
+      <c r="AR14" s="136" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS14" s="137"/>
+      <c r="AT14" s="137"/>
+      <c r="AU14" s="137"/>
+      <c r="AV14" s="137"/>
+      <c r="AW14" s="137"/>
+      <c r="AX14" s="137"/>
+      <c r="AY14" s="137"/>
+      <c r="AZ14" s="137"/>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
-      <c r="BC14" s="120"/>
-      <c r="BD14" s="120"/>
-      <c r="BE14" s="120"/>
-      <c r="BF14" s="120"/>
-      <c r="BG14" s="141"/>
-      <c r="BH14" s="141"/>
+      <c r="BC14" s="121"/>
+      <c r="BD14" s="121"/>
+      <c r="BE14" s="121"/>
+      <c r="BF14" s="121"/>
+      <c r="BG14" s="142"/>
+      <c r="BH14" s="142"/>
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
@@ -2940,52 +2962,52 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="86"/>
-      <c r="AO15" s="86"/>
-      <c r="AP15" s="137"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="138"/>
       <c r="AQ15" s="10"/>
-      <c r="AR15" s="138"/>
-      <c r="AS15" s="139"/>
-      <c r="AT15" s="139"/>
-      <c r="AU15" s="139"/>
-      <c r="AV15" s="139"/>
-      <c r="AW15" s="139"/>
-      <c r="AX15" s="139"/>
-      <c r="AY15" s="139"/>
-      <c r="AZ15" s="139"/>
+      <c r="AR15" s="139"/>
+      <c r="AS15" s="140"/>
+      <c r="AT15" s="140"/>
+      <c r="AU15" s="140"/>
+      <c r="AV15" s="140"/>
+      <c r="AW15" s="140"/>
+      <c r="AX15" s="140"/>
+      <c r="AY15" s="140"/>
+      <c r="AZ15" s="140"/>
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
-      <c r="BC15" s="120"/>
-      <c r="BD15" s="120"/>
-      <c r="BE15" s="120"/>
-      <c r="BF15" s="120"/>
-      <c r="BG15" s="141"/>
-      <c r="BH15" s="141"/>
+      <c r="BC15" s="121"/>
+      <c r="BD15" s="121"/>
+      <c r="BE15" s="121"/>
+      <c r="BF15" s="121"/>
+      <c r="BG15" s="142"/>
+      <c r="BH15" s="142"/>
       <c r="BI15" s="5"/>
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
@@ -2998,7 +3020,7 @@
     </row>
     <row r="16" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -3012,54 +3034,54 @@
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
       <c r="M16" s="43"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="100"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="132"/>
-      <c r="AJ16" s="132"/>
-      <c r="AK16" s="133"/>
-      <c r="AL16" s="133"/>
-      <c r="AM16" s="133"/>
-      <c r="AN16" s="133"/>
-      <c r="AO16" s="133"/>
-      <c r="AP16" s="134"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="133"/>
+      <c r="AH16" s="133"/>
+      <c r="AI16" s="133"/>
+      <c r="AJ16" s="133"/>
+      <c r="AK16" s="134"/>
+      <c r="AL16" s="134"/>
+      <c r="AM16" s="134"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="134"/>
+      <c r="AP16" s="135"/>
       <c r="AQ16" s="10"/>
-      <c r="AR16" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS16" s="136"/>
-      <c r="AT16" s="136"/>
-      <c r="AU16" s="136"/>
-      <c r="AV16" s="136"/>
-      <c r="AW16" s="136"/>
-      <c r="AX16" s="136"/>
-      <c r="AY16" s="136"/>
-      <c r="AZ16" s="136"/>
+      <c r="AR16" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS16" s="137"/>
+      <c r="AT16" s="137"/>
+      <c r="AU16" s="137"/>
+      <c r="AV16" s="137"/>
+      <c r="AW16" s="137"/>
+      <c r="AX16" s="137"/>
+      <c r="AY16" s="137"/>
+      <c r="AZ16" s="137"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="5"/>
-      <c r="BC16" s="120"/>
-      <c r="BD16" s="120"/>
-      <c r="BE16" s="120"/>
-      <c r="BF16" s="120"/>
-      <c r="BG16" s="120"/>
-      <c r="BH16" s="120"/>
+      <c r="BC16" s="121"/>
+      <c r="BD16" s="121"/>
+      <c r="BE16" s="121"/>
+      <c r="BF16" s="121"/>
+      <c r="BG16" s="121"/>
+      <c r="BH16" s="121"/>
       <c r="BI16" s="5"/>
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
@@ -3071,61 +3093,61 @@
       <c r="BQ16" s="28"/>
     </row>
     <row r="17" spans="1:69" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="121"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="123"/>
-      <c r="O17" s="124"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="125" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="124"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="126"/>
-      <c r="AF17" s="126"/>
-      <c r="AG17" s="126"/>
-      <c r="AH17" s="126"/>
-      <c r="AI17" s="126"/>
-      <c r="AJ17" s="127"/>
-      <c r="AK17" s="128">
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="128"/>
+      <c r="AK17" s="129">
         <v>0</v>
       </c>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="128"/>
-      <c r="AO17" s="128"/>
-      <c r="AP17" s="129"/>
+      <c r="AL17" s="129"/>
+      <c r="AM17" s="129"/>
+      <c r="AN17" s="129"/>
+      <c r="AO17" s="129"/>
+      <c r="AP17" s="130"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="130"/>
-      <c r="AS17" s="131"/>
-      <c r="AT17" s="131"/>
-      <c r="AU17" s="131"/>
-      <c r="AV17" s="131"/>
-      <c r="AW17" s="131"/>
-      <c r="AX17" s="131"/>
-      <c r="AY17" s="131"/>
-      <c r="AZ17" s="131"/>
+      <c r="AR17" s="131"/>
+      <c r="AS17" s="132"/>
+      <c r="AT17" s="132"/>
+      <c r="AU17" s="132"/>
+      <c r="AV17" s="132"/>
+      <c r="AW17" s="132"/>
+      <c r="AX17" s="132"/>
+      <c r="AY17" s="132"/>
+      <c r="AZ17" s="132"/>
       <c r="BA17" s="29"/>
       <c r="BB17" s="29"/>
       <c r="BC17" s="29"/>
@@ -3145,18 +3167,18 @@
       <c r="BQ17" s="31"/>
     </row>
     <row r="18" spans="1:69" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -3181,7 +3203,7 @@
       <c r="L19" s="42"/>
       <c r="M19" s="43"/>
       <c r="O19" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
@@ -3210,25 +3232,25 @@
       <c r="AN19" s="42"/>
       <c r="AO19" s="42"/>
       <c r="AP19" s="43"/>
-      <c r="AR19" s="110" t="s">
+      <c r="AR19" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="111"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="111"/>
-      <c r="AW19" s="111"/>
-      <c r="AX19" s="111"/>
-      <c r="AY19" s="111"/>
-      <c r="AZ19" s="111"/>
-      <c r="BA19" s="111"/>
-      <c r="BB19" s="111"/>
-      <c r="BC19" s="111"/>
-      <c r="BD19" s="111"/>
-      <c r="BE19" s="111"/>
-      <c r="BF19" s="111"/>
-      <c r="BG19" s="111"/>
-      <c r="BH19" s="112"/>
+      <c r="AS19" s="112"/>
+      <c r="AT19" s="112"/>
+      <c r="AU19" s="112"/>
+      <c r="AV19" s="112"/>
+      <c r="AW19" s="112"/>
+      <c r="AX19" s="112"/>
+      <c r="AY19" s="112"/>
+      <c r="AZ19" s="112"/>
+      <c r="BA19" s="112"/>
+      <c r="BB19" s="112"/>
+      <c r="BC19" s="112"/>
+      <c r="BD19" s="112"/>
+      <c r="BE19" s="112"/>
+      <c r="BF19" s="112"/>
+      <c r="BG19" s="112"/>
+      <c r="BH19" s="113"/>
       <c r="BI19" s="2"/>
       <c r="BJ19" s="41" t="s">
         <v>20</v>
@@ -3242,143 +3264,143 @@
       <c r="BQ19" s="43"/>
     </row>
     <row r="20" spans="1:69" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
-      <c r="O20" s="113" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="84"/>
+      <c r="O20" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="114"/>
-      <c r="AJ20" s="114"/>
-      <c r="AK20" s="114" t="s">
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="AL20" s="114"/>
-      <c r="AM20" s="114"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="115"/>
-      <c r="AR20" s="116" t="s">
+      <c r="AC20" s="115"/>
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="115"/>
+      <c r="AJ20" s="115"/>
+      <c r="AK20" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL20" s="115"/>
+      <c r="AM20" s="115"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="116"/>
+      <c r="AR20" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AS20" s="117"/>
-      <c r="AT20" s="117"/>
-      <c r="AU20" s="117"/>
-      <c r="AV20" s="117"/>
-      <c r="AW20" s="88" t="s">
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="AX20" s="88"/>
-      <c r="AY20" s="88"/>
-      <c r="AZ20" s="88"/>
-      <c r="BA20" s="88"/>
-      <c r="BB20" s="88"/>
-      <c r="BC20" s="88"/>
-      <c r="BD20" s="94" t="s">
+      <c r="AX20" s="89"/>
+      <c r="AY20" s="89"/>
+      <c r="AZ20" s="89"/>
+      <c r="BA20" s="89"/>
+      <c r="BB20" s="89"/>
+      <c r="BC20" s="89"/>
+      <c r="BD20" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="BE20" s="94"/>
-      <c r="BF20" s="94"/>
-      <c r="BG20" s="94"/>
-      <c r="BH20" s="95"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="95"/>
+      <c r="BG20" s="95"/>
+      <c r="BH20" s="96"/>
       <c r="BI20" s="13"/>
-      <c r="BJ20" s="96"/>
-      <c r="BK20" s="97"/>
-      <c r="BL20" s="97"/>
-      <c r="BM20" s="97"/>
-      <c r="BN20" s="97"/>
-      <c r="BO20" s="97"/>
-      <c r="BP20" s="97"/>
-      <c r="BQ20" s="98"/>
+      <c r="BJ20" s="97"/>
+      <c r="BK20" s="98"/>
+      <c r="BL20" s="98"/>
+      <c r="BM20" s="98"/>
+      <c r="BN20" s="98"/>
+      <c r="BO20" s="98"/>
+      <c r="BP20" s="98"/>
+      <c r="BQ20" s="99"/>
     </row>
     <row r="21" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="O21" s="99"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="100"/>
-      <c r="AJ21" s="100"/>
-      <c r="AK21" s="100"/>
-      <c r="AL21" s="100"/>
-      <c r="AM21" s="100"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="101"/>
-      <c r="AR21" s="102"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="103"/>
-      <c r="AW21" s="103"/>
-      <c r="AX21" s="103"/>
-      <c r="AY21" s="103"/>
-      <c r="AZ21" s="103"/>
-      <c r="BA21" s="103"/>
-      <c r="BB21" s="103"/>
-      <c r="BC21" s="103"/>
-      <c r="BD21" s="106"/>
-      <c r="BE21" s="106"/>
-      <c r="BF21" s="106"/>
-      <c r="BG21" s="106"/>
-      <c r="BH21" s="107"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="101"/>
+      <c r="AK21" s="101"/>
+      <c r="AL21" s="101"/>
+      <c r="AM21" s="101"/>
+      <c r="AN21" s="101"/>
+      <c r="AO21" s="101"/>
+      <c r="AP21" s="102"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="104"/>
+      <c r="AV21" s="104"/>
+      <c r="AW21" s="176"/>
+      <c r="AX21" s="176"/>
+      <c r="AY21" s="176"/>
+      <c r="AZ21" s="176"/>
+      <c r="BA21" s="176"/>
+      <c r="BB21" s="176"/>
+      <c r="BC21" s="176"/>
+      <c r="BD21" s="107"/>
+      <c r="BE21" s="107"/>
+      <c r="BF21" s="107"/>
+      <c r="BG21" s="107"/>
+      <c r="BH21" s="108"/>
       <c r="BI21" s="5"/>
-      <c r="BJ21" s="96"/>
-      <c r="BK21" s="97"/>
-      <c r="BL21" s="97"/>
-      <c r="BM21" s="97"/>
-      <c r="BN21" s="97"/>
-      <c r="BO21" s="97"/>
-      <c r="BP21" s="97"/>
-      <c r="BQ21" s="98"/>
+      <c r="BJ21" s="97"/>
+      <c r="BK21" s="98"/>
+      <c r="BL21" s="98"/>
+      <c r="BM21" s="98"/>
+      <c r="BN21" s="98"/>
+      <c r="BO21" s="98"/>
+      <c r="BP21" s="98"/>
+      <c r="BQ21" s="99"/>
     </row>
     <row r="22" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
@@ -3408,95 +3430,95 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
-      <c r="AA22" s="118" t="s">
+      <c r="AA22" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="118"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="118"/>
-      <c r="AG22" s="118"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
-      <c r="AK22" s="119">
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="119"/>
+      <c r="AH22" s="119"/>
+      <c r="AI22" s="119"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="120">
         <v>0</v>
       </c>
-      <c r="AL22" s="119"/>
-      <c r="AM22" s="119"/>
-      <c r="AN22" s="119"/>
-      <c r="AO22" s="119"/>
-      <c r="AP22" s="119"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="105"/>
-      <c r="AT22" s="105"/>
-      <c r="AU22" s="105"/>
-      <c r="AV22" s="105"/>
-      <c r="AW22" s="105"/>
-      <c r="AX22" s="105"/>
-      <c r="AY22" s="105"/>
-      <c r="AZ22" s="105"/>
-      <c r="BA22" s="105"/>
-      <c r="BB22" s="105"/>
-      <c r="BC22" s="105"/>
-      <c r="BD22" s="108"/>
-      <c r="BE22" s="108"/>
-      <c r="BF22" s="108"/>
-      <c r="BG22" s="108"/>
-      <c r="BH22" s="109"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="120"/>
+      <c r="AN22" s="120"/>
+      <c r="AO22" s="120"/>
+      <c r="AP22" s="120"/>
+      <c r="AR22" s="105"/>
+      <c r="AS22" s="106"/>
+      <c r="AT22" s="106"/>
+      <c r="AU22" s="106"/>
+      <c r="AV22" s="106"/>
+      <c r="AW22" s="177"/>
+      <c r="AX22" s="177"/>
+      <c r="AY22" s="177"/>
+      <c r="AZ22" s="177"/>
+      <c r="BA22" s="177"/>
+      <c r="BB22" s="177"/>
+      <c r="BC22" s="177"/>
+      <c r="BD22" s="109"/>
+      <c r="BE22" s="109"/>
+      <c r="BF22" s="109"/>
+      <c r="BG22" s="109"/>
+      <c r="BH22" s="110"/>
       <c r="BI22" s="5"/>
-      <c r="BJ22" s="96"/>
-      <c r="BK22" s="97"/>
-      <c r="BL22" s="97"/>
-      <c r="BM22" s="97"/>
-      <c r="BN22" s="97"/>
-      <c r="BO22" s="97"/>
-      <c r="BP22" s="97"/>
-      <c r="BQ22" s="98"/>
+      <c r="BJ22" s="97"/>
+      <c r="BK22" s="98"/>
+      <c r="BL22" s="98"/>
+      <c r="BM22" s="98"/>
+      <c r="BN22" s="98"/>
+      <c r="BO22" s="98"/>
+      <c r="BP22" s="98"/>
+      <c r="BQ22" s="99"/>
     </row>
     <row r="23" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="87"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="84"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="87"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="88"/>
+      <c r="AM23" s="88"/>
+      <c r="AN23" s="88"/>
+      <c r="AO23" s="88"/>
+      <c r="AP23" s="88"/>
       <c r="BG23" s="5"/>
       <c r="BH23" s="5"/>
       <c r="BI23" s="5"/>
@@ -3510,34 +3532,34 @@
       <c r="BQ23" s="18"/>
     </row>
     <row r="24" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="86"/>
-      <c r="AJ24" s="86"/>
-      <c r="AK24" s="87"/>
-      <c r="AL24" s="87"/>
-      <c r="AM24" s="87"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="85"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="87"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="88"/>
+      <c r="AM24" s="88"/>
+      <c r="AN24" s="88"/>
+      <c r="AO24" s="88"/>
+      <c r="AP24" s="88"/>
       <c r="BG24" s="5"/>
       <c r="BH24" s="5"/>
       <c r="BI24" s="5"/>
@@ -3553,34 +3575,34 @@
     <row r="25" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="86"/>
-      <c r="AK25" s="87"/>
-      <c r="AL25" s="87"/>
-      <c r="AM25" s="87"/>
-      <c r="AN25" s="87"/>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="87"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="87"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="88"/>
+      <c r="AM25" s="88"/>
+      <c r="AN25" s="88"/>
+      <c r="AO25" s="88"/>
+      <c r="AP25" s="88"/>
       <c r="BA25" s="2"/>
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
@@ -3602,34 +3624,34 @@
     <row r="26" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="89"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="89"/>
-      <c r="AP26" s="89"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="94"/>
+      <c r="AJ26" s="94"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="90"/>
+      <c r="AM26" s="90"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
       <c r="BA26" s="2"/>
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
@@ -3762,7 +3784,7 @@
     </row>
     <row r="32" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -3795,19 +3817,19 @@
       <c r="BQ32" s="2"/>
     </row>
     <row r="33" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="92"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="93"/>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
@@ -3827,19 +3849,19 @@
       <c r="BQ33" s="2"/>
     </row>
     <row r="34" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="92"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="93"/>
       <c r="BQ34" s="2"/>
     </row>
     <row r="35" spans="1:69" s="3" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4065,7 +4087,7 @@
       <c r="L41" s="45"/>
       <c r="M41" s="46"/>
       <c r="O41" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
@@ -4104,7 +4126,7 @@
       <c r="AX41" s="42"/>
       <c r="AY41" s="43"/>
       <c r="BA41" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB41" s="42"/>
       <c r="BC41" s="42"/>
@@ -4124,21 +4146,21 @@
       <c r="BQ41" s="43"/>
     </row>
     <row r="42" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="79"/>
-      <c r="O42" s="80" t="s">
-        <v>30</v>
+      <c r="A42" s="78"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="80"/>
+      <c r="O42" s="81" t="s">
+        <v>29</v>
       </c>
       <c r="P42" s="36"/>
       <c r="Q42" s="36"/>
@@ -4149,7 +4171,7 @@
       <c r="V42" s="36"/>
       <c r="W42" s="36"/>
       <c r="X42" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y42" s="36"/>
       <c r="Z42" s="36"/>
@@ -4161,7 +4183,7 @@
       <c r="AF42" s="36"/>
       <c r="AG42" s="36"/>
       <c r="AH42" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI42" s="37"/>
       <c r="AJ42" s="37"/>
@@ -4172,7 +4194,7 @@
       <c r="AO42" s="37"/>
       <c r="AP42" s="37"/>
       <c r="AQ42" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AR42" s="36"/>
       <c r="AS42" s="36"/>
@@ -4185,7 +4207,7 @@
       <c r="BA42" s="32"/>
       <c r="BB42" s="2"/>
       <c r="BC42" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BD42" s="39"/>
       <c r="BE42" s="39"/>
@@ -4204,50 +4226,50 @@
     </row>
     <row r="43" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O43" s="35"/>
-      <c r="P43" s="66">
+      <c r="P43" s="68">
         <v>100000</v>
       </c>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="66"/>
-      <c r="S43" s="66"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="66">
+      <c r="X43" s="68">
         <v>4000</v>
       </c>
-      <c r="Y43" s="66"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="66"/>
-      <c r="AB43" s="66"/>
-      <c r="AC43" s="66"/>
-      <c r="AD43" s="66"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66">
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68">
         <v>8500</v>
       </c>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="66"/>
-      <c r="AK43" s="66"/>
-      <c r="AL43" s="66"/>
-      <c r="AM43" s="66"/>
-      <c r="AN43" s="66"/>
-      <c r="AO43" s="66"/>
-      <c r="AP43" s="66"/>
-      <c r="AQ43" s="70">
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+      <c r="AK43" s="68"/>
+      <c r="AL43" s="68"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="68"/>
+      <c r="AO43" s="68"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="66">
         <v>8500</v>
       </c>
-      <c r="AR43" s="70"/>
-      <c r="AS43" s="70"/>
-      <c r="AT43" s="70"/>
-      <c r="AU43" s="70"/>
-      <c r="AV43" s="70"/>
-      <c r="AW43" s="70"/>
-      <c r="AX43" s="70"/>
-      <c r="AY43" s="71"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="66"/>
+      <c r="AT43" s="66"/>
+      <c r="AU43" s="66"/>
+      <c r="AV43" s="66"/>
+      <c r="AW43" s="66"/>
+      <c r="AX43" s="66"/>
+      <c r="AY43" s="72"/>
       <c r="BA43" s="32"/>
       <c r="BB43" s="2"/>
       <c r="BC43" s="39"/>
@@ -4267,34 +4289,34 @@
       <c r="BQ43" s="40"/>
     </row>
     <row r="44" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="74"/>
-      <c r="O44" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="76"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="75"/>
+      <c r="O44" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
       <c r="X44" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y44" s="36"/>
       <c r="Z44" s="36"/>
@@ -4306,7 +4328,7 @@
       <c r="AF44" s="36"/>
       <c r="AG44" s="36"/>
       <c r="AH44" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" s="36"/>
       <c r="AJ44" s="36"/>
@@ -4317,7 +4339,7 @@
       <c r="AO44" s="36"/>
       <c r="AP44" s="36"/>
       <c r="AQ44" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR44" s="36"/>
       <c r="AS44" s="36"/>
@@ -4330,7 +4352,7 @@
       <c r="BA44" s="32"/>
       <c r="BB44" s="2"/>
       <c r="BC44" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BD44" s="64"/>
       <c r="BE44" s="64"/>
@@ -4348,19 +4370,19 @@
       <c r="BQ44" s="33"/>
     </row>
     <row r="45" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="74"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="75"/>
       <c r="O45" s="65">
         <v>2000</v>
       </c>
@@ -4372,59 +4394,59 @@
       <c r="U45" s="66"/>
       <c r="V45" s="66"/>
       <c r="W45" s="66"/>
-      <c r="X45" s="66">
+      <c r="X45" s="67">
         <v>8000</v>
       </c>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="66"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66">
-        <v>14000</v>
-      </c>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="66"/>
-      <c r="AL45" s="66"/>
-      <c r="AM45" s="66"/>
-      <c r="AN45" s="66"/>
-      <c r="AO45" s="66"/>
-      <c r="AP45" s="66"/>
-      <c r="AQ45" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR45" s="66"/>
-      <c r="AS45" s="66"/>
-      <c r="AT45" s="66"/>
-      <c r="AU45" s="66"/>
-      <c r="AV45" s="66"/>
-      <c r="AW45" s="66"/>
-      <c r="AX45" s="66"/>
-      <c r="AY45" s="67"/>
+      <c r="Y45" s="67"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="67"/>
+      <c r="AF45" s="67"/>
+      <c r="AG45" s="67"/>
+      <c r="AH45" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="68"/>
+      <c r="AK45" s="68"/>
+      <c r="AL45" s="68"/>
+      <c r="AM45" s="68"/>
+      <c r="AN45" s="68"/>
+      <c r="AO45" s="68"/>
+      <c r="AP45" s="68"/>
+      <c r="AQ45" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR45" s="68"/>
+      <c r="AS45" s="68"/>
+      <c r="AT45" s="68"/>
+      <c r="AU45" s="68"/>
+      <c r="AV45" s="68"/>
+      <c r="AW45" s="68"/>
+      <c r="AX45" s="68"/>
+      <c r="AY45" s="69"/>
       <c r="BA45" s="32"/>
       <c r="BB45" s="19"/>
-      <c r="BC45" s="68" t="s">
+      <c r="BC45" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="BD45" s="68"/>
-      <c r="BE45" s="68"/>
-      <c r="BF45" s="68"/>
-      <c r="BG45" s="68"/>
-      <c r="BH45" s="68"/>
-      <c r="BI45" s="68"/>
-      <c r="BJ45" s="68"/>
-      <c r="BK45" s="68"/>
-      <c r="BL45" s="68"/>
-      <c r="BM45" s="68"/>
-      <c r="BN45" s="68"/>
-      <c r="BO45" s="68"/>
-      <c r="BP45" s="68"/>
-      <c r="BQ45" s="69"/>
+      <c r="BD45" s="70"/>
+      <c r="BE45" s="70"/>
+      <c r="BF45" s="70"/>
+      <c r="BG45" s="70"/>
+      <c r="BH45" s="70"/>
+      <c r="BI45" s="70"/>
+      <c r="BJ45" s="70"/>
+      <c r="BK45" s="70"/>
+      <c r="BL45" s="70"/>
+      <c r="BM45" s="70"/>
+      <c r="BN45" s="70"/>
+      <c r="BO45" s="70"/>
+      <c r="BP45" s="70"/>
+      <c r="BQ45" s="71"/>
     </row>
     <row r="46" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="52">
@@ -4483,21 +4505,21 @@
       <c r="AY46" s="57"/>
       <c r="BA46" s="32"/>
       <c r="BB46" s="19"/>
-      <c r="BC46" s="68"/>
-      <c r="BD46" s="68"/>
-      <c r="BE46" s="68"/>
-      <c r="BF46" s="68"/>
-      <c r="BG46" s="68"/>
-      <c r="BH46" s="68"/>
-      <c r="BI46" s="68"/>
-      <c r="BJ46" s="68"/>
-      <c r="BK46" s="68"/>
-      <c r="BL46" s="68"/>
-      <c r="BM46" s="68"/>
-      <c r="BN46" s="68"/>
-      <c r="BO46" s="68"/>
-      <c r="BP46" s="68"/>
-      <c r="BQ46" s="69"/>
+      <c r="BC46" s="70"/>
+      <c r="BD46" s="70"/>
+      <c r="BE46" s="70"/>
+      <c r="BF46" s="70"/>
+      <c r="BG46" s="70"/>
+      <c r="BH46" s="70"/>
+      <c r="BI46" s="70"/>
+      <c r="BJ46" s="70"/>
+      <c r="BK46" s="70"/>
+      <c r="BL46" s="70"/>
+      <c r="BM46" s="70"/>
+      <c r="BN46" s="70"/>
+      <c r="BO46" s="70"/>
+      <c r="BP46" s="70"/>
+      <c r="BQ46" s="71"/>
     </row>
     <row r="47" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="52"/>
@@ -4585,7 +4607,7 @@
       <c r="L48" s="53"/>
       <c r="M48" s="54"/>
       <c r="O48" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P48" s="63"/>
       <c r="Q48" s="63"/>

--- a/static/ModeloFactura/002-0-230723.xlsx
+++ b/static/ModeloFactura/002-0-230723.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -270,6 +270,30 @@
   </si>
   <si>
     <t>Cada usuario tendra la posibilidad de realizar maximo dos acuerdos de pago por año siempre y cuando no superen 6 meses</t>
+  </si>
+  <si>
+    <t>Saldo anterior</t>
+  </si>
+  <si>
+    <t>Aporte fijo</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Reconexion</t>
+  </si>
+  <si>
+    <t>Acuerdo de pago</t>
+  </si>
+  <si>
+    <t>Complementario</t>
+  </si>
+  <si>
+    <t>Subsidio</t>
+  </si>
+  <si>
+    <t>Aporte - Recargo</t>
   </si>
 </sst>
 </file>
@@ -549,7 +573,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,8 +604,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -982,13 +1018,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="dashDot">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1166,93 +1307,129 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,17 +1439,41 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1286,169 +1487,214 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1460,6 +1706,72 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,6 +1779,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1486,154 +1810,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2012,50 +2192,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>39095</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>68848</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>81900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1954121" y="5811618"/>
-          <a:ext cx="3970095" cy="2662309"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
       <xdr:colOff>47694</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>10303</xdr:rowOff>
@@ -2074,7 +2210,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2117,7 +2253,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2142,16 +2278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>82215</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>110759</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>82216</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>95568</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95569</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>50401</xdr:rowOff>
+      <xdr:rowOff>130611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2161,7 +2297,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2173,7 +2309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2839452" y="5224180"/>
+          <a:off x="2979821" y="5304390"/>
           <a:ext cx="1848169" cy="491089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2204,7 +2340,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2230,25 +2366,68 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>130340</xdr:colOff>
+      <xdr:colOff>140368</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>140369</xdr:rowOff>
+      <xdr:rowOff>140368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>60158</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>35483</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>115597</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>40104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="37691" b="16750"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2055394" y="3318710"/>
+          <a:ext cx="3775203" cy="2015289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60156</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>80210</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>96239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2261,8 +2440,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2045366" y="3318711"/>
-          <a:ext cx="3870160" cy="1830193"/>
+          <a:off x="2255919" y="5905501"/>
+          <a:ext cx="3398923" cy="1660343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10027</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>46638</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>22132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2205790" y="7680158"/>
+          <a:ext cx="3696216" cy="533474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2997,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AR6" sqref="AR6:BG7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="BJ19" sqref="BJ19:BL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3040,32 +3263,32 @@
       <c r="AQ1" s="46"/>
       <c r="AR1" s="46"/>
       <c r="AS1" s="42"/>
-      <c r="AT1" s="109" t="s">
+      <c r="AT1" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="109"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="109"/>
-      <c r="AX1" s="109"/>
-      <c r="AY1" s="109"/>
-      <c r="AZ1" s="109"/>
-      <c r="BA1" s="109"/>
-      <c r="BB1" s="109"/>
-      <c r="BC1" s="109"/>
-      <c r="BD1" s="109"/>
-      <c r="BE1" s="109"/>
-      <c r="BF1" s="109"/>
-      <c r="BG1" s="109"/>
-      <c r="BH1" s="109"/>
-      <c r="BI1" s="109"/>
-      <c r="BJ1" s="109"/>
-      <c r="BK1" s="109"/>
-      <c r="BL1" s="109"/>
-      <c r="BM1" s="109"/>
-      <c r="BN1" s="109"/>
-      <c r="BO1" s="109"/>
-      <c r="BP1" s="109"/>
-      <c r="BQ1" s="109"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="129"/>
+      <c r="AZ1" s="129"/>
+      <c r="BA1" s="129"/>
+      <c r="BB1" s="129"/>
+      <c r="BC1" s="129"/>
+      <c r="BD1" s="129"/>
+      <c r="BE1" s="129"/>
+      <c r="BF1" s="129"/>
+      <c r="BG1" s="129"/>
+      <c r="BH1" s="129"/>
+      <c r="BI1" s="129"/>
+      <c r="BJ1" s="129"/>
+      <c r="BK1" s="129"/>
+      <c r="BL1" s="129"/>
+      <c r="BM1" s="129"/>
+      <c r="BN1" s="129"/>
+      <c r="BO1" s="129"/>
+      <c r="BP1" s="129"/>
+      <c r="BQ1" s="129"/>
     </row>
     <row r="2" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51"/>
@@ -3085,32 +3308,32 @@
       <c r="AQ2" s="46"/>
       <c r="AR2" s="46"/>
       <c r="AS2" s="43"/>
-      <c r="AT2" s="110" t="s">
+      <c r="AT2" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="110"/>
-      <c r="AV2" s="110"/>
-      <c r="AW2" s="110"/>
-      <c r="AX2" s="110"/>
-      <c r="AY2" s="110"/>
-      <c r="AZ2" s="110"/>
-      <c r="BA2" s="110"/>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
-      <c r="BD2" s="110"/>
-      <c r="BE2" s="110"/>
-      <c r="BF2" s="110"/>
-      <c r="BG2" s="110"/>
-      <c r="BH2" s="110"/>
-      <c r="BI2" s="110"/>
-      <c r="BJ2" s="110"/>
-      <c r="BK2" s="110"/>
-      <c r="BL2" s="110"/>
-      <c r="BM2" s="110"/>
-      <c r="BN2" s="110"/>
-      <c r="BO2" s="110"/>
-      <c r="BP2" s="110"/>
-      <c r="BQ2" s="110"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
+      <c r="BA2" s="130"/>
+      <c r="BB2" s="130"/>
+      <c r="BC2" s="130"/>
+      <c r="BD2" s="130"/>
+      <c r="BE2" s="130"/>
+      <c r="BF2" s="130"/>
+      <c r="BG2" s="130"/>
+      <c r="BH2" s="130"/>
+      <c r="BI2" s="130"/>
+      <c r="BJ2" s="130"/>
+      <c r="BK2" s="130"/>
+      <c r="BL2" s="130"/>
+      <c r="BM2" s="130"/>
+      <c r="BN2" s="130"/>
+      <c r="BO2" s="130"/>
+      <c r="BP2" s="130"/>
+      <c r="BQ2" s="130"/>
     </row>
     <row r="3" spans="1:69" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
@@ -3156,384 +3379,384 @@
       <c r="BQ3" s="11"/>
     </row>
     <row r="4" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="54"/>
-      <c r="O4" s="130" t="s">
+      <c r="O4" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="133"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
-      <c r="AP4" s="134"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="121"/>
       <c r="AQ4" s="49"/>
-      <c r="AR4" s="115" t="s">
+      <c r="AR4" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
-      <c r="BN4" s="116"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="116"/>
-      <c r="BQ4" s="117"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="105"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="105"/>
+      <c r="BM4" s="105"/>
+      <c r="BN4" s="105"/>
+      <c r="BO4" s="105"/>
+      <c r="BP4" s="105"/>
+      <c r="BQ4" s="106"/>
     </row>
     <row r="5" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
       <c r="N5" s="54"/>
-      <c r="O5" s="135" t="s">
+      <c r="O5" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="126" t="s">
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126" t="s">
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="126"/>
-      <c r="AO5" s="126"/>
-      <c r="AP5" s="127"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="122"/>
+      <c r="AP5" s="123"/>
       <c r="AQ5" s="50"/>
-      <c r="AR5" s="140" t="s">
+      <c r="AR5" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="111"/>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="111"/>
-      <c r="BA5" s="111"/>
-      <c r="BB5" s="111"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="111"/>
-      <c r="BE5" s="111"/>
-      <c r="BF5" s="111"/>
-      <c r="BG5" s="111"/>
-      <c r="BH5" s="111" t="s">
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="131"/>
+      <c r="AU5" s="131"/>
+      <c r="AV5" s="131"/>
+      <c r="AW5" s="131"/>
+      <c r="AX5" s="131"/>
+      <c r="AY5" s="131"/>
+      <c r="AZ5" s="131"/>
+      <c r="BA5" s="131"/>
+      <c r="BB5" s="131"/>
+      <c r="BC5" s="131"/>
+      <c r="BD5" s="131"/>
+      <c r="BE5" s="131"/>
+      <c r="BF5" s="131"/>
+      <c r="BG5" s="131"/>
+      <c r="BH5" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="BI5" s="111"/>
-      <c r="BJ5" s="111"/>
-      <c r="BK5" s="111"/>
-      <c r="BL5" s="111"/>
-      <c r="BM5" s="111"/>
-      <c r="BN5" s="111"/>
-      <c r="BO5" s="111"/>
-      <c r="BP5" s="111"/>
-      <c r="BQ5" s="112"/>
+      <c r="BI5" s="131"/>
+      <c r="BJ5" s="131"/>
+      <c r="BK5" s="131"/>
+      <c r="BL5" s="131"/>
+      <c r="BM5" s="131"/>
+      <c r="BN5" s="131"/>
+      <c r="BO5" s="131"/>
+      <c r="BP5" s="131"/>
+      <c r="BQ5" s="132"/>
     </row>
     <row r="6" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
       <c r="N6" s="54"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="128"/>
-      <c r="AP6" s="129"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="127"/>
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="127"/>
+      <c r="AM6" s="127"/>
+      <c r="AN6" s="127"/>
+      <c r="AO6" s="127"/>
+      <c r="AP6" s="128"/>
       <c r="AQ6" s="48"/>
-      <c r="AR6" s="141"/>
-      <c r="AS6" s="142"/>
-      <c r="AT6" s="142"/>
-      <c r="AU6" s="142"/>
-      <c r="AV6" s="142"/>
-      <c r="AW6" s="142"/>
-      <c r="AX6" s="142"/>
-      <c r="AY6" s="142"/>
-      <c r="AZ6" s="142"/>
-      <c r="BA6" s="142"/>
-      <c r="BB6" s="142"/>
-      <c r="BC6" s="142"/>
-      <c r="BD6" s="142"/>
-      <c r="BE6" s="142"/>
-      <c r="BF6" s="142"/>
-      <c r="BG6" s="142"/>
-      <c r="BH6" s="138"/>
-      <c r="BI6" s="138"/>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="138"/>
-      <c r="BL6" s="138"/>
-      <c r="BM6" s="138"/>
-      <c r="BN6" s="138"/>
-      <c r="BO6" s="138"/>
-      <c r="BP6" s="138"/>
-      <c r="BQ6" s="139"/>
+      <c r="AR6" s="139"/>
+      <c r="AS6" s="140"/>
+      <c r="AT6" s="140"/>
+      <c r="AU6" s="140"/>
+      <c r="AV6" s="140"/>
+      <c r="AW6" s="140"/>
+      <c r="AX6" s="140"/>
+      <c r="AY6" s="140"/>
+      <c r="AZ6" s="140"/>
+      <c r="BA6" s="140"/>
+      <c r="BB6" s="140"/>
+      <c r="BC6" s="140"/>
+      <c r="BD6" s="140"/>
+      <c r="BE6" s="140"/>
+      <c r="BF6" s="140"/>
+      <c r="BG6" s="140"/>
+      <c r="BH6" s="136"/>
+      <c r="BI6" s="136"/>
+      <c r="BJ6" s="136"/>
+      <c r="BK6" s="136"/>
+      <c r="BL6" s="136"/>
+      <c r="BM6" s="136"/>
+      <c r="BN6" s="136"/>
+      <c r="BO6" s="136"/>
+      <c r="BP6" s="136"/>
+      <c r="BQ6" s="137"/>
     </row>
     <row r="7" spans="1:69" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
       <c r="N7" s="54"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="128"/>
-      <c r="AK7" s="128"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="128"/>
-      <c r="AO7" s="128"/>
-      <c r="AP7" s="129"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="127"/>
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="128"/>
       <c r="AQ7" s="48"/>
-      <c r="AR7" s="141"/>
-      <c r="AS7" s="142"/>
-      <c r="AT7" s="142"/>
-      <c r="AU7" s="142"/>
-      <c r="AV7" s="142"/>
-      <c r="AW7" s="142"/>
-      <c r="AX7" s="142"/>
-      <c r="AY7" s="142"/>
-      <c r="AZ7" s="142"/>
-      <c r="BA7" s="142"/>
-      <c r="BB7" s="142"/>
-      <c r="BC7" s="142"/>
-      <c r="BD7" s="142"/>
-      <c r="BE7" s="142"/>
-      <c r="BF7" s="142"/>
-      <c r="BG7" s="142"/>
-      <c r="BH7" s="138"/>
-      <c r="BI7" s="138"/>
-      <c r="BJ7" s="138"/>
-      <c r="BK7" s="138"/>
-      <c r="BL7" s="138"/>
-      <c r="BM7" s="138"/>
-      <c r="BN7" s="138"/>
-      <c r="BO7" s="138"/>
-      <c r="BP7" s="138"/>
-      <c r="BQ7" s="139"/>
+      <c r="AR7" s="139"/>
+      <c r="AS7" s="140"/>
+      <c r="AT7" s="140"/>
+      <c r="AU7" s="140"/>
+      <c r="AV7" s="140"/>
+      <c r="AW7" s="140"/>
+      <c r="AX7" s="140"/>
+      <c r="AY7" s="140"/>
+      <c r="AZ7" s="140"/>
+      <c r="BA7" s="140"/>
+      <c r="BB7" s="140"/>
+      <c r="BC7" s="140"/>
+      <c r="BD7" s="140"/>
+      <c r="BE7" s="140"/>
+      <c r="BF7" s="140"/>
+      <c r="BG7" s="140"/>
+      <c r="BH7" s="136"/>
+      <c r="BI7" s="136"/>
+      <c r="BJ7" s="136"/>
+      <c r="BK7" s="136"/>
+      <c r="BL7" s="136"/>
+      <c r="BM7" s="136"/>
+      <c r="BN7" s="136"/>
+      <c r="BO7" s="136"/>
+      <c r="BP7" s="136"/>
+      <c r="BQ7" s="137"/>
     </row>
     <row r="8" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="O8" s="135" t="s">
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="O8" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="119"/>
-      <c r="AG8" s="126" t="s">
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="126" t="s">
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="AO8" s="126"/>
-      <c r="AP8" s="127"/>
+      <c r="AO8" s="122"/>
+      <c r="AP8" s="123"/>
       <c r="AQ8" s="50"/>
-      <c r="AR8" s="118" t="s">
+      <c r="AR8" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="119"/>
-      <c r="AU8" s="119"/>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="119"/>
-      <c r="AX8" s="119"/>
-      <c r="AY8" s="119"/>
-      <c r="AZ8" s="119"/>
-      <c r="BA8" s="143" t="s">
+      <c r="AS8" s="96"/>
+      <c r="AT8" s="96"/>
+      <c r="AU8" s="96"/>
+      <c r="AV8" s="96"/>
+      <c r="AW8" s="96"/>
+      <c r="AX8" s="96"/>
+      <c r="AY8" s="96"/>
+      <c r="AZ8" s="96"/>
+      <c r="BA8" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="BB8" s="144"/>
-      <c r="BC8" s="144"/>
-      <c r="BD8" s="144"/>
-      <c r="BE8" s="144"/>
-      <c r="BF8" s="144"/>
-      <c r="BG8" s="144"/>
-      <c r="BH8" s="144"/>
-      <c r="BI8" s="144"/>
-      <c r="BJ8" s="144"/>
-      <c r="BK8" s="144"/>
-      <c r="BL8" s="144"/>
-      <c r="BM8" s="144"/>
-      <c r="BN8" s="144"/>
-      <c r="BO8" s="144"/>
-      <c r="BP8" s="144"/>
-      <c r="BQ8" s="145"/>
+      <c r="BB8" s="142"/>
+      <c r="BC8" s="142"/>
+      <c r="BD8" s="142"/>
+      <c r="BE8" s="142"/>
+      <c r="BF8" s="142"/>
+      <c r="BG8" s="142"/>
+      <c r="BH8" s="142"/>
+      <c r="BI8" s="142"/>
+      <c r="BJ8" s="142"/>
+      <c r="BK8" s="142"/>
+      <c r="BL8" s="142"/>
+      <c r="BM8" s="142"/>
+      <c r="BN8" s="142"/>
+      <c r="BO8" s="142"/>
+      <c r="BP8" s="142"/>
+      <c r="BQ8" s="143"/>
     </row>
     <row r="9" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="70"/>
@@ -3549,44 +3772,44 @@
       <c r="K9" s="70"/>
       <c r="L9" s="70"/>
       <c r="M9" s="70"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="106"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="128"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="128"/>
-      <c r="AP9" s="129"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="127"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
+      <c r="AN9" s="127"/>
+      <c r="AO9" s="127"/>
+      <c r="AP9" s="128"/>
       <c r="AQ9" s="47"/>
-      <c r="AR9" s="120"/>
-      <c r="AS9" s="121"/>
-      <c r="AT9" s="121"/>
-      <c r="AU9" s="121"/>
-      <c r="AV9" s="121"/>
-      <c r="AW9" s="121"/>
-      <c r="AX9" s="121"/>
-      <c r="AY9" s="121"/>
-      <c r="AZ9" s="121"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="98"/>
+      <c r="AX9" s="98"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="98"/>
       <c r="BA9" s="55"/>
       <c r="BB9" s="47"/>
       <c r="BC9" s="48"/>
@@ -3594,72 +3817,72 @@
       <c r="BE9" s="48"/>
       <c r="BF9" s="48"/>
       <c r="BG9" s="15"/>
-      <c r="BH9" s="113"/>
-      <c r="BI9" s="113"/>
-      <c r="BJ9" s="113"/>
-      <c r="BK9" s="113"/>
-      <c r="BL9" s="113"/>
-      <c r="BM9" s="113"/>
-      <c r="BN9" s="113"/>
-      <c r="BO9" s="113"/>
-      <c r="BP9" s="113"/>
-      <c r="BQ9" s="114"/>
+      <c r="BH9" s="166"/>
+      <c r="BI9" s="166"/>
+      <c r="BJ9" s="166"/>
+      <c r="BK9" s="166"/>
+      <c r="BL9" s="166"/>
+      <c r="BM9" s="166"/>
+      <c r="BN9" s="166"/>
+      <c r="BO9" s="166"/>
+      <c r="BP9" s="166"/>
+      <c r="BQ9" s="167"/>
     </row>
     <row r="10" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="117"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="128"/>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="129"/>
-      <c r="AR10" s="118" t="s">
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="127"/>
+      <c r="AK10" s="127"/>
+      <c r="AL10" s="127"/>
+      <c r="AM10" s="127"/>
+      <c r="AN10" s="127"/>
+      <c r="AO10" s="127"/>
+      <c r="AP10" s="128"/>
+      <c r="AR10" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AS10" s="119"/>
-      <c r="AT10" s="119"/>
-      <c r="AU10" s="119"/>
-      <c r="AV10" s="119"/>
-      <c r="AW10" s="119"/>
-      <c r="AX10" s="119"/>
-      <c r="AY10" s="119"/>
-      <c r="AZ10" s="119"/>
+      <c r="AS10" s="96"/>
+      <c r="AT10" s="96"/>
+      <c r="AU10" s="96"/>
+      <c r="AV10" s="96"/>
+      <c r="AW10" s="96"/>
+      <c r="AX10" s="96"/>
+      <c r="AY10" s="96"/>
+      <c r="AZ10" s="96"/>
       <c r="BA10" s="30"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
@@ -3679,61 +3902,61 @@
       <c r="BQ10" s="26"/>
     </row>
     <row r="11" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="150"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="152"/>
-      <c r="O11" s="197" t="s">
+      <c r="A11" s="151"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="153"/>
+      <c r="O11" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="198" t="s">
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="190"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="190"/>
+      <c r="Y11" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="198"/>
-      <c r="AB11" s="198"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="198"/>
-      <c r="AE11" s="198"/>
-      <c r="AF11" s="198"/>
-      <c r="AG11" s="198"/>
-      <c r="AH11" s="198"/>
-      <c r="AI11" s="198"/>
-      <c r="AJ11" s="198"/>
-      <c r="AK11" s="198"/>
-      <c r="AL11" s="198"/>
-      <c r="AM11" s="198"/>
-      <c r="AN11" s="198"/>
-      <c r="AO11" s="198"/>
-      <c r="AP11" s="199"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="190"/>
+      <c r="AE11" s="190"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="190"/>
+      <c r="AJ11" s="190"/>
+      <c r="AK11" s="190"/>
+      <c r="AL11" s="190"/>
+      <c r="AM11" s="190"/>
+      <c r="AN11" s="190"/>
+      <c r="AO11" s="190"/>
+      <c r="AP11" s="191"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="156"/>
-      <c r="AS11" s="157"/>
-      <c r="AT11" s="157"/>
-      <c r="AU11" s="157"/>
-      <c r="AV11" s="157"/>
-      <c r="AW11" s="157"/>
-      <c r="AX11" s="157"/>
-      <c r="AY11" s="157"/>
-      <c r="AZ11" s="157"/>
+      <c r="AR11" s="159"/>
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="160"/>
+      <c r="AU11" s="160"/>
+      <c r="AV11" s="160"/>
+      <c r="AW11" s="160"/>
+      <c r="AX11" s="160"/>
+      <c r="AY11" s="160"/>
+      <c r="AZ11" s="160"/>
       <c r="BA11" s="30"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
@@ -3753,46 +3976,46 @@
       <c r="BQ11" s="26"/>
     </row>
     <row r="12" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="O12" s="204"/>
-      <c r="P12" s="205"/>
-      <c r="Q12" s="205"/>
-      <c r="R12" s="205"/>
-      <c r="S12" s="205"/>
-      <c r="T12" s="205"/>
-      <c r="U12" s="205"/>
-      <c r="V12" s="205"/>
-      <c r="W12" s="205"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="200"/>
-      <c r="AA12" s="200"/>
-      <c r="AB12" s="200"/>
-      <c r="AC12" s="200"/>
-      <c r="AD12" s="200"/>
-      <c r="AE12" s="200"/>
-      <c r="AF12" s="200"/>
-      <c r="AG12" s="200"/>
-      <c r="AH12" s="200"/>
-      <c r="AI12" s="200"/>
-      <c r="AJ12" s="200"/>
-      <c r="AK12" s="200"/>
-      <c r="AL12" s="200"/>
-      <c r="AM12" s="200"/>
-      <c r="AN12" s="200"/>
-      <c r="AO12" s="200"/>
-      <c r="AP12" s="201"/>
+      <c r="O12" s="196"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="197"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
+      <c r="AF12" s="192"/>
+      <c r="AG12" s="192"/>
+      <c r="AH12" s="192"/>
+      <c r="AI12" s="192"/>
+      <c r="AJ12" s="192"/>
+      <c r="AK12" s="192"/>
+      <c r="AL12" s="192"/>
+      <c r="AM12" s="192"/>
+      <c r="AN12" s="192"/>
+      <c r="AO12" s="192"/>
+      <c r="AP12" s="193"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="118" t="s">
+      <c r="AR12" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AS12" s="119"/>
-      <c r="AT12" s="119"/>
-      <c r="AU12" s="119"/>
-      <c r="AV12" s="119"/>
-      <c r="AW12" s="119"/>
-      <c r="AX12" s="119"/>
-      <c r="AY12" s="119"/>
-      <c r="AZ12" s="119"/>
+      <c r="AS12" s="96"/>
+      <c r="AT12" s="96"/>
+      <c r="AU12" s="96"/>
+      <c r="AV12" s="96"/>
+      <c r="AW12" s="96"/>
+      <c r="AX12" s="96"/>
+      <c r="AY12" s="96"/>
+      <c r="AZ12" s="96"/>
       <c r="BA12" s="56"/>
       <c r="BB12" s="12"/>
       <c r="BC12" s="12"/>
@@ -3812,67 +4035,67 @@
       <c r="BQ12" s="26"/>
     </row>
     <row r="13" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="117"/>
-      <c r="O13" s="206"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="207"/>
-      <c r="R13" s="207"/>
-      <c r="S13" s="207"/>
-      <c r="T13" s="207"/>
-      <c r="U13" s="207"/>
-      <c r="V13" s="207"/>
-      <c r="W13" s="207"/>
-      <c r="X13" s="207"/>
-      <c r="Y13" s="202"/>
-      <c r="Z13" s="202"/>
-      <c r="AA13" s="202"/>
-      <c r="AB13" s="202"/>
-      <c r="AC13" s="202"/>
-      <c r="AD13" s="202"/>
-      <c r="AE13" s="202"/>
-      <c r="AF13" s="202"/>
-      <c r="AG13" s="202"/>
-      <c r="AH13" s="202"/>
-      <c r="AI13" s="202"/>
-      <c r="AJ13" s="202"/>
-      <c r="AK13" s="202"/>
-      <c r="AL13" s="202"/>
-      <c r="AM13" s="202"/>
-      <c r="AN13" s="202"/>
-      <c r="AO13" s="202"/>
-      <c r="AP13" s="203"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="106"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="199"/>
+      <c r="R13" s="199"/>
+      <c r="S13" s="199"/>
+      <c r="T13" s="199"/>
+      <c r="U13" s="199"/>
+      <c r="V13" s="199"/>
+      <c r="W13" s="199"/>
+      <c r="X13" s="199"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="194"/>
+      <c r="AF13" s="194"/>
+      <c r="AG13" s="194"/>
+      <c r="AH13" s="194"/>
+      <c r="AI13" s="194"/>
+      <c r="AJ13" s="194"/>
+      <c r="AK13" s="194"/>
+      <c r="AL13" s="194"/>
+      <c r="AM13" s="194"/>
+      <c r="AN13" s="194"/>
+      <c r="AO13" s="194"/>
+      <c r="AP13" s="195"/>
       <c r="AQ13" s="10"/>
-      <c r="AR13" s="156"/>
-      <c r="AS13" s="157"/>
-      <c r="AT13" s="157"/>
-      <c r="AU13" s="157"/>
-      <c r="AV13" s="157"/>
-      <c r="AW13" s="157"/>
-      <c r="AX13" s="157"/>
-      <c r="AY13" s="157"/>
-      <c r="AZ13" s="157"/>
+      <c r="AR13" s="159"/>
+      <c r="AS13" s="160"/>
+      <c r="AT13" s="160"/>
+      <c r="AU13" s="160"/>
+      <c r="AV13" s="160"/>
+      <c r="AW13" s="160"/>
+      <c r="AX13" s="160"/>
+      <c r="AY13" s="160"/>
+      <c r="AZ13" s="160"/>
       <c r="BA13" s="57"/>
       <c r="BB13" s="5"/>
-      <c r="BC13" s="149"/>
-      <c r="BD13" s="149"/>
-      <c r="BE13" s="149"/>
-      <c r="BF13" s="149"/>
-      <c r="BG13" s="155"/>
-      <c r="BH13" s="155"/>
+      <c r="BC13" s="150"/>
+      <c r="BD13" s="150"/>
+      <c r="BE13" s="150"/>
+      <c r="BF13" s="150"/>
+      <c r="BG13" s="158"/>
+      <c r="BH13" s="158"/>
       <c r="BI13" s="5"/>
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
@@ -3884,39 +4107,39 @@
       <c r="BQ13" s="26"/>
     </row>
     <row r="14" spans="1:69" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="214"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="216"/>
+      <c r="A14" s="209"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="210"/>
+      <c r="M14" s="211"/>
       <c r="AQ14" s="10"/>
-      <c r="AR14" s="118" t="s">
+      <c r="AR14" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="119"/>
-      <c r="AU14" s="119"/>
-      <c r="AV14" s="119"/>
-      <c r="AW14" s="119"/>
-      <c r="AX14" s="119"/>
-      <c r="AY14" s="119"/>
-      <c r="AZ14" s="119"/>
+      <c r="AS14" s="96"/>
+      <c r="AT14" s="96"/>
+      <c r="AU14" s="96"/>
+      <c r="AV14" s="96"/>
+      <c r="AW14" s="96"/>
+      <c r="AX14" s="96"/>
+      <c r="AY14" s="96"/>
+      <c r="AZ14" s="96"/>
       <c r="BA14" s="57"/>
       <c r="BB14" s="5"/>
-      <c r="BC14" s="149"/>
-      <c r="BD14" s="149"/>
-      <c r="BE14" s="149"/>
-      <c r="BF14" s="149"/>
-      <c r="BG14" s="155"/>
-      <c r="BH14" s="155"/>
+      <c r="BC14" s="150"/>
+      <c r="BD14" s="150"/>
+      <c r="BE14" s="150"/>
+      <c r="BF14" s="150"/>
+      <c r="BG14" s="158"/>
+      <c r="BH14" s="158"/>
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
@@ -3928,55 +4151,55 @@
       <c r="BQ14" s="26"/>
     </row>
     <row r="15" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="O15" s="160" t="s">
+      <c r="O15" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="162"/>
-      <c r="Z15" s="227" t="s">
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="164"/>
+      <c r="X15" s="165"/>
+      <c r="Z15" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="AA15" s="228"/>
-      <c r="AB15" s="228"/>
-      <c r="AC15" s="228"/>
-      <c r="AD15" s="228"/>
-      <c r="AE15" s="228"/>
-      <c r="AF15" s="228"/>
-      <c r="AG15" s="228"/>
-      <c r="AH15" s="228"/>
-      <c r="AI15" s="228"/>
-      <c r="AJ15" s="228"/>
-      <c r="AK15" s="228"/>
-      <c r="AL15" s="228"/>
-      <c r="AM15" s="228"/>
-      <c r="AN15" s="228"/>
-      <c r="AO15" s="228"/>
-      <c r="AP15" s="229"/>
+      <c r="AA15" s="223"/>
+      <c r="AB15" s="223"/>
+      <c r="AC15" s="223"/>
+      <c r="AD15" s="223"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="223"/>
+      <c r="AG15" s="223"/>
+      <c r="AH15" s="223"/>
+      <c r="AI15" s="223"/>
+      <c r="AJ15" s="223"/>
+      <c r="AK15" s="223"/>
+      <c r="AL15" s="223"/>
+      <c r="AM15" s="223"/>
+      <c r="AN15" s="223"/>
+      <c r="AO15" s="223"/>
+      <c r="AP15" s="224"/>
       <c r="AQ15" s="10"/>
-      <c r="AR15" s="153"/>
-      <c r="AS15" s="154"/>
-      <c r="AT15" s="154"/>
-      <c r="AU15" s="154"/>
-      <c r="AV15" s="154"/>
-      <c r="AW15" s="154"/>
-      <c r="AX15" s="154"/>
-      <c r="AY15" s="154"/>
-      <c r="AZ15" s="154"/>
+      <c r="AR15" s="154"/>
+      <c r="AS15" s="155"/>
+      <c r="AT15" s="155"/>
+      <c r="AU15" s="155"/>
+      <c r="AV15" s="155"/>
+      <c r="AW15" s="155"/>
+      <c r="AX15" s="155"/>
+      <c r="AY15" s="155"/>
+      <c r="AZ15" s="155"/>
       <c r="BA15" s="58"/>
       <c r="BB15" s="27"/>
-      <c r="BC15" s="158"/>
-      <c r="BD15" s="158"/>
-      <c r="BE15" s="158"/>
-      <c r="BF15" s="158"/>
-      <c r="BG15" s="159"/>
-      <c r="BH15" s="159"/>
+      <c r="BC15" s="161"/>
+      <c r="BD15" s="161"/>
+      <c r="BE15" s="161"/>
+      <c r="BF15" s="161"/>
+      <c r="BG15" s="162"/>
+      <c r="BH15" s="162"/>
       <c r="BI15" s="27"/>
       <c r="BJ15" s="27"/>
       <c r="BK15" s="27"/>
@@ -3988,48 +4211,48 @@
       <c r="BQ15" s="29"/>
     </row>
     <row r="16" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O16" s="188"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="189"/>
-      <c r="S16" s="189"/>
-      <c r="T16" s="189"/>
-      <c r="U16" s="189"/>
-      <c r="V16" s="189"/>
-      <c r="W16" s="189"/>
-      <c r="X16" s="190"/>
-      <c r="Z16" s="147" t="s">
+      <c r="O16" s="180"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="181"/>
+      <c r="S16" s="181"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="181"/>
+      <c r="V16" s="181"/>
+      <c r="W16" s="181"/>
+      <c r="X16" s="182"/>
+      <c r="Z16" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="111" t="s">
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="111"/>
-      <c r="AH16" s="111"/>
-      <c r="AI16" s="111"/>
-      <c r="AJ16" s="111"/>
-      <c r="AK16" s="111"/>
-      <c r="AL16" s="93" t="s">
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="131"/>
+      <c r="AH16" s="131"/>
+      <c r="AI16" s="131"/>
+      <c r="AJ16" s="131"/>
+      <c r="AK16" s="131"/>
+      <c r="AL16" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="94"/>
+      <c r="AM16" s="168"/>
+      <c r="AN16" s="168"/>
+      <c r="AO16" s="168"/>
+      <c r="AP16" s="169"/>
       <c r="AQ16" s="10"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="5"/>
-      <c r="BC16" s="149"/>
-      <c r="BD16" s="149"/>
-      <c r="BE16" s="149"/>
-      <c r="BF16" s="149"/>
-      <c r="BG16" s="122"/>
-      <c r="BH16" s="122"/>
+      <c r="BC16" s="150"/>
+      <c r="BD16" s="150"/>
+      <c r="BE16" s="150"/>
+      <c r="BF16" s="150"/>
+      <c r="BG16" s="101"/>
+      <c r="BH16" s="101"/>
       <c r="BI16" s="5"/>
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
@@ -4041,128 +4264,128 @@
       <c r="BQ16" s="26"/>
     </row>
     <row r="17" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O17" s="188"/>
-      <c r="P17" s="189"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="189"/>
-      <c r="S17" s="189"/>
-      <c r="T17" s="189"/>
-      <c r="U17" s="189"/>
-      <c r="V17" s="189"/>
-      <c r="W17" s="189"/>
-      <c r="X17" s="190"/>
-      <c r="Z17" s="217"/>
-      <c r="AA17" s="218"/>
-      <c r="AB17" s="218"/>
-      <c r="AC17" s="218"/>
-      <c r="AD17" s="218"/>
-      <c r="AE17" s="221"/>
-      <c r="AF17" s="221"/>
-      <c r="AG17" s="221"/>
-      <c r="AH17" s="221"/>
-      <c r="AI17" s="221"/>
-      <c r="AJ17" s="221"/>
-      <c r="AK17" s="221"/>
-      <c r="AL17" s="223"/>
-      <c r="AM17" s="223"/>
-      <c r="AN17" s="223"/>
-      <c r="AO17" s="223"/>
-      <c r="AP17" s="224"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="181"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="181"/>
+      <c r="S17" s="181"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="181"/>
+      <c r="V17" s="181"/>
+      <c r="W17" s="181"/>
+      <c r="X17" s="182"/>
+      <c r="Z17" s="212"/>
+      <c r="AA17" s="213"/>
+      <c r="AB17" s="213"/>
+      <c r="AC17" s="213"/>
+      <c r="AD17" s="213"/>
+      <c r="AE17" s="216"/>
+      <c r="AF17" s="216"/>
+      <c r="AG17" s="216"/>
+      <c r="AH17" s="216"/>
+      <c r="AI17" s="216"/>
+      <c r="AJ17" s="216"/>
+      <c r="AK17" s="216"/>
+      <c r="AL17" s="218"/>
+      <c r="AM17" s="218"/>
+      <c r="AN17" s="218"/>
+      <c r="AO17" s="218"/>
+      <c r="AP17" s="219"/>
       <c r="AQ17" s="10"/>
-      <c r="AR17" s="115" t="s">
+      <c r="AR17" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="AS17" s="116"/>
-      <c r="AT17" s="116"/>
-      <c r="AU17" s="116"/>
-      <c r="AV17" s="116"/>
-      <c r="AW17" s="116"/>
-      <c r="AX17" s="116"/>
-      <c r="AY17" s="116"/>
-      <c r="AZ17" s="116"/>
-      <c r="BA17" s="116"/>
-      <c r="BB17" s="116"/>
-      <c r="BC17" s="116"/>
-      <c r="BD17" s="116"/>
-      <c r="BE17" s="116"/>
-      <c r="BF17" s="116"/>
-      <c r="BG17" s="116"/>
-      <c r="BH17" s="116"/>
-      <c r="BI17" s="116"/>
-      <c r="BJ17" s="116"/>
-      <c r="BK17" s="116"/>
-      <c r="BL17" s="116"/>
-      <c r="BM17" s="116"/>
-      <c r="BN17" s="116"/>
-      <c r="BO17" s="116"/>
-      <c r="BP17" s="116"/>
-      <c r="BQ17" s="117"/>
+      <c r="AS17" s="105"/>
+      <c r="AT17" s="105"/>
+      <c r="AU17" s="105"/>
+      <c r="AV17" s="105"/>
+      <c r="AW17" s="105"/>
+      <c r="AX17" s="105"/>
+      <c r="AY17" s="105"/>
+      <c r="AZ17" s="105"/>
+      <c r="BA17" s="105"/>
+      <c r="BB17" s="105"/>
+      <c r="BC17" s="105"/>
+      <c r="BD17" s="105"/>
+      <c r="BE17" s="105"/>
+      <c r="BF17" s="105"/>
+      <c r="BG17" s="105"/>
+      <c r="BH17" s="105"/>
+      <c r="BI17" s="105"/>
+      <c r="BJ17" s="105"/>
+      <c r="BK17" s="105"/>
+      <c r="BL17" s="105"/>
+      <c r="BM17" s="105"/>
+      <c r="BN17" s="105"/>
+      <c r="BO17" s="105"/>
+      <c r="BP17" s="105"/>
+      <c r="BQ17" s="106"/>
     </row>
     <row r="18" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O18" s="191"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="192"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="193"/>
-      <c r="Z18" s="219"/>
-      <c r="AA18" s="220"/>
-      <c r="AB18" s="220"/>
-      <c r="AC18" s="220"/>
-      <c r="AD18" s="220"/>
-      <c r="AE18" s="222"/>
-      <c r="AF18" s="222"/>
-      <c r="AG18" s="222"/>
-      <c r="AH18" s="222"/>
-      <c r="AI18" s="222"/>
-      <c r="AJ18" s="222"/>
-      <c r="AK18" s="222"/>
-      <c r="AL18" s="225"/>
-      <c r="AM18" s="225"/>
-      <c r="AN18" s="225"/>
-      <c r="AO18" s="225"/>
-      <c r="AP18" s="226"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="184"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="185"/>
+      <c r="Z18" s="214"/>
+      <c r="AA18" s="215"/>
+      <c r="AB18" s="215"/>
+      <c r="AC18" s="215"/>
+      <c r="AD18" s="215"/>
+      <c r="AE18" s="217"/>
+      <c r="AF18" s="217"/>
+      <c r="AG18" s="217"/>
+      <c r="AH18" s="217"/>
+      <c r="AI18" s="217"/>
+      <c r="AJ18" s="217"/>
+      <c r="AK18" s="217"/>
+      <c r="AL18" s="220"/>
+      <c r="AM18" s="220"/>
+      <c r="AN18" s="220"/>
+      <c r="AO18" s="220"/>
+      <c r="AP18" s="221"/>
       <c r="AQ18" s="10"/>
-      <c r="AR18" s="125" t="s">
+      <c r="AR18" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AS18" s="101"/>
-      <c r="AT18" s="101"/>
-      <c r="AU18" s="101"/>
-      <c r="AV18" s="101"/>
-      <c r="AW18" s="101"/>
-      <c r="AX18" s="101"/>
-      <c r="AY18" s="101"/>
-      <c r="AZ18" s="101"/>
-      <c r="BA18" s="101"/>
-      <c r="BB18" s="101"/>
-      <c r="BC18" s="101" t="s">
+      <c r="AS18" s="108"/>
+      <c r="AT18" s="108"/>
+      <c r="AU18" s="108"/>
+      <c r="AV18" s="108"/>
+      <c r="AW18" s="108"/>
+      <c r="AX18" s="108"/>
+      <c r="AY18" s="108"/>
+      <c r="AZ18" s="108"/>
+      <c r="BA18" s="108"/>
+      <c r="BB18" s="144"/>
+      <c r="BC18" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="BD18" s="101"/>
-      <c r="BE18" s="101"/>
-      <c r="BF18" s="101" t="s">
+      <c r="BD18" s="108"/>
+      <c r="BE18" s="108"/>
+      <c r="BF18" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="BG18" s="101"/>
-      <c r="BH18" s="101"/>
-      <c r="BI18" s="101"/>
-      <c r="BJ18" s="101" t="s">
+      <c r="BG18" s="108"/>
+      <c r="BH18" s="108"/>
+      <c r="BI18" s="108"/>
+      <c r="BJ18" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="BK18" s="101"/>
-      <c r="BL18" s="101"/>
-      <c r="BM18" s="101" t="s">
+      <c r="BK18" s="108"/>
+      <c r="BL18" s="108"/>
+      <c r="BM18" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="BN18" s="101"/>
-      <c r="BO18" s="101"/>
-      <c r="BP18" s="101"/>
-      <c r="BQ18" s="146"/>
+      <c r="BN18" s="108"/>
+      <c r="BO18" s="108"/>
+      <c r="BP18" s="108"/>
+      <c r="BQ18" s="144"/>
     </row>
     <row r="19" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O19" s="46"/>
@@ -4178,32 +4401,34 @@
       <c r="Y19" s="46"/>
       <c r="Z19" s="46"/>
       <c r="AQ19" s="25"/>
-      <c r="AR19" s="105"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="106"/>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
-      <c r="AX19" s="106"/>
-      <c r="AY19" s="106"/>
-      <c r="AZ19" s="106"/>
-      <c r="BA19" s="106"/>
-      <c r="BB19" s="106"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="71"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="72"/>
-      <c r="BG19" s="72"/>
-      <c r="BH19" s="72"/>
-      <c r="BI19" s="72"/>
-      <c r="BJ19" s="100"/>
-      <c r="BK19" s="100"/>
-      <c r="BL19" s="100"/>
-      <c r="BM19" s="95"/>
-      <c r="BN19" s="95"/>
-      <c r="BO19" s="95"/>
-      <c r="BP19" s="95"/>
-      <c r="BQ19" s="96"/>
+      <c r="AR19" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS19" s="146"/>
+      <c r="AT19" s="146"/>
+      <c r="AU19" s="146"/>
+      <c r="AV19" s="146"/>
+      <c r="AW19" s="146"/>
+      <c r="AX19" s="146"/>
+      <c r="AY19" s="146"/>
+      <c r="AZ19" s="146"/>
+      <c r="BA19" s="146"/>
+      <c r="BB19" s="146"/>
+      <c r="BC19" s="90"/>
+      <c r="BD19" s="90"/>
+      <c r="BE19" s="90"/>
+      <c r="BF19" s="93"/>
+      <c r="BG19" s="93"/>
+      <c r="BH19" s="93"/>
+      <c r="BI19" s="93"/>
+      <c r="BJ19" s="170"/>
+      <c r="BK19" s="170"/>
+      <c r="BL19" s="170"/>
+      <c r="BM19" s="93"/>
+      <c r="BN19" s="93"/>
+      <c r="BO19" s="93"/>
+      <c r="BP19" s="93"/>
+      <c r="BQ19" s="147"/>
     </row>
     <row r="20" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O20" s="46"/>
@@ -4211,32 +4436,34 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
-      <c r="AR20" s="105"/>
-      <c r="AS20" s="106"/>
-      <c r="AT20" s="106"/>
-      <c r="AU20" s="106"/>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="106"/>
-      <c r="AY20" s="106"/>
-      <c r="AZ20" s="106"/>
-      <c r="BA20" s="106"/>
-      <c r="BB20" s="106"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="71"/>
-      <c r="BE20" s="71"/>
-      <c r="BF20" s="72"/>
-      <c r="BG20" s="72"/>
-      <c r="BH20" s="72"/>
-      <c r="BI20" s="72"/>
-      <c r="BJ20" s="100"/>
-      <c r="BK20" s="100"/>
-      <c r="BL20" s="100"/>
-      <c r="BM20" s="95"/>
-      <c r="BN20" s="95"/>
-      <c r="BO20" s="95"/>
-      <c r="BP20" s="95"/>
-      <c r="BQ20" s="96"/>
+      <c r="AR20" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS20" s="135"/>
+      <c r="AT20" s="135"/>
+      <c r="AU20" s="135"/>
+      <c r="AV20" s="135"/>
+      <c r="AW20" s="135"/>
+      <c r="AX20" s="135"/>
+      <c r="AY20" s="135"/>
+      <c r="AZ20" s="135"/>
+      <c r="BA20" s="135"/>
+      <c r="BB20" s="135"/>
+      <c r="BC20" s="91"/>
+      <c r="BD20" s="91"/>
+      <c r="BE20" s="91"/>
+      <c r="BF20" s="94"/>
+      <c r="BG20" s="94"/>
+      <c r="BH20" s="94"/>
+      <c r="BI20" s="94"/>
+      <c r="BJ20" s="109"/>
+      <c r="BK20" s="109"/>
+      <c r="BL20" s="109"/>
+      <c r="BM20" s="94"/>
+      <c r="BN20" s="94"/>
+      <c r="BO20" s="94"/>
+      <c r="BP20" s="94"/>
+      <c r="BQ20" s="110"/>
     </row>
     <row r="21" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O21" s="49"/>
@@ -4251,32 +4478,34 @@
       <c r="AN21" s="49"/>
       <c r="AO21" s="49"/>
       <c r="AP21" s="49"/>
-      <c r="AR21" s="105"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="106"/>
-      <c r="AU21" s="106"/>
-      <c r="AV21" s="106"/>
-      <c r="AW21" s="106"/>
-      <c r="AX21" s="106"/>
-      <c r="AY21" s="106"/>
-      <c r="AZ21" s="106"/>
-      <c r="BA21" s="106"/>
-      <c r="BB21" s="106"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="71"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="72"/>
-      <c r="BG21" s="72"/>
-      <c r="BH21" s="72"/>
-      <c r="BI21" s="72"/>
-      <c r="BJ21" s="100"/>
-      <c r="BK21" s="100"/>
-      <c r="BL21" s="100"/>
-      <c r="BM21" s="95"/>
-      <c r="BN21" s="95"/>
-      <c r="BO21" s="95"/>
-      <c r="BP21" s="95"/>
-      <c r="BQ21" s="96"/>
+      <c r="AR21" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS21" s="135"/>
+      <c r="AT21" s="135"/>
+      <c r="AU21" s="135"/>
+      <c r="AV21" s="135"/>
+      <c r="AW21" s="135"/>
+      <c r="AX21" s="135"/>
+      <c r="AY21" s="135"/>
+      <c r="AZ21" s="135"/>
+      <c r="BA21" s="135"/>
+      <c r="BB21" s="135"/>
+      <c r="BC21" s="91"/>
+      <c r="BD21" s="91"/>
+      <c r="BE21" s="91"/>
+      <c r="BF21" s="94"/>
+      <c r="BG21" s="94"/>
+      <c r="BH21" s="94"/>
+      <c r="BI21" s="94"/>
+      <c r="BJ21" s="109"/>
+      <c r="BK21" s="109"/>
+      <c r="BL21" s="109"/>
+      <c r="BM21" s="94"/>
+      <c r="BN21" s="94"/>
+      <c r="BO21" s="94"/>
+      <c r="BP21" s="94"/>
+      <c r="BQ21" s="110"/>
     </row>
     <row r="22" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O22" s="68"/>
@@ -4291,32 +4520,34 @@
       <c r="AN22" s="68"/>
       <c r="AO22" s="68"/>
       <c r="AP22" s="68"/>
-      <c r="AR22" s="105"/>
-      <c r="AS22" s="106"/>
-      <c r="AT22" s="106"/>
-      <c r="AU22" s="106"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="106"/>
-      <c r="AX22" s="106"/>
-      <c r="AY22" s="106"/>
-      <c r="AZ22" s="106"/>
-      <c r="BA22" s="106"/>
-      <c r="BB22" s="106"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="72"/>
-      <c r="BG22" s="72"/>
-      <c r="BH22" s="72"/>
-      <c r="BI22" s="72"/>
-      <c r="BJ22" s="100"/>
-      <c r="BK22" s="100"/>
-      <c r="BL22" s="100"/>
-      <c r="BM22" s="95"/>
-      <c r="BN22" s="95"/>
-      <c r="BO22" s="95"/>
-      <c r="BP22" s="95"/>
-      <c r="BQ22" s="96"/>
+      <c r="AR22" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS22" s="135"/>
+      <c r="AT22" s="135"/>
+      <c r="AU22" s="135"/>
+      <c r="AV22" s="135"/>
+      <c r="AW22" s="135"/>
+      <c r="AX22" s="135"/>
+      <c r="AY22" s="135"/>
+      <c r="AZ22" s="135"/>
+      <c r="BA22" s="135"/>
+      <c r="BB22" s="135"/>
+      <c r="BC22" s="91"/>
+      <c r="BD22" s="91"/>
+      <c r="BE22" s="91"/>
+      <c r="BF22" s="94"/>
+      <c r="BG22" s="94"/>
+      <c r="BH22" s="94"/>
+      <c r="BI22" s="94"/>
+      <c r="BJ22" s="109"/>
+      <c r="BK22" s="109"/>
+      <c r="BL22" s="109"/>
+      <c r="BM22" s="94"/>
+      <c r="BN22" s="94"/>
+      <c r="BO22" s="94"/>
+      <c r="BP22" s="94"/>
+      <c r="BQ22" s="110"/>
     </row>
     <row r="23" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O23" s="63"/>
@@ -4334,32 +4565,34 @@
       <c r="AN23" s="63"/>
       <c r="AO23" s="63"/>
       <c r="AP23" s="63"/>
-      <c r="AR23" s="105"/>
-      <c r="AS23" s="106"/>
-      <c r="AT23" s="106"/>
-      <c r="AU23" s="106"/>
-      <c r="AV23" s="106"/>
-      <c r="AW23" s="106"/>
-      <c r="AX23" s="106"/>
-      <c r="AY23" s="106"/>
-      <c r="AZ23" s="106"/>
-      <c r="BA23" s="106"/>
-      <c r="BB23" s="106"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="71"/>
-      <c r="BE23" s="71"/>
-      <c r="BF23" s="72"/>
-      <c r="BG23" s="72"/>
-      <c r="BH23" s="72"/>
-      <c r="BI23" s="72"/>
-      <c r="BJ23" s="100"/>
-      <c r="BK23" s="100"/>
-      <c r="BL23" s="100"/>
-      <c r="BM23" s="95"/>
-      <c r="BN23" s="95"/>
-      <c r="BO23" s="95"/>
-      <c r="BP23" s="95"/>
-      <c r="BQ23" s="96"/>
+      <c r="AR23" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS23" s="135"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="135"/>
+      <c r="AV23" s="135"/>
+      <c r="AW23" s="135"/>
+      <c r="AX23" s="135"/>
+      <c r="AY23" s="135"/>
+      <c r="AZ23" s="135"/>
+      <c r="BA23" s="135"/>
+      <c r="BB23" s="135"/>
+      <c r="BC23" s="91"/>
+      <c r="BD23" s="91"/>
+      <c r="BE23" s="91"/>
+      <c r="BF23" s="94"/>
+      <c r="BG23" s="94"/>
+      <c r="BH23" s="94"/>
+      <c r="BI23" s="94"/>
+      <c r="BJ23" s="109"/>
+      <c r="BK23" s="109"/>
+      <c r="BL23" s="109"/>
+      <c r="BM23" s="94"/>
+      <c r="BN23" s="94"/>
+      <c r="BO23" s="94"/>
+      <c r="BP23" s="94"/>
+      <c r="BQ23" s="110"/>
     </row>
     <row r="24" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O24" s="63"/>
@@ -4374,49 +4607,51 @@
       <c r="AN24" s="69"/>
       <c r="AO24" s="69"/>
       <c r="AP24" s="69"/>
-      <c r="AR24" s="105"/>
-      <c r="AS24" s="106"/>
-      <c r="AT24" s="106"/>
-      <c r="AU24" s="106"/>
-      <c r="AV24" s="106"/>
-      <c r="AW24" s="106"/>
-      <c r="AX24" s="106"/>
-      <c r="AY24" s="106"/>
-      <c r="AZ24" s="106"/>
-      <c r="BA24" s="106"/>
-      <c r="BB24" s="106"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="71"/>
-      <c r="BE24" s="71"/>
-      <c r="BF24" s="72"/>
-      <c r="BG24" s="72"/>
-      <c r="BH24" s="72"/>
-      <c r="BI24" s="72"/>
-      <c r="BJ24" s="100"/>
-      <c r="BK24" s="100"/>
-      <c r="BL24" s="100"/>
-      <c r="BM24" s="95"/>
-      <c r="BN24" s="95"/>
-      <c r="BO24" s="95"/>
-      <c r="BP24" s="95"/>
-      <c r="BQ24" s="96"/>
+      <c r="AR24" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS24" s="135"/>
+      <c r="AT24" s="135"/>
+      <c r="AU24" s="135"/>
+      <c r="AV24" s="135"/>
+      <c r="AW24" s="135"/>
+      <c r="AX24" s="135"/>
+      <c r="AY24" s="135"/>
+      <c r="AZ24" s="135"/>
+      <c r="BA24" s="135"/>
+      <c r="BB24" s="135"/>
+      <c r="BC24" s="91"/>
+      <c r="BD24" s="91"/>
+      <c r="BE24" s="91"/>
+      <c r="BF24" s="94"/>
+      <c r="BG24" s="94"/>
+      <c r="BH24" s="94"/>
+      <c r="BI24" s="94"/>
+      <c r="BJ24" s="109"/>
+      <c r="BK24" s="109"/>
+      <c r="BL24" s="109"/>
+      <c r="BM24" s="94"/>
+      <c r="BN24" s="94"/>
+      <c r="BO24" s="94"/>
+      <c r="BP24" s="94"/>
+      <c r="BQ24" s="110"/>
     </row>
     <row r="25" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="117"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="106"/>
       <c r="O25" s="62"/>
       <c r="AF25" s="59"/>
       <c r="AG25" s="59"/>
@@ -4429,47 +4664,49 @@
       <c r="AN25" s="60"/>
       <c r="AO25" s="60"/>
       <c r="AP25" s="60"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="106"/>
-      <c r="AU25" s="106"/>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="106"/>
-      <c r="AX25" s="106"/>
-      <c r="AY25" s="106"/>
-      <c r="AZ25" s="106"/>
-      <c r="BA25" s="106"/>
-      <c r="BB25" s="106"/>
-      <c r="BC25" s="71"/>
-      <c r="BD25" s="71"/>
-      <c r="BE25" s="71"/>
-      <c r="BF25" s="72"/>
-      <c r="BG25" s="72"/>
-      <c r="BH25" s="72"/>
-      <c r="BI25" s="72"/>
-      <c r="BJ25" s="100"/>
-      <c r="BK25" s="100"/>
-      <c r="BL25" s="100"/>
-      <c r="BM25" s="95"/>
-      <c r="BN25" s="95"/>
-      <c r="BO25" s="95"/>
-      <c r="BP25" s="95"/>
-      <c r="BQ25" s="96"/>
+      <c r="AR25" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS25" s="135"/>
+      <c r="AT25" s="135"/>
+      <c r="AU25" s="135"/>
+      <c r="AV25" s="135"/>
+      <c r="AW25" s="135"/>
+      <c r="AX25" s="135"/>
+      <c r="AY25" s="135"/>
+      <c r="AZ25" s="135"/>
+      <c r="BA25" s="135"/>
+      <c r="BB25" s="135"/>
+      <c r="BC25" s="91"/>
+      <c r="BD25" s="91"/>
+      <c r="BE25" s="91"/>
+      <c r="BF25" s="94"/>
+      <c r="BG25" s="94"/>
+      <c r="BH25" s="94"/>
+      <c r="BI25" s="94"/>
+      <c r="BJ25" s="109"/>
+      <c r="BK25" s="109"/>
+      <c r="BL25" s="109"/>
+      <c r="BM25" s="94"/>
+      <c r="BN25" s="94"/>
+      <c r="BO25" s="94"/>
+      <c r="BP25" s="94"/>
+      <c r="BQ25" s="110"/>
     </row>
     <row r="26" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="194"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="195"/>
-      <c r="L26" s="195"/>
-      <c r="M26" s="196"/>
+      <c r="A26" s="186"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="188"/>
       <c r="O26" s="62"/>
       <c r="AF26" s="59"/>
       <c r="AG26" s="59"/>
@@ -4482,47 +4719,49 @@
       <c r="AN26" s="60"/>
       <c r="AO26" s="60"/>
       <c r="AP26" s="60"/>
-      <c r="AR26" s="105"/>
-      <c r="AS26" s="106"/>
-      <c r="AT26" s="106"/>
-      <c r="AU26" s="106"/>
-      <c r="AV26" s="106"/>
-      <c r="AW26" s="106"/>
-      <c r="AX26" s="106"/>
-      <c r="AY26" s="106"/>
-      <c r="AZ26" s="106"/>
-      <c r="BA26" s="106"/>
-      <c r="BB26" s="106"/>
-      <c r="BC26" s="71"/>
-      <c r="BD26" s="71"/>
-      <c r="BE26" s="71"/>
-      <c r="BF26" s="72"/>
-      <c r="BG26" s="72"/>
-      <c r="BH26" s="72"/>
-      <c r="BI26" s="72"/>
-      <c r="BJ26" s="100"/>
-      <c r="BK26" s="100"/>
-      <c r="BL26" s="100"/>
-      <c r="BM26" s="95"/>
-      <c r="BN26" s="95"/>
-      <c r="BO26" s="95"/>
-      <c r="BP26" s="95"/>
-      <c r="BQ26" s="96"/>
+      <c r="AR26" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS26" s="135"/>
+      <c r="AT26" s="135"/>
+      <c r="AU26" s="135"/>
+      <c r="AV26" s="135"/>
+      <c r="AW26" s="135"/>
+      <c r="AX26" s="135"/>
+      <c r="AY26" s="135"/>
+      <c r="AZ26" s="135"/>
+      <c r="BA26" s="135"/>
+      <c r="BB26" s="135"/>
+      <c r="BC26" s="91"/>
+      <c r="BD26" s="91"/>
+      <c r="BE26" s="91"/>
+      <c r="BF26" s="94"/>
+      <c r="BG26" s="94"/>
+      <c r="BH26" s="94"/>
+      <c r="BI26" s="94"/>
+      <c r="BJ26" s="109"/>
+      <c r="BK26" s="109"/>
+      <c r="BL26" s="109"/>
+      <c r="BM26" s="94"/>
+      <c r="BN26" s="94"/>
+      <c r="BO26" s="94"/>
+      <c r="BP26" s="94"/>
+      <c r="BQ26" s="110"/>
     </row>
     <row r="27" spans="1:69" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
-      <c r="L27" s="195"/>
-      <c r="M27" s="196"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="188"/>
       <c r="N27" s="6"/>
       <c r="O27" s="62"/>
       <c r="P27" s="62"/>
@@ -4538,32 +4777,32 @@
       <c r="AN27" s="60"/>
       <c r="AO27" s="60"/>
       <c r="AP27" s="60"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="106"/>
-      <c r="AT27" s="106"/>
-      <c r="AU27" s="106"/>
-      <c r="AV27" s="106"/>
-      <c r="AW27" s="106"/>
-      <c r="AX27" s="106"/>
-      <c r="AY27" s="106"/>
-      <c r="AZ27" s="106"/>
-      <c r="BA27" s="106"/>
-      <c r="BB27" s="106"/>
-      <c r="BC27" s="71"/>
-      <c r="BD27" s="71"/>
-      <c r="BE27" s="71"/>
-      <c r="BF27" s="72"/>
-      <c r="BG27" s="72"/>
-      <c r="BH27" s="72"/>
-      <c r="BI27" s="72"/>
-      <c r="BJ27" s="100"/>
-      <c r="BK27" s="100"/>
-      <c r="BL27" s="100"/>
-      <c r="BM27" s="95"/>
-      <c r="BN27" s="95"/>
-      <c r="BO27" s="95"/>
-      <c r="BP27" s="95"/>
-      <c r="BQ27" s="96"/>
+      <c r="AR27" s="171"/>
+      <c r="AS27" s="172"/>
+      <c r="AT27" s="172"/>
+      <c r="AU27" s="172"/>
+      <c r="AV27" s="172"/>
+      <c r="AW27" s="172"/>
+      <c r="AX27" s="172"/>
+      <c r="AY27" s="172"/>
+      <c r="AZ27" s="172"/>
+      <c r="BA27" s="172"/>
+      <c r="BB27" s="172"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="94"/>
+      <c r="BG27" s="94"/>
+      <c r="BH27" s="94"/>
+      <c r="BI27" s="94"/>
+      <c r="BJ27" s="109"/>
+      <c r="BK27" s="109"/>
+      <c r="BL27" s="109"/>
+      <c r="BM27" s="94"/>
+      <c r="BN27" s="94"/>
+      <c r="BO27" s="94"/>
+      <c r="BP27" s="94"/>
+      <c r="BQ27" s="110"/>
     </row>
     <row r="28" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N28" s="6"/>
@@ -4582,49 +4821,51 @@
       <c r="AN28" s="61"/>
       <c r="AO28" s="61"/>
       <c r="AP28" s="61"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="106"/>
-      <c r="AT28" s="106"/>
-      <c r="AU28" s="106"/>
-      <c r="AV28" s="106"/>
-      <c r="AW28" s="106"/>
-      <c r="AX28" s="106"/>
-      <c r="AY28" s="106"/>
-      <c r="AZ28" s="106"/>
-      <c r="BA28" s="106"/>
-      <c r="BB28" s="106"/>
-      <c r="BC28" s="71"/>
-      <c r="BD28" s="71"/>
-      <c r="BE28" s="71"/>
-      <c r="BF28" s="72"/>
-      <c r="BG28" s="72"/>
-      <c r="BH28" s="72"/>
-      <c r="BI28" s="72"/>
-      <c r="BJ28" s="100"/>
-      <c r="BK28" s="100"/>
-      <c r="BL28" s="100"/>
-      <c r="BM28" s="95"/>
-      <c r="BN28" s="95"/>
-      <c r="BO28" s="95"/>
-      <c r="BP28" s="95"/>
-      <c r="BQ28" s="96"/>
+      <c r="AR28" s="173" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS28" s="174"/>
+      <c r="AT28" s="174"/>
+      <c r="AU28" s="174"/>
+      <c r="AV28" s="174"/>
+      <c r="AW28" s="174"/>
+      <c r="AX28" s="174"/>
+      <c r="AY28" s="174"/>
+      <c r="AZ28" s="174"/>
+      <c r="BA28" s="174"/>
+      <c r="BB28" s="174"/>
+      <c r="BC28" s="91"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="91"/>
+      <c r="BF28" s="94"/>
+      <c r="BG28" s="94"/>
+      <c r="BH28" s="94"/>
+      <c r="BI28" s="94"/>
+      <c r="BJ28" s="109"/>
+      <c r="BK28" s="109"/>
+      <c r="BL28" s="109"/>
+      <c r="BM28" s="94"/>
+      <c r="BN28" s="94"/>
+      <c r="BO28" s="94"/>
+      <c r="BP28" s="94"/>
+      <c r="BQ28" s="110"/>
     </row>
     <row r="29" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="117"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -4641,49 +4882,49 @@
       <c r="AN29" s="64"/>
       <c r="AO29" s="64"/>
       <c r="AP29" s="64"/>
-      <c r="AR29" s="107"/>
-      <c r="AS29" s="108"/>
-      <c r="AT29" s="108"/>
-      <c r="AU29" s="108"/>
-      <c r="AV29" s="108"/>
-      <c r="AW29" s="108"/>
-      <c r="AX29" s="108"/>
-      <c r="AY29" s="108"/>
-      <c r="AZ29" s="108"/>
-      <c r="BA29" s="108"/>
-      <c r="BB29" s="108"/>
-      <c r="BC29" s="74"/>
-      <c r="BD29" s="74"/>
-      <c r="BE29" s="74"/>
-      <c r="BF29" s="73"/>
-      <c r="BG29" s="73"/>
-      <c r="BH29" s="73"/>
-      <c r="BI29" s="73"/>
-      <c r="BJ29" s="185"/>
-      <c r="BK29" s="185"/>
-      <c r="BL29" s="185"/>
-      <c r="BM29" s="178"/>
-      <c r="BN29" s="178"/>
-      <c r="BO29" s="178"/>
-      <c r="BP29" s="178"/>
-      <c r="BQ29" s="179"/>
+      <c r="AR29" s="88"/>
+      <c r="AS29" s="89"/>
+      <c r="AT29" s="89"/>
+      <c r="AU29" s="89"/>
+      <c r="AV29" s="89"/>
+      <c r="AW29" s="89"/>
+      <c r="AX29" s="89"/>
+      <c r="AY29" s="89"/>
+      <c r="AZ29" s="89"/>
+      <c r="BA29" s="89"/>
+      <c r="BB29" s="89"/>
+      <c r="BC29" s="92"/>
+      <c r="BD29" s="92"/>
+      <c r="BE29" s="92"/>
+      <c r="BF29" s="177"/>
+      <c r="BG29" s="177"/>
+      <c r="BH29" s="177"/>
+      <c r="BI29" s="177"/>
+      <c r="BJ29" s="176"/>
+      <c r="BK29" s="176"/>
+      <c r="BL29" s="176"/>
+      <c r="BM29" s="177"/>
+      <c r="BN29" s="177"/>
+      <c r="BO29" s="177"/>
+      <c r="BP29" s="177"/>
+      <c r="BQ29" s="178"/>
     </row>
     <row r="30" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="170"/>
+      <c r="B30" s="204"/>
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="205"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -4700,38 +4941,38 @@
       <c r="AN30" s="64"/>
       <c r="AO30" s="64"/>
       <c r="AP30" s="64"/>
-      <c r="BE30" s="102" t="s">
+      <c r="BE30" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="BF30" s="103"/>
-      <c r="BG30" s="103"/>
-      <c r="BH30" s="103"/>
-      <c r="BI30" s="103"/>
-      <c r="BJ30" s="103"/>
-      <c r="BK30" s="103"/>
-      <c r="BL30" s="104"/>
-      <c r="BM30" s="97">
+      <c r="BF30" s="115"/>
+      <c r="BG30" s="115"/>
+      <c r="BH30" s="115"/>
+      <c r="BI30" s="115"/>
+      <c r="BJ30" s="115"/>
+      <c r="BK30" s="115"/>
+      <c r="BL30" s="116"/>
+      <c r="BM30" s="111">
         <v>0</v>
       </c>
-      <c r="BN30" s="98"/>
-      <c r="BO30" s="98"/>
-      <c r="BP30" s="98"/>
-      <c r="BQ30" s="99"/>
+      <c r="BN30" s="112"/>
+      <c r="BO30" s="112"/>
+      <c r="BP30" s="112"/>
+      <c r="BQ30" s="113"/>
     </row>
     <row r="31" spans="1:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="211"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="212"/>
-      <c r="M31" s="213"/>
+      <c r="A31" s="206"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="208"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -4763,21 +5004,21 @@
       <c r="AP31" s="64"/>
     </row>
     <row r="32" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="168" t="s">
+      <c r="A32" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="170"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="205"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -4807,258 +5048,258 @@
       <c r="AN32" s="64"/>
       <c r="AO32" s="64"/>
       <c r="AP32" s="64"/>
-      <c r="AR32" s="115" t="s">
+      <c r="AR32" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="AS32" s="116"/>
-      <c r="AT32" s="116"/>
-      <c r="AU32" s="116"/>
-      <c r="AV32" s="116"/>
-      <c r="AW32" s="116"/>
-      <c r="AX32" s="116"/>
-      <c r="AY32" s="116"/>
-      <c r="AZ32" s="116"/>
-      <c r="BA32" s="116"/>
-      <c r="BB32" s="116"/>
-      <c r="BC32" s="116"/>
-      <c r="BD32" s="116"/>
-      <c r="BE32" s="116"/>
-      <c r="BF32" s="116"/>
-      <c r="BG32" s="116"/>
-      <c r="BH32" s="116"/>
-      <c r="BI32" s="116"/>
-      <c r="BJ32" s="116"/>
-      <c r="BK32" s="116"/>
-      <c r="BL32" s="116"/>
-      <c r="BM32" s="116"/>
-      <c r="BN32" s="116"/>
-      <c r="BO32" s="116"/>
-      <c r="BP32" s="116"/>
-      <c r="BQ32" s="117"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
+      <c r="AX32" s="105"/>
+      <c r="AY32" s="105"/>
+      <c r="AZ32" s="105"/>
+      <c r="BA32" s="105"/>
+      <c r="BB32" s="105"/>
+      <c r="BC32" s="105"/>
+      <c r="BD32" s="105"/>
+      <c r="BE32" s="105"/>
+      <c r="BF32" s="105"/>
+      <c r="BG32" s="105"/>
+      <c r="BH32" s="105"/>
+      <c r="BI32" s="105"/>
+      <c r="BJ32" s="105"/>
+      <c r="BK32" s="105"/>
+      <c r="BL32" s="105"/>
+      <c r="BM32" s="105"/>
+      <c r="BN32" s="105"/>
+      <c r="BO32" s="105"/>
+      <c r="BP32" s="105"/>
+      <c r="BQ32" s="106"/>
     </row>
     <row r="33" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="211"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="212"/>
-      <c r="K33" s="212"/>
-      <c r="L33" s="212"/>
-      <c r="M33" s="213"/>
-      <c r="AR33" s="125" t="s">
+      <c r="A33" s="206"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="208"/>
+      <c r="AR33" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AS33" s="101"/>
-      <c r="AT33" s="101"/>
-      <c r="AU33" s="101"/>
-      <c r="AV33" s="101"/>
-      <c r="AW33" s="101"/>
-      <c r="AX33" s="101"/>
-      <c r="AY33" s="101"/>
-      <c r="AZ33" s="101"/>
-      <c r="BA33" s="101"/>
-      <c r="BB33" s="101"/>
-      <c r="BC33" s="101" t="s">
+      <c r="AS33" s="108"/>
+      <c r="AT33" s="108"/>
+      <c r="AU33" s="108"/>
+      <c r="AV33" s="108"/>
+      <c r="AW33" s="108"/>
+      <c r="AX33" s="108"/>
+      <c r="AY33" s="108"/>
+      <c r="AZ33" s="108"/>
+      <c r="BA33" s="108"/>
+      <c r="BB33" s="108"/>
+      <c r="BC33" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="BD33" s="101"/>
-      <c r="BE33" s="101"/>
-      <c r="BF33" s="101" t="s">
+      <c r="BD33" s="108"/>
+      <c r="BE33" s="108"/>
+      <c r="BF33" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="BG33" s="101"/>
-      <c r="BH33" s="101"/>
-      <c r="BI33" s="101"/>
-      <c r="BJ33" s="101" t="s">
+      <c r="BG33" s="108"/>
+      <c r="BH33" s="108"/>
+      <c r="BI33" s="108"/>
+      <c r="BJ33" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="BK33" s="101"/>
-      <c r="BL33" s="101"/>
-      <c r="BM33" s="101" t="s">
+      <c r="BK33" s="108"/>
+      <c r="BL33" s="108"/>
+      <c r="BM33" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="BN33" s="101"/>
-      <c r="BO33" s="101"/>
-      <c r="BP33" s="101"/>
-      <c r="BQ33" s="146"/>
+      <c r="BN33" s="108"/>
+      <c r="BO33" s="108"/>
+      <c r="BP33" s="108"/>
+      <c r="BQ33" s="144"/>
     </row>
     <row r="34" spans="1:71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="170"/>
-      <c r="AR34" s="183"/>
-      <c r="AS34" s="184"/>
-      <c r="AT34" s="184"/>
-      <c r="AU34" s="184"/>
-      <c r="AV34" s="184"/>
-      <c r="AW34" s="184"/>
-      <c r="AX34" s="184"/>
-      <c r="AY34" s="184"/>
-      <c r="AZ34" s="184"/>
-      <c r="BA34" s="184"/>
-      <c r="BB34" s="184"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="123"/>
-      <c r="BK34" s="123"/>
-      <c r="BL34" s="123"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="96"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="204"/>
+      <c r="L34" s="204"/>
+      <c r="M34" s="205"/>
+      <c r="AR34" s="156"/>
+      <c r="AS34" s="157"/>
+      <c r="AT34" s="157"/>
+      <c r="AU34" s="157"/>
+      <c r="AV34" s="157"/>
+      <c r="AW34" s="157"/>
+      <c r="AX34" s="157"/>
+      <c r="AY34" s="157"/>
+      <c r="AZ34" s="157"/>
+      <c r="BA34" s="157"/>
+      <c r="BB34" s="157"/>
+      <c r="BC34" s="99"/>
+      <c r="BD34" s="99"/>
+      <c r="BE34" s="99"/>
+      <c r="BF34" s="99"/>
+      <c r="BG34" s="99"/>
+      <c r="BH34" s="99"/>
+      <c r="BI34" s="99"/>
+      <c r="BJ34" s="102"/>
+      <c r="BK34" s="102"/>
+      <c r="BL34" s="102"/>
+      <c r="BM34" s="99"/>
+      <c r="BN34" s="99"/>
+      <c r="BO34" s="99"/>
+      <c r="BP34" s="99"/>
+      <c r="BQ34" s="100"/>
     </row>
     <row r="35" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="171"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="173"/>
-      <c r="AR35" s="183"/>
-      <c r="AS35" s="184"/>
-      <c r="AT35" s="184"/>
-      <c r="AU35" s="184"/>
-      <c r="AV35" s="184"/>
-      <c r="AW35" s="184"/>
-      <c r="AX35" s="184"/>
-      <c r="AY35" s="184"/>
-      <c r="AZ35" s="184"/>
-      <c r="BA35" s="184"/>
-      <c r="BB35" s="184"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BE35" s="95"/>
-      <c r="BF35" s="95"/>
-      <c r="BG35" s="95"/>
-      <c r="BH35" s="95"/>
-      <c r="BI35" s="95"/>
-      <c r="BJ35" s="124"/>
-      <c r="BK35" s="124"/>
-      <c r="BL35" s="124"/>
-      <c r="BM35" s="95"/>
-      <c r="BN35" s="95"/>
-      <c r="BO35" s="95"/>
-      <c r="BP35" s="95"/>
-      <c r="BQ35" s="96"/>
+      <c r="A35" s="228"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="229"/>
+      <c r="J35" s="229"/>
+      <c r="K35" s="229"/>
+      <c r="L35" s="229"/>
+      <c r="M35" s="230"/>
+      <c r="AR35" s="156"/>
+      <c r="AS35" s="157"/>
+      <c r="AT35" s="157"/>
+      <c r="AU35" s="157"/>
+      <c r="AV35" s="157"/>
+      <c r="AW35" s="157"/>
+      <c r="AX35" s="157"/>
+      <c r="AY35" s="157"/>
+      <c r="AZ35" s="157"/>
+      <c r="BA35" s="157"/>
+      <c r="BB35" s="157"/>
+      <c r="BC35" s="99"/>
+      <c r="BD35" s="99"/>
+      <c r="BE35" s="99"/>
+      <c r="BF35" s="99"/>
+      <c r="BG35" s="99"/>
+      <c r="BH35" s="99"/>
+      <c r="BI35" s="99"/>
+      <c r="BJ35" s="103"/>
+      <c r="BK35" s="103"/>
+      <c r="BL35" s="103"/>
+      <c r="BM35" s="99"/>
+      <c r="BN35" s="99"/>
+      <c r="BO35" s="99"/>
+      <c r="BP35" s="99"/>
+      <c r="BQ35" s="100"/>
     </row>
     <row r="36" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AR36" s="183"/>
-      <c r="AS36" s="184"/>
-      <c r="AT36" s="184"/>
-      <c r="AU36" s="184"/>
-      <c r="AV36" s="184"/>
-      <c r="AW36" s="184"/>
-      <c r="AX36" s="184"/>
-      <c r="AY36" s="184"/>
-      <c r="AZ36" s="184"/>
-      <c r="BA36" s="184"/>
-      <c r="BB36" s="184"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="95"/>
-      <c r="BF36" s="95"/>
-      <c r="BG36" s="95"/>
-      <c r="BH36" s="95"/>
-      <c r="BI36" s="95"/>
-      <c r="BJ36" s="124"/>
-      <c r="BK36" s="124"/>
-      <c r="BL36" s="124"/>
-      <c r="BM36" s="95"/>
-      <c r="BN36" s="95"/>
-      <c r="BO36" s="95"/>
-      <c r="BP36" s="95"/>
-      <c r="BQ36" s="96"/>
+      <c r="AR36" s="156"/>
+      <c r="AS36" s="157"/>
+      <c r="AT36" s="157"/>
+      <c r="AU36" s="157"/>
+      <c r="AV36" s="157"/>
+      <c r="AW36" s="157"/>
+      <c r="AX36" s="157"/>
+      <c r="AY36" s="157"/>
+      <c r="AZ36" s="157"/>
+      <c r="BA36" s="157"/>
+      <c r="BB36" s="157"/>
+      <c r="BC36" s="99"/>
+      <c r="BD36" s="99"/>
+      <c r="BE36" s="99"/>
+      <c r="BF36" s="99"/>
+      <c r="BG36" s="99"/>
+      <c r="BH36" s="99"/>
+      <c r="BI36" s="99"/>
+      <c r="BJ36" s="103"/>
+      <c r="BK36" s="103"/>
+      <c r="BL36" s="103"/>
+      <c r="BM36" s="99"/>
+      <c r="BN36" s="99"/>
+      <c r="BO36" s="99"/>
+      <c r="BP36" s="99"/>
+      <c r="BQ36" s="100"/>
     </row>
     <row r="37" spans="1:71" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="165"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
+      <c r="J37" s="226"/>
+      <c r="K37" s="226"/>
+      <c r="L37" s="226"/>
+      <c r="M37" s="227"/>
       <c r="N37" s="1"/>
-      <c r="AR37" s="182"/>
-      <c r="AS37" s="180"/>
-      <c r="AT37" s="180"/>
-      <c r="AU37" s="180"/>
-      <c r="AV37" s="180"/>
-      <c r="AW37" s="180"/>
-      <c r="AX37" s="180"/>
-      <c r="AY37" s="180"/>
-      <c r="AZ37" s="180"/>
-      <c r="BA37" s="180"/>
-      <c r="BB37" s="180"/>
-      <c r="BC37" s="180"/>
-      <c r="BD37" s="180"/>
-      <c r="BE37" s="180"/>
-      <c r="BF37" s="180"/>
-      <c r="BG37" s="180"/>
-      <c r="BH37" s="180"/>
-      <c r="BI37" s="180"/>
-      <c r="BJ37" s="181"/>
-      <c r="BK37" s="181"/>
-      <c r="BL37" s="181"/>
-      <c r="BM37" s="178"/>
-      <c r="BN37" s="178"/>
-      <c r="BO37" s="178"/>
-      <c r="BP37" s="178"/>
-      <c r="BQ37" s="179"/>
+      <c r="AR37" s="242"/>
+      <c r="AS37" s="175"/>
+      <c r="AT37" s="175"/>
+      <c r="AU37" s="175"/>
+      <c r="AV37" s="175"/>
+      <c r="AW37" s="175"/>
+      <c r="AX37" s="175"/>
+      <c r="AY37" s="175"/>
+      <c r="AZ37" s="175"/>
+      <c r="BA37" s="175"/>
+      <c r="BB37" s="175"/>
+      <c r="BC37" s="175"/>
+      <c r="BD37" s="175"/>
+      <c r="BE37" s="175"/>
+      <c r="BF37" s="175"/>
+      <c r="BG37" s="175"/>
+      <c r="BH37" s="175"/>
+      <c r="BI37" s="175"/>
+      <c r="BJ37" s="241"/>
+      <c r="BK37" s="241"/>
+      <c r="BL37" s="241"/>
+      <c r="BM37" s="239"/>
+      <c r="BN37" s="239"/>
+      <c r="BO37" s="239"/>
+      <c r="BP37" s="239"/>
+      <c r="BQ37" s="240"/>
       <c r="BR37" s="1"/>
       <c r="BS37" s="1"/>
     </row>
     <row r="38" spans="1:71" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="163"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="165"/>
+      <c r="A38" s="225"/>
+      <c r="B38" s="226"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="226"/>
+      <c r="K38" s="226"/>
+      <c r="L38" s="226"/>
+      <c r="M38" s="227"/>
       <c r="N38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
@@ -5073,463 +5314,463 @@
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
-      <c r="BE38" s="102" t="s">
+      <c r="BE38" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="BF38" s="103"/>
-      <c r="BG38" s="103"/>
-      <c r="BH38" s="103"/>
-      <c r="BI38" s="103"/>
-      <c r="BJ38" s="103"/>
-      <c r="BK38" s="103"/>
-      <c r="BL38" s="104"/>
-      <c r="BM38" s="97">
+      <c r="BF38" s="115"/>
+      <c r="BG38" s="115"/>
+      <c r="BH38" s="115"/>
+      <c r="BI38" s="115"/>
+      <c r="BJ38" s="115"/>
+      <c r="BK38" s="115"/>
+      <c r="BL38" s="116"/>
+      <c r="BM38" s="111">
         <v>0</v>
       </c>
-      <c r="BN38" s="98"/>
-      <c r="BO38" s="98"/>
-      <c r="BP38" s="98"/>
-      <c r="BQ38" s="99"/>
+      <c r="BN38" s="112"/>
+      <c r="BO38" s="112"/>
+      <c r="BP38" s="112"/>
+      <c r="BQ38" s="113"/>
       <c r="BR38" s="1"/>
       <c r="BS38" s="1"/>
     </row>
     <row r="39" spans="1:71" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="208">
+      <c r="A39" s="200">
         <v>0</v>
       </c>
-      <c r="B39" s="209"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="209"/>
-      <c r="M39" s="210"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="201"/>
+      <c r="M39" s="202"/>
       <c r="N39" s="1"/>
       <c r="BR39" s="1"/>
     </row>
     <row r="40" spans="1:71" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="208"/>
-      <c r="B40" s="209"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
-      <c r="I40" s="209"/>
-      <c r="J40" s="209"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="209"/>
-      <c r="M40" s="210"/>
+      <c r="A40" s="200"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="201"/>
+      <c r="L40" s="201"/>
+      <c r="M40" s="202"/>
       <c r="N40" s="1"/>
       <c r="AQ40" s="2"/>
-      <c r="AR40" s="175" t="s">
+      <c r="AR40" s="236" t="s">
         <v>38</v>
       </c>
-      <c r="AS40" s="176"/>
-      <c r="AT40" s="176"/>
-      <c r="AU40" s="176"/>
-      <c r="AV40" s="176"/>
-      <c r="AW40" s="176"/>
-      <c r="AX40" s="176"/>
-      <c r="AY40" s="176"/>
-      <c r="AZ40" s="176"/>
-      <c r="BA40" s="176"/>
-      <c r="BB40" s="176"/>
-      <c r="BC40" s="176"/>
-      <c r="BD40" s="176"/>
-      <c r="BE40" s="176"/>
-      <c r="BF40" s="176"/>
-      <c r="BG40" s="176"/>
-      <c r="BH40" s="176"/>
-      <c r="BI40" s="176"/>
-      <c r="BJ40" s="176"/>
-      <c r="BK40" s="176"/>
-      <c r="BL40" s="176"/>
-      <c r="BM40" s="176"/>
-      <c r="BN40" s="176"/>
-      <c r="BO40" s="176"/>
-      <c r="BP40" s="176"/>
-      <c r="BQ40" s="177"/>
+      <c r="AS40" s="237"/>
+      <c r="AT40" s="237"/>
+      <c r="AU40" s="237"/>
+      <c r="AV40" s="237"/>
+      <c r="AW40" s="237"/>
+      <c r="AX40" s="237"/>
+      <c r="AY40" s="237"/>
+      <c r="AZ40" s="237"/>
+      <c r="BA40" s="237"/>
+      <c r="BB40" s="237"/>
+      <c r="BC40" s="237"/>
+      <c r="BD40" s="237"/>
+      <c r="BE40" s="237"/>
+      <c r="BF40" s="237"/>
+      <c r="BG40" s="237"/>
+      <c r="BH40" s="237"/>
+      <c r="BI40" s="237"/>
+      <c r="BJ40" s="237"/>
+      <c r="BK40" s="237"/>
+      <c r="BL40" s="237"/>
+      <c r="BM40" s="237"/>
+      <c r="BN40" s="237"/>
+      <c r="BO40" s="237"/>
+      <c r="BP40" s="237"/>
+      <c r="BQ40" s="238"/>
       <c r="BR40" s="1"/>
     </row>
     <row r="41" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="208"/>
-      <c r="B41" s="209"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="209"/>
-      <c r="I41" s="209"/>
-      <c r="J41" s="209"/>
-      <c r="K41" s="209"/>
-      <c r="L41" s="209"/>
-      <c r="M41" s="210"/>
+      <c r="A41" s="200"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="201"/>
+      <c r="K41" s="201"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="202"/>
       <c r="AQ41" s="2"/>
-      <c r="AR41" s="174" t="s">
+      <c r="AR41" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="AS41" s="78"/>
-      <c r="AT41" s="78"/>
-      <c r="AU41" s="78"/>
-      <c r="AV41" s="78"/>
-      <c r="AW41" s="78"/>
-      <c r="AX41" s="78"/>
-      <c r="AY41" s="78"/>
-      <c r="AZ41" s="78"/>
-      <c r="BA41" s="78" t="s">
+      <c r="AS41" s="73"/>
+      <c r="AT41" s="73"/>
+      <c r="AU41" s="73"/>
+      <c r="AV41" s="73"/>
+      <c r="AW41" s="73"/>
+      <c r="AX41" s="73"/>
+      <c r="AY41" s="73"/>
+      <c r="AZ41" s="73"/>
+      <c r="BA41" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="BB41" s="78"/>
-      <c r="BC41" s="78"/>
-      <c r="BD41" s="78"/>
-      <c r="BE41" s="78"/>
-      <c r="BF41" s="78"/>
-      <c r="BG41" s="78"/>
-      <c r="BH41" s="78"/>
-      <c r="BI41" s="78"/>
-      <c r="BJ41" s="78"/>
-      <c r="BK41" s="78" t="s">
+      <c r="BB41" s="73"/>
+      <c r="BC41" s="73"/>
+      <c r="BD41" s="73"/>
+      <c r="BE41" s="73"/>
+      <c r="BF41" s="73"/>
+      <c r="BG41" s="73"/>
+      <c r="BH41" s="73"/>
+      <c r="BI41" s="73"/>
+      <c r="BJ41" s="73"/>
+      <c r="BK41" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="BL41" s="78"/>
-      <c r="BM41" s="78"/>
-      <c r="BN41" s="78"/>
-      <c r="BO41" s="78"/>
-      <c r="BP41" s="78"/>
-      <c r="BQ41" s="86"/>
+      <c r="BL41" s="73"/>
+      <c r="BM41" s="73"/>
+      <c r="BN41" s="73"/>
+      <c r="BO41" s="73"/>
+      <c r="BP41" s="73"/>
+      <c r="BQ41" s="81"/>
     </row>
     <row r="42" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AQ42" s="2"/>
-      <c r="AR42" s="76" t="s">
+      <c r="AR42" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="AS42" s="77"/>
-      <c r="AT42" s="77"/>
-      <c r="AU42" s="77"/>
-      <c r="AV42" s="77"/>
-      <c r="AW42" s="77"/>
-      <c r="AX42" s="77"/>
-      <c r="AY42" s="77"/>
-      <c r="AZ42" s="77"/>
-      <c r="BA42" s="90">
+      <c r="AS42" s="72"/>
+      <c r="AT42" s="72"/>
+      <c r="AU42" s="72"/>
+      <c r="AV42" s="72"/>
+      <c r="AW42" s="72"/>
+      <c r="AX42" s="72"/>
+      <c r="AY42" s="72"/>
+      <c r="AZ42" s="72"/>
+      <c r="BA42" s="85">
         <v>10000</v>
       </c>
-      <c r="BB42" s="90"/>
-      <c r="BC42" s="90"/>
-      <c r="BD42" s="90"/>
-      <c r="BE42" s="90"/>
-      <c r="BF42" s="90"/>
-      <c r="BG42" s="90"/>
-      <c r="BH42" s="90"/>
-      <c r="BI42" s="90"/>
-      <c r="BJ42" s="90"/>
-      <c r="BK42" s="77">
+      <c r="BB42" s="85"/>
+      <c r="BC42" s="85"/>
+      <c r="BD42" s="85"/>
+      <c r="BE42" s="85"/>
+      <c r="BF42" s="85"/>
+      <c r="BG42" s="85"/>
+      <c r="BH42" s="85"/>
+      <c r="BI42" s="85"/>
+      <c r="BJ42" s="85"/>
+      <c r="BK42" s="72">
         <v>500</v>
       </c>
-      <c r="BL42" s="77"/>
-      <c r="BM42" s="77"/>
-      <c r="BN42" s="77"/>
-      <c r="BO42" s="77"/>
-      <c r="BP42" s="77"/>
-      <c r="BQ42" s="87"/>
+      <c r="BL42" s="72"/>
+      <c r="BM42" s="72"/>
+      <c r="BN42" s="72"/>
+      <c r="BO42" s="72"/>
+      <c r="BP42" s="72"/>
+      <c r="BQ42" s="82"/>
     </row>
     <row r="43" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AR43" s="174" t="s">
+      <c r="AR43" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="AS43" s="78"/>
-      <c r="AT43" s="78"/>
-      <c r="AU43" s="78"/>
-      <c r="AV43" s="78"/>
-      <c r="AW43" s="78"/>
-      <c r="AX43" s="78"/>
-      <c r="AY43" s="78"/>
-      <c r="AZ43" s="78"/>
-      <c r="BA43" s="78" t="s">
+      <c r="AS43" s="73"/>
+      <c r="AT43" s="73"/>
+      <c r="AU43" s="73"/>
+      <c r="AV43" s="73"/>
+      <c r="AW43" s="73"/>
+      <c r="AX43" s="73"/>
+      <c r="AY43" s="73"/>
+      <c r="AZ43" s="73"/>
+      <c r="BA43" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="BB43" s="78"/>
-      <c r="BC43" s="78"/>
-      <c r="BD43" s="78"/>
-      <c r="BE43" s="78"/>
-      <c r="BF43" s="78"/>
-      <c r="BG43" s="78"/>
-      <c r="BH43" s="78"/>
-      <c r="BI43" s="78"/>
-      <c r="BJ43" s="78"/>
-      <c r="BK43" s="78" t="s">
+      <c r="BB43" s="73"/>
+      <c r="BC43" s="73"/>
+      <c r="BD43" s="73"/>
+      <c r="BE43" s="73"/>
+      <c r="BF43" s="73"/>
+      <c r="BG43" s="73"/>
+      <c r="BH43" s="73"/>
+      <c r="BI43" s="73"/>
+      <c r="BJ43" s="73"/>
+      <c r="BK43" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="BL43" s="78"/>
-      <c r="BM43" s="78"/>
-      <c r="BN43" s="78"/>
-      <c r="BO43" s="78"/>
-      <c r="BP43" s="78"/>
-      <c r="BQ43" s="86"/>
+      <c r="BL43" s="73"/>
+      <c r="BM43" s="73"/>
+      <c r="BN43" s="73"/>
+      <c r="BO43" s="73"/>
+      <c r="BP43" s="73"/>
+      <c r="BQ43" s="81"/>
     </row>
     <row r="44" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AQ44" s="65"/>
-      <c r="AR44" s="76">
-        <v>9000</v>
-      </c>
-      <c r="AS44" s="77"/>
-      <c r="AT44" s="77"/>
-      <c r="AU44" s="77"/>
-      <c r="AV44" s="77"/>
-      <c r="AW44" s="77"/>
-      <c r="AX44" s="77"/>
-      <c r="AY44" s="77"/>
-      <c r="AZ44" s="77"/>
-      <c r="BA44" s="79">
-        <v>9000</v>
-      </c>
-      <c r="BB44" s="79"/>
-      <c r="BC44" s="79"/>
-      <c r="BD44" s="79"/>
-      <c r="BE44" s="79"/>
-      <c r="BF44" s="79"/>
-      <c r="BG44" s="79"/>
-      <c r="BH44" s="79"/>
-      <c r="BI44" s="79"/>
-      <c r="BJ44" s="79"/>
-      <c r="BK44" s="77" t="s">
+      <c r="AR44" s="71">
+        <v>30000</v>
+      </c>
+      <c r="AS44" s="72"/>
+      <c r="AT44" s="72"/>
+      <c r="AU44" s="72"/>
+      <c r="AV44" s="72"/>
+      <c r="AW44" s="72"/>
+      <c r="AX44" s="72"/>
+      <c r="AY44" s="72"/>
+      <c r="AZ44" s="72"/>
+      <c r="BA44" s="74">
+        <v>10000</v>
+      </c>
+      <c r="BB44" s="74"/>
+      <c r="BC44" s="74"/>
+      <c r="BD44" s="74"/>
+      <c r="BE44" s="74"/>
+      <c r="BF44" s="74"/>
+      <c r="BG44" s="74"/>
+      <c r="BH44" s="74"/>
+      <c r="BI44" s="74"/>
+      <c r="BJ44" s="74"/>
+      <c r="BK44" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="BL44" s="77"/>
-      <c r="BM44" s="77"/>
-      <c r="BN44" s="77"/>
-      <c r="BO44" s="77"/>
-      <c r="BP44" s="77"/>
-      <c r="BQ44" s="87"/>
+      <c r="BL44" s="72"/>
+      <c r="BM44" s="72"/>
+      <c r="BN44" s="72"/>
+      <c r="BO44" s="72"/>
+      <c r="BP44" s="72"/>
+      <c r="BQ44" s="82"/>
     </row>
     <row r="45" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AQ45" s="66"/>
-      <c r="AR45" s="166" t="s">
+      <c r="AR45" s="233" t="s">
         <v>56</v>
       </c>
-      <c r="AS45" s="167"/>
-      <c r="AT45" s="167"/>
-      <c r="AU45" s="167"/>
-      <c r="AV45" s="167"/>
-      <c r="AW45" s="167"/>
-      <c r="AX45" s="167"/>
-      <c r="AY45" s="167"/>
-      <c r="AZ45" s="167"/>
-      <c r="BB45" s="91" t="s">
+      <c r="AS45" s="234"/>
+      <c r="AT45" s="234"/>
+      <c r="AU45" s="234"/>
+      <c r="AV45" s="234"/>
+      <c r="AW45" s="234"/>
+      <c r="AX45" s="234"/>
+      <c r="AY45" s="234"/>
+      <c r="AZ45" s="234"/>
+      <c r="BB45" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="BC45" s="91"/>
-      <c r="BD45" s="91"/>
-      <c r="BE45" s="91"/>
-      <c r="BF45" s="91"/>
-      <c r="BG45" s="91"/>
-      <c r="BH45" s="91"/>
-      <c r="BI45" s="91"/>
-      <c r="BJ45" s="91"/>
-      <c r="BK45" s="91"/>
-      <c r="BL45" s="91"/>
-      <c r="BM45" s="91"/>
-      <c r="BN45" s="91"/>
-      <c r="BO45" s="91"/>
-      <c r="BP45" s="91"/>
-      <c r="BQ45" s="92"/>
+      <c r="BC45" s="86"/>
+      <c r="BD45" s="86"/>
+      <c r="BE45" s="86"/>
+      <c r="BF45" s="86"/>
+      <c r="BG45" s="86"/>
+      <c r="BH45" s="86"/>
+      <c r="BI45" s="86"/>
+      <c r="BJ45" s="86"/>
+      <c r="BK45" s="86"/>
+      <c r="BL45" s="86"/>
+      <c r="BM45" s="86"/>
+      <c r="BN45" s="86"/>
+      <c r="BO45" s="86"/>
+      <c r="BP45" s="86"/>
+      <c r="BQ45" s="87"/>
     </row>
     <row r="46" spans="1:71" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="186" t="s">
+      <c r="A46" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
-      <c r="J46" s="186"/>
-      <c r="K46" s="186"/>
-      <c r="L46" s="186"/>
-      <c r="M46" s="186"/>
-      <c r="AR46" s="88">
-        <v>3000</v>
-      </c>
-      <c r="AS46" s="89"/>
-      <c r="AT46" s="89"/>
-      <c r="AU46" s="89"/>
-      <c r="AV46" s="89"/>
-      <c r="AW46" s="89"/>
-      <c r="AX46" s="89"/>
-      <c r="AY46" s="89"/>
-      <c r="AZ46" s="89"/>
-      <c r="BB46" s="91"/>
-      <c r="BC46" s="91"/>
-      <c r="BD46" s="91"/>
-      <c r="BE46" s="91"/>
-      <c r="BF46" s="91"/>
-      <c r="BG46" s="91"/>
-      <c r="BH46" s="91"/>
-      <c r="BI46" s="91"/>
-      <c r="BJ46" s="91"/>
-      <c r="BK46" s="91"/>
-      <c r="BL46" s="91"/>
-      <c r="BM46" s="91"/>
-      <c r="BN46" s="91"/>
-      <c r="BO46" s="91"/>
-      <c r="BP46" s="91"/>
-      <c r="BQ46" s="92"/>
+      <c r="B46" s="232"/>
+      <c r="C46" s="232"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="232"/>
+      <c r="F46" s="232"/>
+      <c r="G46" s="232"/>
+      <c r="H46" s="232"/>
+      <c r="I46" s="232"/>
+      <c r="J46" s="232"/>
+      <c r="K46" s="232"/>
+      <c r="L46" s="232"/>
+      <c r="M46" s="232"/>
+      <c r="AR46" s="83">
+        <v>2000</v>
+      </c>
+      <c r="AS46" s="84"/>
+      <c r="AT46" s="84"/>
+      <c r="AU46" s="84"/>
+      <c r="AV46" s="84"/>
+      <c r="AW46" s="84"/>
+      <c r="AX46" s="84"/>
+      <c r="AY46" s="84"/>
+      <c r="AZ46" s="84"/>
+      <c r="BB46" s="86"/>
+      <c r="BC46" s="86"/>
+      <c r="BD46" s="86"/>
+      <c r="BE46" s="86"/>
+      <c r="BF46" s="86"/>
+      <c r="BG46" s="86"/>
+      <c r="BH46" s="86"/>
+      <c r="BI46" s="86"/>
+      <c r="BJ46" s="86"/>
+      <c r="BK46" s="86"/>
+      <c r="BL46" s="86"/>
+      <c r="BM46" s="86"/>
+      <c r="BN46" s="86"/>
+      <c r="BO46" s="86"/>
+      <c r="BP46" s="86"/>
+      <c r="BQ46" s="87"/>
     </row>
     <row r="47" spans="1:71" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AR47" s="80" t="s">
+      <c r="AR47" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AS47" s="81"/>
-      <c r="AT47" s="81"/>
-      <c r="AU47" s="81"/>
-      <c r="AV47" s="81"/>
-      <c r="AW47" s="81"/>
-      <c r="AX47" s="81"/>
-      <c r="AY47" s="81"/>
-      <c r="AZ47" s="81"/>
-      <c r="BA47" s="81"/>
-      <c r="BB47" s="81"/>
-      <c r="BC47" s="81"/>
-      <c r="BD47" s="81"/>
-      <c r="BE47" s="81"/>
-      <c r="BF47" s="81"/>
-      <c r="BG47" s="81"/>
-      <c r="BH47" s="81"/>
-      <c r="BI47" s="81"/>
-      <c r="BJ47" s="81"/>
-      <c r="BK47" s="81"/>
-      <c r="BL47" s="81"/>
-      <c r="BM47" s="81"/>
-      <c r="BN47" s="81"/>
-      <c r="BO47" s="81"/>
-      <c r="BP47" s="81"/>
-      <c r="BQ47" s="82"/>
+      <c r="AS47" s="76"/>
+      <c r="AT47" s="76"/>
+      <c r="AU47" s="76"/>
+      <c r="AV47" s="76"/>
+      <c r="AW47" s="76"/>
+      <c r="AX47" s="76"/>
+      <c r="AY47" s="76"/>
+      <c r="AZ47" s="76"/>
+      <c r="BA47" s="76"/>
+      <c r="BB47" s="76"/>
+      <c r="BC47" s="76"/>
+      <c r="BD47" s="76"/>
+      <c r="BE47" s="76"/>
+      <c r="BF47" s="76"/>
+      <c r="BG47" s="76"/>
+      <c r="BH47" s="76"/>
+      <c r="BI47" s="76"/>
+      <c r="BJ47" s="76"/>
+      <c r="BK47" s="76"/>
+      <c r="BL47" s="76"/>
+      <c r="BM47" s="76"/>
+      <c r="BN47" s="76"/>
+      <c r="BO47" s="76"/>
+      <c r="BP47" s="76"/>
+      <c r="BQ47" s="77"/>
     </row>
     <row r="48" spans="1:71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="187" t="s">
+      <c r="A48" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="187"/>
-      <c r="C48" s="187"/>
-      <c r="D48" s="187"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="187"/>
-      <c r="G48" s="187"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="187"/>
-      <c r="L48" s="187"/>
-      <c r="M48" s="187"/>
-      <c r="AR48" s="83"/>
-      <c r="AS48" s="84"/>
-      <c r="AT48" s="84"/>
-      <c r="AU48" s="84"/>
-      <c r="AV48" s="84"/>
-      <c r="AW48" s="84"/>
-      <c r="AX48" s="84"/>
-      <c r="AY48" s="84"/>
-      <c r="AZ48" s="84"/>
-      <c r="BA48" s="84"/>
-      <c r="BB48" s="84"/>
-      <c r="BC48" s="84"/>
-      <c r="BD48" s="84"/>
-      <c r="BE48" s="84"/>
-      <c r="BF48" s="84"/>
-      <c r="BG48" s="84"/>
-      <c r="BH48" s="84"/>
-      <c r="BI48" s="84"/>
-      <c r="BJ48" s="84"/>
-      <c r="BK48" s="84"/>
-      <c r="BL48" s="84"/>
-      <c r="BM48" s="84"/>
-      <c r="BN48" s="84"/>
-      <c r="BO48" s="84"/>
-      <c r="BP48" s="84"/>
-      <c r="BQ48" s="85"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="179"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="179"/>
+      <c r="M48" s="179"/>
+      <c r="AR48" s="78"/>
+      <c r="AS48" s="79"/>
+      <c r="AT48" s="79"/>
+      <c r="AU48" s="79"/>
+      <c r="AV48" s="79"/>
+      <c r="AW48" s="79"/>
+      <c r="AX48" s="79"/>
+      <c r="AY48" s="79"/>
+      <c r="AZ48" s="79"/>
+      <c r="BA48" s="79"/>
+      <c r="BB48" s="79"/>
+      <c r="BC48" s="79"/>
+      <c r="BD48" s="79"/>
+      <c r="BE48" s="79"/>
+      <c r="BF48" s="79"/>
+      <c r="BG48" s="79"/>
+      <c r="BH48" s="79"/>
+      <c r="BI48" s="79"/>
+      <c r="BJ48" s="79"/>
+      <c r="BK48" s="79"/>
+      <c r="BL48" s="79"/>
+      <c r="BM48" s="79"/>
+      <c r="BN48" s="79"/>
+      <c r="BO48" s="79"/>
+      <c r="BP48" s="79"/>
+      <c r="BQ48" s="80"/>
     </row>
     <row r="49" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="187"/>
-      <c r="B49" s="187"/>
-      <c r="C49" s="187"/>
-      <c r="D49" s="187"/>
-      <c r="E49" s="187"/>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
-      <c r="J49" s="187"/>
-      <c r="K49" s="187"/>
-      <c r="L49" s="187"/>
-      <c r="M49" s="187"/>
-      <c r="O49" s="75" t="s">
+      <c r="A49" s="179"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="179"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="179"/>
+      <c r="J49" s="179"/>
+      <c r="K49" s="179"/>
+      <c r="L49" s="179"/>
+      <c r="M49" s="179"/>
+      <c r="O49" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="75"/>
-      <c r="T49" s="75"/>
-      <c r="U49" s="75"/>
-      <c r="V49" s="75"/>
-      <c r="W49" s="75"/>
-      <c r="X49" s="75"/>
-      <c r="Y49" s="75"/>
-      <c r="Z49" s="75"/>
-      <c r="AA49" s="75"/>
-      <c r="AB49" s="75"/>
-      <c r="AC49" s="75"/>
-      <c r="AD49" s="75"/>
-      <c r="AE49" s="75"/>
-      <c r="AF49" s="75"/>
-      <c r="AG49" s="75"/>
-      <c r="AH49" s="75"/>
-      <c r="AI49" s="75"/>
-      <c r="AJ49" s="75"/>
-      <c r="AK49" s="75"/>
-      <c r="AL49" s="75"/>
-      <c r="AM49" s="75"/>
-      <c r="AN49" s="75"/>
-      <c r="AO49" s="75"/>
-      <c r="AP49" s="75"/>
-      <c r="AQ49" s="75"/>
-      <c r="AR49" s="75"/>
-      <c r="AS49" s="75"/>
-      <c r="AT49" s="75"/>
-      <c r="AU49" s="75"/>
-      <c r="AV49" s="75"/>
-      <c r="AW49" s="75"/>
-      <c r="AX49" s="75"/>
-      <c r="AY49" s="75"/>
-      <c r="AZ49" s="75"/>
-      <c r="BA49" s="75"/>
-      <c r="BB49" s="75"/>
-      <c r="BC49" s="75"/>
-      <c r="BD49" s="75"/>
-      <c r="BE49" s="75"/>
-      <c r="BF49" s="75"/>
-      <c r="BG49" s="75"/>
-      <c r="BH49" s="75"/>
-      <c r="BI49" s="75"/>
-      <c r="BJ49" s="75"/>
-      <c r="BK49" s="75"/>
-      <c r="BL49" s="75"/>
-      <c r="BM49" s="75"/>
-      <c r="BN49" s="75"/>
-      <c r="BO49" s="75"/>
-      <c r="BP49" s="75"/>
-      <c r="BQ49" s="75"/>
+      <c r="P49" s="231"/>
+      <c r="Q49" s="231"/>
+      <c r="R49" s="231"/>
+      <c r="S49" s="231"/>
+      <c r="T49" s="231"/>
+      <c r="U49" s="231"/>
+      <c r="V49" s="231"/>
+      <c r="W49" s="231"/>
+      <c r="X49" s="231"/>
+      <c r="Y49" s="231"/>
+      <c r="Z49" s="231"/>
+      <c r="AA49" s="231"/>
+      <c r="AB49" s="231"/>
+      <c r="AC49" s="231"/>
+      <c r="AD49" s="231"/>
+      <c r="AE49" s="231"/>
+      <c r="AF49" s="231"/>
+      <c r="AG49" s="231"/>
+      <c r="AH49" s="231"/>
+      <c r="AI49" s="231"/>
+      <c r="AJ49" s="231"/>
+      <c r="AK49" s="231"/>
+      <c r="AL49" s="231"/>
+      <c r="AM49" s="231"/>
+      <c r="AN49" s="231"/>
+      <c r="AO49" s="231"/>
+      <c r="AP49" s="231"/>
+      <c r="AQ49" s="231"/>
+      <c r="AR49" s="231"/>
+      <c r="AS49" s="231"/>
+      <c r="AT49" s="231"/>
+      <c r="AU49" s="231"/>
+      <c r="AV49" s="231"/>
+      <c r="AW49" s="231"/>
+      <c r="AX49" s="231"/>
+      <c r="AY49" s="231"/>
+      <c r="AZ49" s="231"/>
+      <c r="BA49" s="231"/>
+      <c r="BB49" s="231"/>
+      <c r="BC49" s="231"/>
+      <c r="BD49" s="231"/>
+      <c r="BE49" s="231"/>
+      <c r="BF49" s="231"/>
+      <c r="BG49" s="231"/>
+      <c r="BH49" s="231"/>
+      <c r="BI49" s="231"/>
+      <c r="BJ49" s="231"/>
+      <c r="BK49" s="231"/>
+      <c r="BL49" s="231"/>
+      <c r="BM49" s="231"/>
+      <c r="BN49" s="231"/>
+      <c r="BO49" s="231"/>
+      <c r="BP49" s="231"/>
+      <c r="BQ49" s="231"/>
     </row>
     <row r="50" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="67"/>
@@ -5655,11 +5896,24 @@
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="179">
     <mergeCell ref="A46:M46"/>
     <mergeCell ref="O8:AF8"/>
     <mergeCell ref="O9:AF10"/>
     <mergeCell ref="A13:M13"/>
+    <mergeCell ref="AR45:AZ45"/>
+    <mergeCell ref="BA41:BJ41"/>
+    <mergeCell ref="AR41:AZ41"/>
+    <mergeCell ref="AR43:AZ43"/>
+    <mergeCell ref="AR40:BQ40"/>
+    <mergeCell ref="BM37:BQ37"/>
+    <mergeCell ref="BF37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="AR37:BB37"/>
+    <mergeCell ref="BE38:BL38"/>
+    <mergeCell ref="BM38:BQ38"/>
+    <mergeCell ref="AR34:BB34"/>
+    <mergeCell ref="AR35:BB35"/>
     <mergeCell ref="A48:M49"/>
     <mergeCell ref="O16:X18"/>
     <mergeCell ref="AE16:AK16"/>
@@ -5680,6 +5934,10 @@
     <mergeCell ref="AE17:AK18"/>
     <mergeCell ref="AL17:AP18"/>
     <mergeCell ref="Z15:AP15"/>
+    <mergeCell ref="A37:M38"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="O49:BQ49"/>
     <mergeCell ref="BJ33:BL33"/>
     <mergeCell ref="BM33:BQ33"/>
     <mergeCell ref="BC34:BE34"/>
@@ -5697,22 +5955,13 @@
     <mergeCell ref="BM27:BQ27"/>
     <mergeCell ref="BM28:BQ28"/>
     <mergeCell ref="BM29:BQ29"/>
-    <mergeCell ref="A37:M38"/>
-    <mergeCell ref="AR45:AZ45"/>
-    <mergeCell ref="BA41:BJ41"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="AR41:AZ41"/>
-    <mergeCell ref="AR43:AZ43"/>
-    <mergeCell ref="AR40:BQ40"/>
-    <mergeCell ref="BM37:BQ37"/>
-    <mergeCell ref="BF37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="AR37:BB37"/>
-    <mergeCell ref="BE38:BL38"/>
-    <mergeCell ref="BM38:BQ38"/>
-    <mergeCell ref="AR34:BB34"/>
-    <mergeCell ref="AR35:BB35"/>
+    <mergeCell ref="BC20:BE20"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="BC26:BE26"/>
     <mergeCell ref="AR36:BB36"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="AR14:AZ14"/>
@@ -5726,10 +5975,20 @@
     <mergeCell ref="BG15:BH15"/>
     <mergeCell ref="AR13:AZ13"/>
     <mergeCell ref="O15:X15"/>
+    <mergeCell ref="AG9:AM10"/>
+    <mergeCell ref="AN9:AP10"/>
+    <mergeCell ref="BH9:BQ9"/>
+    <mergeCell ref="AL16:AP16"/>
+    <mergeCell ref="BM24:BQ24"/>
+    <mergeCell ref="BJ19:BL19"/>
+    <mergeCell ref="AR25:BB25"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="AR26:BB26"/>
+    <mergeCell ref="AR27:BB27"/>
+    <mergeCell ref="AR28:BB28"/>
     <mergeCell ref="A4:M8"/>
     <mergeCell ref="AR12:AZ12"/>
     <mergeCell ref="AR23:BB23"/>
-    <mergeCell ref="AR24:BB24"/>
     <mergeCell ref="BJ18:BL18"/>
     <mergeCell ref="BH6:BQ7"/>
     <mergeCell ref="AR5:BG5"/>
@@ -5737,7 +5996,6 @@
     <mergeCell ref="BA8:BQ8"/>
     <mergeCell ref="AR18:BB18"/>
     <mergeCell ref="AR19:BB19"/>
-    <mergeCell ref="AR20:BB20"/>
     <mergeCell ref="AR21:BB21"/>
     <mergeCell ref="AR22:BB22"/>
     <mergeCell ref="BM18:BQ18"/>
@@ -5752,8 +6010,6 @@
     <mergeCell ref="AR15:AZ15"/>
     <mergeCell ref="AG8:AM8"/>
     <mergeCell ref="AN8:AP8"/>
-    <mergeCell ref="AG9:AM10"/>
-    <mergeCell ref="AN9:AP10"/>
     <mergeCell ref="O4:AG4"/>
     <mergeCell ref="AH4:AP4"/>
     <mergeCell ref="AK5:AP5"/>
@@ -5765,7 +6021,6 @@
     <mergeCell ref="AT1:BQ1"/>
     <mergeCell ref="AT2:BQ2"/>
     <mergeCell ref="BH5:BQ5"/>
-    <mergeCell ref="BH9:BQ9"/>
     <mergeCell ref="AR4:BQ4"/>
     <mergeCell ref="AR8:AZ8"/>
     <mergeCell ref="AR9:AZ9"/>
@@ -5786,21 +6041,29 @@
     <mergeCell ref="BJ23:BL23"/>
     <mergeCell ref="BC33:BE33"/>
     <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="AL16:AP16"/>
     <mergeCell ref="BM25:BQ25"/>
     <mergeCell ref="BM30:BQ30"/>
     <mergeCell ref="BJ25:BL25"/>
     <mergeCell ref="BF18:BI18"/>
     <mergeCell ref="BE30:BL30"/>
-    <mergeCell ref="BM24:BQ24"/>
-    <mergeCell ref="BJ19:BL19"/>
-    <mergeCell ref="AR25:BB25"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="AR26:BB26"/>
-    <mergeCell ref="AR27:BB27"/>
-    <mergeCell ref="AR28:BB28"/>
     <mergeCell ref="AR29:BB29"/>
-    <mergeCell ref="O49:BQ49"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="BF19:BI19"/>
+    <mergeCell ref="BF20:BI20"/>
+    <mergeCell ref="BF21:BI21"/>
+    <mergeCell ref="BF22:BI22"/>
+    <mergeCell ref="BF23:BI23"/>
+    <mergeCell ref="BF24:BI24"/>
+    <mergeCell ref="BF25:BI25"/>
+    <mergeCell ref="BF26:BI26"/>
+    <mergeCell ref="BF27:BI27"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="BF29:BI29"/>
+    <mergeCell ref="AR24:BB24"/>
+    <mergeCell ref="AR20:BB20"/>
     <mergeCell ref="AR42:AZ42"/>
     <mergeCell ref="BA43:BJ43"/>
     <mergeCell ref="BA44:BJ44"/>
@@ -5891,32 +6154,32 @@
       <c r="AQ1" s="46"/>
       <c r="AR1" s="46"/>
       <c r="AS1" s="42"/>
-      <c r="AT1" s="109" t="s">
+      <c r="AT1" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="109"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="109"/>
-      <c r="AX1" s="109"/>
-      <c r="AY1" s="109"/>
-      <c r="AZ1" s="109"/>
-      <c r="BA1" s="109"/>
-      <c r="BB1" s="109"/>
-      <c r="BC1" s="109"/>
-      <c r="BD1" s="109"/>
-      <c r="BE1" s="109"/>
-      <c r="BF1" s="109"/>
-      <c r="BG1" s="109"/>
-      <c r="BH1" s="109"/>
-      <c r="BI1" s="109"/>
-      <c r="BJ1" s="109"/>
-      <c r="BK1" s="109"/>
-      <c r="BL1" s="109"/>
-      <c r="BM1" s="109"/>
-      <c r="BN1" s="109"/>
-      <c r="BO1" s="109"/>
-      <c r="BP1" s="109"/>
-      <c r="BQ1" s="109"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="129"/>
+      <c r="AZ1" s="129"/>
+      <c r="BA1" s="129"/>
+      <c r="BB1" s="129"/>
+      <c r="BC1" s="129"/>
+      <c r="BD1" s="129"/>
+      <c r="BE1" s="129"/>
+      <c r="BF1" s="129"/>
+      <c r="BG1" s="129"/>
+      <c r="BH1" s="129"/>
+      <c r="BI1" s="129"/>
+      <c r="BJ1" s="129"/>
+      <c r="BK1" s="129"/>
+      <c r="BL1" s="129"/>
+      <c r="BM1" s="129"/>
+      <c r="BN1" s="129"/>
+      <c r="BO1" s="129"/>
+      <c r="BP1" s="129"/>
+      <c r="BQ1" s="129"/>
     </row>
     <row r="2" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="39"/>
@@ -5962,32 +6225,32 @@
       <c r="AQ2" s="46"/>
       <c r="AR2" s="46"/>
       <c r="AS2" s="43"/>
-      <c r="AT2" s="110" t="s">
+      <c r="AT2" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="110"/>
-      <c r="AV2" s="110"/>
-      <c r="AW2" s="110"/>
-      <c r="AX2" s="110"/>
-      <c r="AY2" s="110"/>
-      <c r="AZ2" s="110"/>
-      <c r="BA2" s="110"/>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
-      <c r="BD2" s="110"/>
-      <c r="BE2" s="110"/>
-      <c r="BF2" s="110"/>
-      <c r="BG2" s="110"/>
-      <c r="BH2" s="110"/>
-      <c r="BI2" s="110"/>
-      <c r="BJ2" s="110"/>
-      <c r="BK2" s="110"/>
-      <c r="BL2" s="110"/>
-      <c r="BM2" s="110"/>
-      <c r="BN2" s="110"/>
-      <c r="BO2" s="110"/>
-      <c r="BP2" s="110"/>
-      <c r="BQ2" s="110"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
+      <c r="BA2" s="130"/>
+      <c r="BB2" s="130"/>
+      <c r="BC2" s="130"/>
+      <c r="BD2" s="130"/>
+      <c r="BE2" s="130"/>
+      <c r="BF2" s="130"/>
+      <c r="BG2" s="130"/>
+      <c r="BH2" s="130"/>
+      <c r="BI2" s="130"/>
+      <c r="BJ2" s="130"/>
+      <c r="BK2" s="130"/>
+      <c r="BL2" s="130"/>
+      <c r="BM2" s="130"/>
+      <c r="BN2" s="130"/>
+      <c r="BO2" s="130"/>
+      <c r="BP2" s="130"/>
+      <c r="BQ2" s="130"/>
     </row>
     <row r="3" spans="1:69" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="39"/>
@@ -6060,222 +6323,222 @@
       <c r="BQ3" s="11"/>
     </row>
     <row r="4" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="314" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
+      <c r="B4" s="314"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="302" t="s">
+      <c r="O4" s="315" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
-      <c r="R4" s="303"/>
-      <c r="S4" s="303"/>
-      <c r="T4" s="303"/>
-      <c r="U4" s="303"/>
-      <c r="V4" s="303"/>
-      <c r="W4" s="303"/>
-      <c r="X4" s="303"/>
-      <c r="Y4" s="303"/>
-      <c r="Z4" s="303"/>
-      <c r="AA4" s="303"/>
-      <c r="AB4" s="303"/>
-      <c r="AC4" s="303"/>
-      <c r="AD4" s="303"/>
-      <c r="AE4" s="303"/>
-      <c r="AF4" s="303"/>
-      <c r="AG4" s="303"/>
-      <c r="AH4" s="303"/>
-      <c r="AI4" s="303"/>
-      <c r="AJ4" s="303"/>
-      <c r="AK4" s="303"/>
-      <c r="AL4" s="303"/>
-      <c r="AM4" s="303"/>
-      <c r="AN4" s="303"/>
-      <c r="AO4" s="303"/>
-      <c r="AP4" s="304"/>
-      <c r="AQ4" s="304"/>
-      <c r="AR4" s="304"/>
-      <c r="AS4" s="304"/>
-      <c r="AT4" s="304"/>
-      <c r="AU4" s="304"/>
-      <c r="AV4" s="304"/>
-      <c r="AW4" s="304"/>
-      <c r="AX4" s="304"/>
-      <c r="AY4" s="305"/>
-      <c r="AZ4" s="306"/>
-      <c r="BA4" s="307"/>
-      <c r="BB4" s="307"/>
-      <c r="BC4" s="307"/>
-      <c r="BD4" s="307"/>
-      <c r="BE4" s="307"/>
-      <c r="BF4" s="308"/>
+      <c r="P4" s="316"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="316"/>
+      <c r="S4" s="316"/>
+      <c r="T4" s="316"/>
+      <c r="U4" s="316"/>
+      <c r="V4" s="316"/>
+      <c r="W4" s="316"/>
+      <c r="X4" s="316"/>
+      <c r="Y4" s="316"/>
+      <c r="Z4" s="316"/>
+      <c r="AA4" s="316"/>
+      <c r="AB4" s="316"/>
+      <c r="AC4" s="316"/>
+      <c r="AD4" s="316"/>
+      <c r="AE4" s="316"/>
+      <c r="AF4" s="316"/>
+      <c r="AG4" s="316"/>
+      <c r="AH4" s="316"/>
+      <c r="AI4" s="316"/>
+      <c r="AJ4" s="316"/>
+      <c r="AK4" s="316"/>
+      <c r="AL4" s="316"/>
+      <c r="AM4" s="316"/>
+      <c r="AN4" s="316"/>
+      <c r="AO4" s="316"/>
+      <c r="AP4" s="317"/>
+      <c r="AQ4" s="317"/>
+      <c r="AR4" s="317"/>
+      <c r="AS4" s="317"/>
+      <c r="AT4" s="317"/>
+      <c r="AU4" s="317"/>
+      <c r="AV4" s="317"/>
+      <c r="AW4" s="317"/>
+      <c r="AX4" s="317"/>
+      <c r="AY4" s="318"/>
+      <c r="AZ4" s="319"/>
+      <c r="BA4" s="320"/>
+      <c r="BB4" s="320"/>
+      <c r="BC4" s="320"/>
+      <c r="BD4" s="320"/>
+      <c r="BE4" s="320"/>
+      <c r="BF4" s="321"/>
       <c r="BG4" s="20"/>
-      <c r="BH4" s="295"/>
-      <c r="BI4" s="295"/>
-      <c r="BJ4" s="295"/>
-      <c r="BK4" s="295"/>
-      <c r="BL4" s="295"/>
-      <c r="BM4" s="295"/>
-      <c r="BN4" s="295"/>
-      <c r="BO4" s="295"/>
-      <c r="BP4" s="295"/>
-      <c r="BQ4" s="295"/>
+      <c r="BH4" s="308"/>
+      <c r="BI4" s="308"/>
+      <c r="BJ4" s="308"/>
+      <c r="BK4" s="308"/>
+      <c r="BL4" s="308"/>
+      <c r="BM4" s="308"/>
+      <c r="BN4" s="308"/>
+      <c r="BO4" s="308"/>
+      <c r="BP4" s="308"/>
+      <c r="BQ4" s="308"/>
     </row>
     <row r="5" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="301"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="301"/>
-      <c r="J5" s="301"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
+      <c r="A5" s="314"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
+      <c r="M5" s="314"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="118" t="s">
+      <c r="O5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119" t="s">
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="126" t="s">
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126" t="s">
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="126"/>
-      <c r="AO5" s="126"/>
-      <c r="AP5" s="126"/>
-      <c r="AQ5" s="126" t="s">
+      <c r="AN5" s="122"/>
+      <c r="AO5" s="122"/>
+      <c r="AP5" s="122"/>
+      <c r="AQ5" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="AR5" s="126"/>
-      <c r="AS5" s="126"/>
-      <c r="AT5" s="126"/>
-      <c r="AU5" s="126"/>
-      <c r="AV5" s="126"/>
-      <c r="AW5" s="126"/>
-      <c r="AX5" s="126"/>
-      <c r="AY5" s="126" t="s">
+      <c r="AR5" s="122"/>
+      <c r="AS5" s="122"/>
+      <c r="AT5" s="122"/>
+      <c r="AU5" s="122"/>
+      <c r="AV5" s="122"/>
+      <c r="AW5" s="122"/>
+      <c r="AX5" s="122"/>
+      <c r="AY5" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="AZ5" s="126"/>
-      <c r="BA5" s="126"/>
-      <c r="BB5" s="126"/>
-      <c r="BC5" s="126"/>
-      <c r="BD5" s="126"/>
-      <c r="BE5" s="126"/>
-      <c r="BF5" s="309"/>
+      <c r="AZ5" s="122"/>
+      <c r="BA5" s="122"/>
+      <c r="BB5" s="122"/>
+      <c r="BC5" s="122"/>
+      <c r="BD5" s="122"/>
+      <c r="BE5" s="122"/>
+      <c r="BF5" s="322"/>
       <c r="BG5" s="2"/>
-      <c r="BH5" s="113"/>
-      <c r="BI5" s="113"/>
-      <c r="BJ5" s="113"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="113"/>
-      <c r="BM5" s="113"/>
-      <c r="BN5" s="113"/>
-      <c r="BO5" s="113"/>
-      <c r="BP5" s="113"/>
-      <c r="BQ5" s="113"/>
+      <c r="BH5" s="166"/>
+      <c r="BI5" s="166"/>
+      <c r="BJ5" s="166"/>
+      <c r="BK5" s="166"/>
+      <c r="BL5" s="166"/>
+      <c r="BM5" s="166"/>
+      <c r="BN5" s="166"/>
+      <c r="BO5" s="166"/>
+      <c r="BP5" s="166"/>
+      <c r="BQ5" s="166"/>
     </row>
     <row r="6" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="301"/>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="301"/>
+      <c r="A6" s="314"/>
+      <c r="B6" s="314"/>
+      <c r="C6" s="314"/>
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="314"/>
+      <c r="H6" s="314"/>
+      <c r="I6" s="314"/>
+      <c r="J6" s="314"/>
+      <c r="K6" s="314"/>
+      <c r="L6" s="314"/>
+      <c r="M6" s="314"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="311"/>
-      <c r="Q6" s="311"/>
-      <c r="R6" s="311"/>
-      <c r="S6" s="311"/>
-      <c r="T6" s="311"/>
-      <c r="U6" s="311"/>
-      <c r="V6" s="311"/>
-      <c r="W6" s="311"/>
-      <c r="X6" s="311"/>
-      <c r="Y6" s="311"/>
-      <c r="Z6" s="311"/>
-      <c r="AA6" s="311"/>
-      <c r="AB6" s="311"/>
-      <c r="AC6" s="311"/>
-      <c r="AD6" s="311"/>
-      <c r="AE6" s="311"/>
-      <c r="AF6" s="311"/>
-      <c r="AG6" s="311"/>
-      <c r="AH6" s="311"/>
-      <c r="AI6" s="311"/>
-      <c r="AJ6" s="311"/>
-      <c r="AK6" s="311"/>
-      <c r="AL6" s="311"/>
-      <c r="AM6" s="311"/>
-      <c r="AN6" s="311"/>
-      <c r="AO6" s="311"/>
-      <c r="AP6" s="311"/>
-      <c r="AQ6" s="311"/>
-      <c r="AR6" s="311"/>
-      <c r="AS6" s="311"/>
-      <c r="AT6" s="311"/>
-      <c r="AU6" s="311"/>
-      <c r="AV6" s="311"/>
-      <c r="AW6" s="311"/>
-      <c r="AX6" s="311"/>
-      <c r="AY6" s="311"/>
-      <c r="AZ6" s="311"/>
-      <c r="BA6" s="311"/>
-      <c r="BB6" s="311"/>
-      <c r="BC6" s="311"/>
-      <c r="BD6" s="311"/>
-      <c r="BE6" s="311"/>
-      <c r="BF6" s="312"/>
+      <c r="O6" s="323"/>
+      <c r="P6" s="324"/>
+      <c r="Q6" s="324"/>
+      <c r="R6" s="324"/>
+      <c r="S6" s="324"/>
+      <c r="T6" s="324"/>
+      <c r="U6" s="324"/>
+      <c r="V6" s="324"/>
+      <c r="W6" s="324"/>
+      <c r="X6" s="324"/>
+      <c r="Y6" s="324"/>
+      <c r="Z6" s="324"/>
+      <c r="AA6" s="324"/>
+      <c r="AB6" s="324"/>
+      <c r="AC6" s="324"/>
+      <c r="AD6" s="324"/>
+      <c r="AE6" s="324"/>
+      <c r="AF6" s="324"/>
+      <c r="AG6" s="324"/>
+      <c r="AH6" s="324"/>
+      <c r="AI6" s="324"/>
+      <c r="AJ6" s="324"/>
+      <c r="AK6" s="324"/>
+      <c r="AL6" s="324"/>
+      <c r="AM6" s="324"/>
+      <c r="AN6" s="324"/>
+      <c r="AO6" s="324"/>
+      <c r="AP6" s="324"/>
+      <c r="AQ6" s="324"/>
+      <c r="AR6" s="324"/>
+      <c r="AS6" s="324"/>
+      <c r="AT6" s="324"/>
+      <c r="AU6" s="324"/>
+      <c r="AV6" s="324"/>
+      <c r="AW6" s="324"/>
+      <c r="AX6" s="324"/>
+      <c r="AY6" s="324"/>
+      <c r="AZ6" s="324"/>
+      <c r="BA6" s="324"/>
+      <c r="BB6" s="324"/>
+      <c r="BC6" s="324"/>
+      <c r="BD6" s="324"/>
+      <c r="BE6" s="324"/>
+      <c r="BF6" s="325"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
       <c r="BO6" s="2"/>
@@ -6297,73 +6560,73 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="118" t="s">
+      <c r="O7" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119" t="s">
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119" t="s">
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="126" t="s">
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="126"/>
-      <c r="AO7" s="126" t="s">
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="122"/>
+      <c r="AO7" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="AP7" s="126"/>
-      <c r="AQ7" s="126"/>
-      <c r="AR7" s="125" t="s">
+      <c r="AP7" s="122"/>
+      <c r="AQ7" s="122"/>
+      <c r="AR7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="AS7" s="101"/>
-      <c r="AT7" s="101"/>
-      <c r="AU7" s="101"/>
-      <c r="AV7" s="101"/>
-      <c r="AW7" s="101"/>
-      <c r="AX7" s="101"/>
-      <c r="AY7" s="101"/>
-      <c r="AZ7" s="101"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="101"/>
-      <c r="BC7" s="101"/>
-      <c r="BD7" s="101"/>
-      <c r="BE7" s="101"/>
-      <c r="BF7" s="146"/>
+      <c r="AS7" s="108"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="108"/>
+      <c r="AX7" s="108"/>
+      <c r="AY7" s="108"/>
+      <c r="AZ7" s="108"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="108"/>
+      <c r="BC7" s="108"/>
+      <c r="BD7" s="108"/>
+      <c r="BE7" s="108"/>
+      <c r="BF7" s="144"/>
       <c r="BG7" s="14"/>
-      <c r="BH7" s="295"/>
-      <c r="BI7" s="295"/>
-      <c r="BJ7" s="295"/>
-      <c r="BK7" s="295"/>
-      <c r="BL7" s="295"/>
-      <c r="BM7" s="295"/>
-      <c r="BN7" s="295"/>
-      <c r="BO7" s="295"/>
-      <c r="BP7" s="295"/>
-      <c r="BQ7" s="295"/>
+      <c r="BH7" s="308"/>
+      <c r="BI7" s="308"/>
+      <c r="BJ7" s="308"/>
+      <c r="BK7" s="308"/>
+      <c r="BL7" s="308"/>
+      <c r="BM7" s="308"/>
+      <c r="BN7" s="308"/>
+      <c r="BO7" s="308"/>
+      <c r="BP7" s="308"/>
+      <c r="BQ7" s="308"/>
     </row>
     <row r="8" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -6380,61 +6643,61 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="297"/>
-      <c r="Q8" s="297"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="297"/>
-      <c r="T8" s="297"/>
-      <c r="U8" s="297"/>
-      <c r="V8" s="298"/>
-      <c r="W8" s="298"/>
-      <c r="X8" s="298"/>
-      <c r="Y8" s="298"/>
-      <c r="Z8" s="298"/>
-      <c r="AA8" s="298"/>
-      <c r="AB8" s="298"/>
-      <c r="AC8" s="298"/>
-      <c r="AD8" s="298"/>
-      <c r="AE8" s="298"/>
-      <c r="AF8" s="298"/>
-      <c r="AG8" s="298"/>
-      <c r="AH8" s="298"/>
-      <c r="AI8" s="298"/>
-      <c r="AJ8" s="298"/>
-      <c r="AK8" s="298"/>
-      <c r="AL8" s="298"/>
-      <c r="AM8" s="298"/>
-      <c r="AN8" s="298"/>
-      <c r="AO8" s="299"/>
-      <c r="AP8" s="299"/>
-      <c r="AQ8" s="299"/>
+      <c r="O8" s="309"/>
+      <c r="P8" s="310"/>
+      <c r="Q8" s="310"/>
+      <c r="R8" s="310"/>
+      <c r="S8" s="310"/>
+      <c r="T8" s="310"/>
+      <c r="U8" s="310"/>
+      <c r="V8" s="311"/>
+      <c r="W8" s="311"/>
+      <c r="X8" s="311"/>
+      <c r="Y8" s="311"/>
+      <c r="Z8" s="311"/>
+      <c r="AA8" s="311"/>
+      <c r="AB8" s="311"/>
+      <c r="AC8" s="311"/>
+      <c r="AD8" s="311"/>
+      <c r="AE8" s="311"/>
+      <c r="AF8" s="311"/>
+      <c r="AG8" s="311"/>
+      <c r="AH8" s="311"/>
+      <c r="AI8" s="311"/>
+      <c r="AJ8" s="311"/>
+      <c r="AK8" s="311"/>
+      <c r="AL8" s="311"/>
+      <c r="AM8" s="311"/>
+      <c r="AN8" s="311"/>
+      <c r="AO8" s="312"/>
+      <c r="AP8" s="312"/>
+      <c r="AQ8" s="312"/>
       <c r="AR8" s="24"/>
       <c r="AS8" s="21"/>
       <c r="AT8" s="21"/>
-      <c r="AU8" s="300"/>
-      <c r="AV8" s="299"/>
-      <c r="AW8" s="299"/>
-      <c r="AX8" s="299"/>
-      <c r="AY8" s="299"/>
-      <c r="AZ8" s="300"/>
-      <c r="BA8" s="299"/>
-      <c r="BB8" s="299"/>
+      <c r="AU8" s="313"/>
+      <c r="AV8" s="312"/>
+      <c r="AW8" s="312"/>
+      <c r="AX8" s="312"/>
+      <c r="AY8" s="312"/>
+      <c r="AZ8" s="313"/>
+      <c r="BA8" s="312"/>
+      <c r="BB8" s="312"/>
       <c r="BC8" s="22"/>
       <c r="BD8" s="22"/>
       <c r="BE8" s="22"/>
       <c r="BF8" s="23"/>
       <c r="BG8" s="15"/>
-      <c r="BH8" s="113"/>
-      <c r="BI8" s="113"/>
-      <c r="BJ8" s="113"/>
-      <c r="BK8" s="113"/>
-      <c r="BL8" s="113"/>
-      <c r="BM8" s="113"/>
-      <c r="BN8" s="113"/>
-      <c r="BO8" s="113"/>
-      <c r="BP8" s="113"/>
-      <c r="BQ8" s="113"/>
+      <c r="BH8" s="166"/>
+      <c r="BI8" s="166"/>
+      <c r="BJ8" s="166"/>
+      <c r="BK8" s="166"/>
+      <c r="BL8" s="166"/>
+      <c r="BM8" s="166"/>
+      <c r="BN8" s="166"/>
+      <c r="BO8" s="166"/>
+      <c r="BP8" s="166"/>
+      <c r="BQ8" s="166"/>
     </row>
     <row r="9" spans="1:69" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
@@ -6463,116 +6726,116 @@
     </row>
     <row r="10" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N10" s="8"/>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="116"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="116"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="116"/>
-      <c r="AO10" s="116"/>
-      <c r="AP10" s="117"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="105"/>
+      <c r="AJ10" s="105"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="105"/>
+      <c r="AM10" s="105"/>
+      <c r="AN10" s="105"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="106"/>
       <c r="AQ10" s="7"/>
-      <c r="AR10" s="115" t="s">
+      <c r="AR10" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="AS10" s="116"/>
-      <c r="AT10" s="116"/>
-      <c r="AU10" s="116"/>
-      <c r="AV10" s="116"/>
-      <c r="AW10" s="116"/>
-      <c r="AX10" s="116"/>
-      <c r="AY10" s="116"/>
-      <c r="AZ10" s="116"/>
-      <c r="BA10" s="116"/>
-      <c r="BB10" s="116"/>
-      <c r="BC10" s="116"/>
-      <c r="BD10" s="116"/>
-      <c r="BE10" s="116"/>
-      <c r="BF10" s="116"/>
-      <c r="BG10" s="116"/>
-      <c r="BH10" s="116"/>
-      <c r="BI10" s="116"/>
-      <c r="BJ10" s="116"/>
-      <c r="BK10" s="116"/>
-      <c r="BL10" s="116"/>
-      <c r="BM10" s="116"/>
-      <c r="BN10" s="116"/>
-      <c r="BO10" s="116"/>
-      <c r="BP10" s="116"/>
-      <c r="BQ10" s="117"/>
+      <c r="AS10" s="105"/>
+      <c r="AT10" s="105"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="105"/>
+      <c r="AW10" s="105"/>
+      <c r="AX10" s="105"/>
+      <c r="AY10" s="105"/>
+      <c r="AZ10" s="105"/>
+      <c r="BA10" s="105"/>
+      <c r="BB10" s="105"/>
+      <c r="BC10" s="105"/>
+      <c r="BD10" s="105"/>
+      <c r="BE10" s="105"/>
+      <c r="BF10" s="105"/>
+      <c r="BG10" s="105"/>
+      <c r="BH10" s="105"/>
+      <c r="BI10" s="105"/>
+      <c r="BJ10" s="105"/>
+      <c r="BK10" s="105"/>
+      <c r="BL10" s="105"/>
+      <c r="BM10" s="105"/>
+      <c r="BN10" s="105"/>
+      <c r="BO10" s="105"/>
+      <c r="BP10" s="105"/>
+      <c r="BQ10" s="106"/>
     </row>
     <row r="11" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N11" s="8"/>
-      <c r="O11" s="267" t="s">
+      <c r="O11" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268" t="s">
+      <c r="P11" s="281"/>
+      <c r="Q11" s="281"/>
+      <c r="R11" s="281"/>
+      <c r="S11" s="281"/>
+      <c r="T11" s="281"/>
+      <c r="U11" s="281"/>
+      <c r="V11" s="281"/>
+      <c r="W11" s="281"/>
+      <c r="X11" s="281"/>
+      <c r="Y11" s="281"/>
+      <c r="Z11" s="281"/>
+      <c r="AA11" s="281"/>
+      <c r="AB11" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="268"/>
-      <c r="AF11" s="268"/>
-      <c r="AG11" s="268" t="s">
+      <c r="AC11" s="281"/>
+      <c r="AD11" s="281"/>
+      <c r="AE11" s="281"/>
+      <c r="AF11" s="281"/>
+      <c r="AG11" s="281" t="s">
         <v>49</v>
       </c>
-      <c r="AH11" s="268"/>
-      <c r="AI11" s="268"/>
-      <c r="AJ11" s="268"/>
-      <c r="AK11" s="268" t="s">
+      <c r="AH11" s="281"/>
+      <c r="AI11" s="281"/>
+      <c r="AJ11" s="281"/>
+      <c r="AK11" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="AL11" s="268"/>
-      <c r="AM11" s="268"/>
-      <c r="AN11" s="268"/>
-      <c r="AO11" s="268"/>
-      <c r="AP11" s="269"/>
+      <c r="AL11" s="281"/>
+      <c r="AM11" s="281"/>
+      <c r="AN11" s="281"/>
+      <c r="AO11" s="281"/>
+      <c r="AP11" s="282"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="284" t="s">
+      <c r="AR11" s="297" t="s">
         <v>47</v>
       </c>
-      <c r="AS11" s="285"/>
-      <c r="AT11" s="285"/>
-      <c r="AU11" s="285"/>
-      <c r="AV11" s="285"/>
-      <c r="AW11" s="285"/>
-      <c r="AX11" s="285"/>
-      <c r="AY11" s="285"/>
-      <c r="AZ11" s="285"/>
+      <c r="AS11" s="298"/>
+      <c r="AT11" s="298"/>
+      <c r="AU11" s="298"/>
+      <c r="AV11" s="298"/>
+      <c r="AW11" s="298"/>
+      <c r="AX11" s="298"/>
+      <c r="AY11" s="298"/>
+      <c r="AZ11" s="298"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
       <c r="BC11" s="12"/>
@@ -6593,52 +6856,52 @@
     </row>
     <row r="12" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N12" s="8"/>
-      <c r="O12" s="286"/>
-      <c r="P12" s="257"/>
-      <c r="Q12" s="257"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="257"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="257"/>
-      <c r="V12" s="257"/>
-      <c r="W12" s="257"/>
-      <c r="X12" s="257"/>
-      <c r="Y12" s="257"/>
-      <c r="Z12" s="257"/>
-      <c r="AA12" s="257"/>
-      <c r="AB12" s="258"/>
-      <c r="AC12" s="258"/>
-      <c r="AD12" s="258"/>
-      <c r="AE12" s="258"/>
-      <c r="AF12" s="258"/>
-      <c r="AG12" s="290"/>
-      <c r="AH12" s="290"/>
-      <c r="AI12" s="290"/>
-      <c r="AJ12" s="290"/>
-      <c r="AK12" s="291"/>
-      <c r="AL12" s="291"/>
-      <c r="AM12" s="291"/>
-      <c r="AN12" s="291"/>
-      <c r="AO12" s="291"/>
-      <c r="AP12" s="292"/>
+      <c r="O12" s="299"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="270"/>
+      <c r="U12" s="270"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="270"/>
+      <c r="X12" s="270"/>
+      <c r="Y12" s="270"/>
+      <c r="Z12" s="270"/>
+      <c r="AA12" s="270"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="271"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="303"/>
+      <c r="AH12" s="303"/>
+      <c r="AI12" s="303"/>
+      <c r="AJ12" s="303"/>
+      <c r="AK12" s="304"/>
+      <c r="AL12" s="304"/>
+      <c r="AM12" s="304"/>
+      <c r="AN12" s="304"/>
+      <c r="AO12" s="304"/>
+      <c r="AP12" s="305"/>
       <c r="AQ12" s="40"/>
-      <c r="AR12" s="293"/>
-      <c r="AS12" s="294"/>
-      <c r="AT12" s="294"/>
-      <c r="AU12" s="294"/>
-      <c r="AV12" s="294"/>
-      <c r="AW12" s="294"/>
-      <c r="AX12" s="294"/>
-      <c r="AY12" s="294"/>
-      <c r="AZ12" s="294"/>
+      <c r="AR12" s="306"/>
+      <c r="AS12" s="307"/>
+      <c r="AT12" s="307"/>
+      <c r="AU12" s="307"/>
+      <c r="AV12" s="307"/>
+      <c r="AW12" s="307"/>
+      <c r="AX12" s="307"/>
+      <c r="AY12" s="307"/>
+      <c r="AZ12" s="307"/>
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
-      <c r="BC12" s="149"/>
-      <c r="BD12" s="149"/>
-      <c r="BE12" s="149"/>
-      <c r="BF12" s="149"/>
-      <c r="BG12" s="155"/>
-      <c r="BH12" s="155"/>
+      <c r="BC12" s="150"/>
+      <c r="BD12" s="150"/>
+      <c r="BE12" s="150"/>
+      <c r="BF12" s="150"/>
+      <c r="BG12" s="158"/>
+      <c r="BH12" s="158"/>
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
@@ -6664,54 +6927,54 @@
       <c r="L13" s="45"/>
       <c r="M13" s="45"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="286"/>
-      <c r="P13" s="257"/>
-      <c r="Q13" s="257"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="257"/>
-      <c r="T13" s="257"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="257"/>
-      <c r="W13" s="257"/>
-      <c r="X13" s="257"/>
-      <c r="Y13" s="257"/>
-      <c r="Z13" s="257"/>
-      <c r="AA13" s="257"/>
-      <c r="AB13" s="258"/>
-      <c r="AC13" s="258"/>
-      <c r="AD13" s="258"/>
-      <c r="AE13" s="258"/>
-      <c r="AF13" s="258"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="124"/>
-      <c r="AJ13" s="124"/>
-      <c r="AK13" s="124"/>
-      <c r="AL13" s="124"/>
-      <c r="AM13" s="124"/>
-      <c r="AN13" s="124"/>
-      <c r="AO13" s="124"/>
-      <c r="AP13" s="287"/>
+      <c r="O13" s="299"/>
+      <c r="P13" s="270"/>
+      <c r="Q13" s="270"/>
+      <c r="R13" s="270"/>
+      <c r="S13" s="270"/>
+      <c r="T13" s="270"/>
+      <c r="U13" s="270"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="270"/>
+      <c r="X13" s="270"/>
+      <c r="Y13" s="270"/>
+      <c r="Z13" s="270"/>
+      <c r="AA13" s="270"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="271"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="103"/>
+      <c r="AP13" s="300"/>
       <c r="AQ13" s="40"/>
-      <c r="AR13" s="284" t="s">
+      <c r="AR13" s="297" t="s">
         <v>48</v>
       </c>
-      <c r="AS13" s="285"/>
-      <c r="AT13" s="285"/>
-      <c r="AU13" s="285"/>
-      <c r="AV13" s="285"/>
-      <c r="AW13" s="285"/>
-      <c r="AX13" s="285"/>
-      <c r="AY13" s="285"/>
-      <c r="AZ13" s="285"/>
+      <c r="AS13" s="298"/>
+      <c r="AT13" s="298"/>
+      <c r="AU13" s="298"/>
+      <c r="AV13" s="298"/>
+      <c r="AW13" s="298"/>
+      <c r="AX13" s="298"/>
+      <c r="AY13" s="298"/>
+      <c r="AZ13" s="298"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5"/>
-      <c r="BC13" s="149"/>
-      <c r="BD13" s="149"/>
-      <c r="BE13" s="149"/>
-      <c r="BF13" s="149"/>
-      <c r="BG13" s="155"/>
-      <c r="BH13" s="155"/>
+      <c r="BC13" s="150"/>
+      <c r="BD13" s="150"/>
+      <c r="BE13" s="150"/>
+      <c r="BF13" s="150"/>
+      <c r="BG13" s="158"/>
+      <c r="BH13" s="158"/>
       <c r="BI13" s="5"/>
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
@@ -6736,52 +6999,52 @@
       <c r="K14" s="45"/>
       <c r="L14" s="45"/>
       <c r="M14" s="45"/>
-      <c r="O14" s="286"/>
-      <c r="P14" s="257"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="257"/>
-      <c r="U14" s="257"/>
-      <c r="V14" s="257"/>
-      <c r="W14" s="257"/>
-      <c r="X14" s="257"/>
-      <c r="Y14" s="257"/>
-      <c r="Z14" s="257"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="258"/>
-      <c r="AC14" s="258"/>
-      <c r="AD14" s="258"/>
-      <c r="AE14" s="258"/>
-      <c r="AF14" s="258"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="124"/>
-      <c r="AP14" s="287"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="270"/>
+      <c r="Q14" s="270"/>
+      <c r="R14" s="270"/>
+      <c r="S14" s="270"/>
+      <c r="T14" s="270"/>
+      <c r="U14" s="270"/>
+      <c r="V14" s="270"/>
+      <c r="W14" s="270"/>
+      <c r="X14" s="270"/>
+      <c r="Y14" s="270"/>
+      <c r="Z14" s="270"/>
+      <c r="AA14" s="270"/>
+      <c r="AB14" s="271"/>
+      <c r="AC14" s="271"/>
+      <c r="AD14" s="271"/>
+      <c r="AE14" s="271"/>
+      <c r="AF14" s="271"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="103"/>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="103"/>
+      <c r="AO14" s="103"/>
+      <c r="AP14" s="300"/>
       <c r="AQ14" s="40"/>
-      <c r="AR14" s="288"/>
-      <c r="AS14" s="289"/>
-      <c r="AT14" s="289"/>
-      <c r="AU14" s="289"/>
-      <c r="AV14" s="289"/>
-      <c r="AW14" s="289"/>
-      <c r="AX14" s="289"/>
-      <c r="AY14" s="289"/>
-      <c r="AZ14" s="289"/>
+      <c r="AR14" s="301"/>
+      <c r="AS14" s="302"/>
+      <c r="AT14" s="302"/>
+      <c r="AU14" s="302"/>
+      <c r="AV14" s="302"/>
+      <c r="AW14" s="302"/>
+      <c r="AX14" s="302"/>
+      <c r="AY14" s="302"/>
+      <c r="AZ14" s="302"/>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
-      <c r="BC14" s="149"/>
-      <c r="BD14" s="149"/>
-      <c r="BE14" s="149"/>
-      <c r="BF14" s="149"/>
-      <c r="BG14" s="155"/>
-      <c r="BH14" s="155"/>
+      <c r="BC14" s="150"/>
+      <c r="BD14" s="150"/>
+      <c r="BE14" s="150"/>
+      <c r="BF14" s="150"/>
+      <c r="BG14" s="158"/>
+      <c r="BH14" s="158"/>
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
@@ -6806,54 +7069,54 @@
       <c r="K15" s="45"/>
       <c r="L15" s="45"/>
       <c r="M15" s="45"/>
-      <c r="O15" s="286"/>
-      <c r="P15" s="257"/>
-      <c r="Q15" s="257"/>
-      <c r="R15" s="257"/>
-      <c r="S15" s="257"/>
-      <c r="T15" s="257"/>
-      <c r="U15" s="257"/>
-      <c r="V15" s="257"/>
-      <c r="W15" s="257"/>
-      <c r="X15" s="257"/>
-      <c r="Y15" s="257"/>
-      <c r="Z15" s="257"/>
-      <c r="AA15" s="257"/>
-      <c r="AB15" s="258"/>
-      <c r="AC15" s="258"/>
-      <c r="AD15" s="258"/>
-      <c r="AE15" s="258"/>
-      <c r="AF15" s="258"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="124"/>
-      <c r="AN15" s="124"/>
-      <c r="AO15" s="124"/>
-      <c r="AP15" s="287"/>
+      <c r="O15" s="299"/>
+      <c r="P15" s="270"/>
+      <c r="Q15" s="270"/>
+      <c r="R15" s="270"/>
+      <c r="S15" s="270"/>
+      <c r="T15" s="270"/>
+      <c r="U15" s="270"/>
+      <c r="V15" s="270"/>
+      <c r="W15" s="270"/>
+      <c r="X15" s="270"/>
+      <c r="Y15" s="270"/>
+      <c r="Z15" s="270"/>
+      <c r="AA15" s="270"/>
+      <c r="AB15" s="271"/>
+      <c r="AC15" s="271"/>
+      <c r="AD15" s="271"/>
+      <c r="AE15" s="271"/>
+      <c r="AF15" s="271"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103"/>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="103"/>
+      <c r="AN15" s="103"/>
+      <c r="AO15" s="103"/>
+      <c r="AP15" s="300"/>
       <c r="AQ15" s="40"/>
-      <c r="AR15" s="284" t="s">
+      <c r="AR15" s="297" t="s">
         <v>39</v>
       </c>
-      <c r="AS15" s="285"/>
-      <c r="AT15" s="285"/>
-      <c r="AU15" s="285"/>
-      <c r="AV15" s="285"/>
-      <c r="AW15" s="285"/>
-      <c r="AX15" s="285"/>
-      <c r="AY15" s="285"/>
-      <c r="AZ15" s="285"/>
+      <c r="AS15" s="298"/>
+      <c r="AT15" s="298"/>
+      <c r="AU15" s="298"/>
+      <c r="AV15" s="298"/>
+      <c r="AW15" s="298"/>
+      <c r="AX15" s="298"/>
+      <c r="AY15" s="298"/>
+      <c r="AZ15" s="298"/>
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
-      <c r="BC15" s="149"/>
-      <c r="BD15" s="149"/>
-      <c r="BE15" s="149"/>
-      <c r="BF15" s="149"/>
-      <c r="BG15" s="122"/>
-      <c r="BH15" s="122"/>
+      <c r="BC15" s="150"/>
+      <c r="BD15" s="150"/>
+      <c r="BE15" s="150"/>
+      <c r="BF15" s="150"/>
+      <c r="BG15" s="101"/>
+      <c r="BH15" s="101"/>
       <c r="BI15" s="5"/>
       <c r="BJ15" s="5"/>
       <c r="BK15" s="5"/>
@@ -6878,52 +7141,52 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="O16" s="286"/>
-      <c r="P16" s="257"/>
-      <c r="Q16" s="257"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="257"/>
-      <c r="T16" s="257"/>
-      <c r="U16" s="257"/>
-      <c r="V16" s="257"/>
-      <c r="W16" s="257"/>
-      <c r="X16" s="257"/>
-      <c r="Y16" s="257"/>
-      <c r="Z16" s="257"/>
-      <c r="AA16" s="257"/>
-      <c r="AB16" s="258"/>
-      <c r="AC16" s="258"/>
-      <c r="AD16" s="258"/>
-      <c r="AE16" s="258"/>
-      <c r="AF16" s="258"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="124"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="124"/>
-      <c r="AM16" s="124"/>
-      <c r="AN16" s="124"/>
-      <c r="AO16" s="124"/>
-      <c r="AP16" s="287"/>
+      <c r="O16" s="299"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="270"/>
+      <c r="R16" s="270"/>
+      <c r="S16" s="270"/>
+      <c r="T16" s="270"/>
+      <c r="U16" s="270"/>
+      <c r="V16" s="270"/>
+      <c r="W16" s="270"/>
+      <c r="X16" s="270"/>
+      <c r="Y16" s="270"/>
+      <c r="Z16" s="270"/>
+      <c r="AA16" s="270"/>
+      <c r="AB16" s="271"/>
+      <c r="AC16" s="271"/>
+      <c r="AD16" s="271"/>
+      <c r="AE16" s="271"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="103"/>
+      <c r="AP16" s="300"/>
       <c r="AQ16" s="40"/>
-      <c r="AR16" s="288"/>
-      <c r="AS16" s="289"/>
-      <c r="AT16" s="289"/>
-      <c r="AU16" s="289"/>
-      <c r="AV16" s="289"/>
-      <c r="AW16" s="289"/>
-      <c r="AX16" s="289"/>
-      <c r="AY16" s="289"/>
-      <c r="AZ16" s="289"/>
+      <c r="AR16" s="301"/>
+      <c r="AS16" s="302"/>
+      <c r="AT16" s="302"/>
+      <c r="AU16" s="302"/>
+      <c r="AV16" s="302"/>
+      <c r="AW16" s="302"/>
+      <c r="AX16" s="302"/>
+      <c r="AY16" s="302"/>
+      <c r="AZ16" s="302"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="5"/>
-      <c r="BC16" s="149"/>
-      <c r="BD16" s="149"/>
-      <c r="BE16" s="149"/>
-      <c r="BF16" s="149"/>
-      <c r="BG16" s="122"/>
-      <c r="BH16" s="122"/>
+      <c r="BC16" s="150"/>
+      <c r="BD16" s="150"/>
+      <c r="BE16" s="150"/>
+      <c r="BF16" s="150"/>
+      <c r="BG16" s="101"/>
+      <c r="BH16" s="101"/>
       <c r="BI16" s="5"/>
       <c r="BJ16" s="5"/>
       <c r="BK16" s="5"/>
@@ -6935,69 +7198,69 @@
       <c r="BQ16" s="26"/>
     </row>
     <row r="17" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="117"/>
-      <c r="O17" s="262"/>
-      <c r="P17" s="263"/>
-      <c r="Q17" s="263"/>
-      <c r="R17" s="263"/>
-      <c r="S17" s="263"/>
-      <c r="T17" s="263"/>
-      <c r="U17" s="263"/>
-      <c r="V17" s="263"/>
-      <c r="W17" s="263"/>
-      <c r="X17" s="263"/>
-      <c r="Y17" s="263"/>
-      <c r="Z17" s="263"/>
-      <c r="AA17" s="263"/>
-      <c r="AB17" s="263"/>
-      <c r="AC17" s="263"/>
-      <c r="AD17" s="263"/>
-      <c r="AE17" s="263"/>
-      <c r="AF17" s="263"/>
-      <c r="AG17" s="281"/>
-      <c r="AH17" s="281"/>
-      <c r="AI17" s="281"/>
-      <c r="AJ17" s="281"/>
-      <c r="AK17" s="282"/>
-      <c r="AL17" s="282"/>
-      <c r="AM17" s="282"/>
-      <c r="AN17" s="282"/>
-      <c r="AO17" s="282"/>
-      <c r="AP17" s="283"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="106"/>
+      <c r="O17" s="275"/>
+      <c r="P17" s="276"/>
+      <c r="Q17" s="276"/>
+      <c r="R17" s="276"/>
+      <c r="S17" s="276"/>
+      <c r="T17" s="276"/>
+      <c r="U17" s="276"/>
+      <c r="V17" s="276"/>
+      <c r="W17" s="276"/>
+      <c r="X17" s="276"/>
+      <c r="Y17" s="276"/>
+      <c r="Z17" s="276"/>
+      <c r="AA17" s="276"/>
+      <c r="AB17" s="276"/>
+      <c r="AC17" s="276"/>
+      <c r="AD17" s="276"/>
+      <c r="AE17" s="276"/>
+      <c r="AF17" s="276"/>
+      <c r="AG17" s="294"/>
+      <c r="AH17" s="294"/>
+      <c r="AI17" s="294"/>
+      <c r="AJ17" s="294"/>
+      <c r="AK17" s="295"/>
+      <c r="AL17" s="295"/>
+      <c r="AM17" s="295"/>
+      <c r="AN17" s="295"/>
+      <c r="AO17" s="295"/>
+      <c r="AP17" s="296"/>
       <c r="AQ17" s="40"/>
-      <c r="AR17" s="284" t="s">
+      <c r="AR17" s="297" t="s">
         <v>32</v>
       </c>
-      <c r="AS17" s="285"/>
-      <c r="AT17" s="285"/>
-      <c r="AU17" s="285"/>
-      <c r="AV17" s="285"/>
-      <c r="AW17" s="285"/>
-      <c r="AX17" s="285"/>
-      <c r="AY17" s="285"/>
-      <c r="AZ17" s="285"/>
+      <c r="AS17" s="298"/>
+      <c r="AT17" s="298"/>
+      <c r="AU17" s="298"/>
+      <c r="AV17" s="298"/>
+      <c r="AW17" s="298"/>
+      <c r="AX17" s="298"/>
+      <c r="AY17" s="298"/>
+      <c r="AZ17" s="298"/>
       <c r="BA17" s="5"/>
       <c r="BB17" s="5"/>
-      <c r="BC17" s="149"/>
-      <c r="BD17" s="149"/>
-      <c r="BE17" s="149"/>
-      <c r="BF17" s="149"/>
-      <c r="BG17" s="149"/>
-      <c r="BH17" s="149"/>
+      <c r="BC17" s="150"/>
+      <c r="BD17" s="150"/>
+      <c r="BE17" s="150"/>
+      <c r="BF17" s="150"/>
+      <c r="BG17" s="150"/>
+      <c r="BH17" s="150"/>
       <c r="BI17" s="5"/>
       <c r="BJ17" s="5"/>
       <c r="BK17" s="5"/>
@@ -7009,61 +7272,61 @@
       <c r="BQ17" s="26"/>
     </row>
     <row r="18" spans="1:69" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="150"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="152"/>
-      <c r="O18" s="273"/>
-      <c r="P18" s="273"/>
-      <c r="Q18" s="273"/>
-      <c r="R18" s="273"/>
-      <c r="S18" s="273"/>
-      <c r="T18" s="273"/>
-      <c r="U18" s="273"/>
-      <c r="V18" s="273"/>
-      <c r="W18" s="273"/>
-      <c r="X18" s="273"/>
-      <c r="Y18" s="273"/>
-      <c r="Z18" s="273"/>
-      <c r="AA18" s="274" t="s">
+      <c r="A18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="153"/>
+      <c r="O18" s="286"/>
+      <c r="P18" s="286"/>
+      <c r="Q18" s="286"/>
+      <c r="R18" s="286"/>
+      <c r="S18" s="286"/>
+      <c r="T18" s="286"/>
+      <c r="U18" s="286"/>
+      <c r="V18" s="286"/>
+      <c r="W18" s="286"/>
+      <c r="X18" s="286"/>
+      <c r="Y18" s="286"/>
+      <c r="Z18" s="286"/>
+      <c r="AA18" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="AB18" s="275"/>
-      <c r="AC18" s="275"/>
-      <c r="AD18" s="275"/>
-      <c r="AE18" s="275"/>
-      <c r="AF18" s="275"/>
-      <c r="AG18" s="275"/>
-      <c r="AH18" s="275"/>
-      <c r="AI18" s="275"/>
-      <c r="AJ18" s="276"/>
-      <c r="AK18" s="277">
+      <c r="AB18" s="288"/>
+      <c r="AC18" s="288"/>
+      <c r="AD18" s="288"/>
+      <c r="AE18" s="288"/>
+      <c r="AF18" s="288"/>
+      <c r="AG18" s="288"/>
+      <c r="AH18" s="288"/>
+      <c r="AI18" s="288"/>
+      <c r="AJ18" s="289"/>
+      <c r="AK18" s="290">
         <v>0</v>
       </c>
-      <c r="AL18" s="277"/>
-      <c r="AM18" s="277"/>
-      <c r="AN18" s="277"/>
-      <c r="AO18" s="277"/>
-      <c r="AP18" s="278"/>
+      <c r="AL18" s="290"/>
+      <c r="AM18" s="290"/>
+      <c r="AN18" s="290"/>
+      <c r="AO18" s="290"/>
+      <c r="AP18" s="291"/>
       <c r="AQ18" s="25"/>
-      <c r="AR18" s="279"/>
-      <c r="AS18" s="280"/>
-      <c r="AT18" s="280"/>
-      <c r="AU18" s="280"/>
-      <c r="AV18" s="280"/>
-      <c r="AW18" s="280"/>
-      <c r="AX18" s="280"/>
-      <c r="AY18" s="280"/>
-      <c r="AZ18" s="280"/>
+      <c r="AR18" s="292"/>
+      <c r="AS18" s="293"/>
+      <c r="AT18" s="293"/>
+      <c r="AU18" s="293"/>
+      <c r="AV18" s="293"/>
+      <c r="AW18" s="293"/>
+      <c r="AX18" s="293"/>
+      <c r="AY18" s="293"/>
+      <c r="AZ18" s="293"/>
       <c r="BA18" s="27"/>
       <c r="BB18" s="27"/>
       <c r="BC18" s="27"/>
@@ -7083,18 +7346,18 @@
       <c r="BQ18" s="29"/>
     </row>
     <row r="19" spans="1:69" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O19" s="273"/>
-      <c r="P19" s="273"/>
-      <c r="Q19" s="273"/>
-      <c r="R19" s="273"/>
-      <c r="S19" s="273"/>
-      <c r="T19" s="273"/>
-      <c r="U19" s="273"/>
-      <c r="V19" s="273"/>
-      <c r="W19" s="273"/>
-      <c r="X19" s="273"/>
-      <c r="Y19" s="273"/>
-      <c r="Z19" s="273"/>
+      <c r="O19" s="286"/>
+      <c r="P19" s="286"/>
+      <c r="Q19" s="286"/>
+      <c r="R19" s="286"/>
+      <c r="S19" s="286"/>
+      <c r="T19" s="286"/>
+      <c r="U19" s="286"/>
+      <c r="V19" s="286"/>
+      <c r="W19" s="286"/>
+      <c r="X19" s="286"/>
+      <c r="Y19" s="286"/>
+      <c r="Z19" s="286"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
@@ -7103,237 +7366,237 @@
       <c r="AF19" s="13"/>
     </row>
     <row r="20" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="117"/>
-      <c r="O20" s="115" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="106"/>
+      <c r="O20" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="116"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="116"/>
-      <c r="AJ20" s="116"/>
-      <c r="AK20" s="116"/>
-      <c r="AL20" s="116"/>
-      <c r="AM20" s="116"/>
-      <c r="AN20" s="116"/>
-      <c r="AO20" s="116"/>
-      <c r="AP20" s="117"/>
-      <c r="AR20" s="227" t="s">
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="105"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="105"/>
+      <c r="AM20" s="105"/>
+      <c r="AN20" s="105"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="106"/>
+      <c r="AR20" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="AS20" s="228"/>
-      <c r="AT20" s="228"/>
-      <c r="AU20" s="228"/>
-      <c r="AV20" s="228"/>
-      <c r="AW20" s="228"/>
-      <c r="AX20" s="228"/>
-      <c r="AY20" s="228"/>
-      <c r="AZ20" s="228"/>
-      <c r="BA20" s="228"/>
-      <c r="BB20" s="228"/>
-      <c r="BC20" s="228"/>
-      <c r="BD20" s="228"/>
-      <c r="BE20" s="228"/>
-      <c r="BF20" s="228"/>
-      <c r="BG20" s="228"/>
-      <c r="BH20" s="229"/>
+      <c r="AS20" s="223"/>
+      <c r="AT20" s="223"/>
+      <c r="AU20" s="223"/>
+      <c r="AV20" s="223"/>
+      <c r="AW20" s="223"/>
+      <c r="AX20" s="223"/>
+      <c r="AY20" s="223"/>
+      <c r="AZ20" s="223"/>
+      <c r="BA20" s="223"/>
+      <c r="BB20" s="223"/>
+      <c r="BC20" s="223"/>
+      <c r="BD20" s="223"/>
+      <c r="BE20" s="223"/>
+      <c r="BF20" s="223"/>
+      <c r="BG20" s="223"/>
+      <c r="BH20" s="224"/>
       <c r="BI20" s="2"/>
-      <c r="BJ20" s="115" t="s">
+      <c r="BJ20" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="BK20" s="116"/>
-      <c r="BL20" s="116"/>
-      <c r="BM20" s="116"/>
-      <c r="BN20" s="116"/>
-      <c r="BO20" s="116"/>
-      <c r="BP20" s="116"/>
-      <c r="BQ20" s="117"/>
+      <c r="BK20" s="105"/>
+      <c r="BL20" s="105"/>
+      <c r="BM20" s="105"/>
+      <c r="BN20" s="105"/>
+      <c r="BO20" s="105"/>
+      <c r="BP20" s="105"/>
+      <c r="BQ20" s="106"/>
     </row>
     <row r="21" spans="1:69" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="214"/>
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="216"/>
-      <c r="O21" s="267" t="s">
+      <c r="A21" s="209"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="210"/>
+      <c r="M21" s="211"/>
+      <c r="O21" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="268"/>
-      <c r="Q21" s="268"/>
-      <c r="R21" s="268"/>
-      <c r="S21" s="268"/>
-      <c r="T21" s="268"/>
-      <c r="U21" s="268"/>
-      <c r="V21" s="268"/>
-      <c r="W21" s="268"/>
-      <c r="X21" s="268"/>
-      <c r="Y21" s="268"/>
-      <c r="Z21" s="268"/>
-      <c r="AA21" s="268"/>
-      <c r="AB21" s="268" t="s">
+      <c r="P21" s="281"/>
+      <c r="Q21" s="281"/>
+      <c r="R21" s="281"/>
+      <c r="S21" s="281"/>
+      <c r="T21" s="281"/>
+      <c r="U21" s="281"/>
+      <c r="V21" s="281"/>
+      <c r="W21" s="281"/>
+      <c r="X21" s="281"/>
+      <c r="Y21" s="281"/>
+      <c r="Z21" s="281"/>
+      <c r="AA21" s="281"/>
+      <c r="AB21" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="AC21" s="268"/>
-      <c r="AD21" s="268"/>
-      <c r="AE21" s="268"/>
-      <c r="AF21" s="268"/>
-      <c r="AG21" s="268" t="s">
+      <c r="AC21" s="281"/>
+      <c r="AD21" s="281"/>
+      <c r="AE21" s="281"/>
+      <c r="AF21" s="281"/>
+      <c r="AG21" s="281" t="s">
         <v>49</v>
       </c>
-      <c r="AH21" s="268"/>
-      <c r="AI21" s="268"/>
-      <c r="AJ21" s="268"/>
-      <c r="AK21" s="268" t="s">
+      <c r="AH21" s="281"/>
+      <c r="AI21" s="281"/>
+      <c r="AJ21" s="281"/>
+      <c r="AK21" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="AL21" s="268"/>
-      <c r="AM21" s="268"/>
-      <c r="AN21" s="268"/>
-      <c r="AO21" s="268"/>
-      <c r="AP21" s="269"/>
-      <c r="AR21" s="147" t="s">
+      <c r="AL21" s="281"/>
+      <c r="AM21" s="281"/>
+      <c r="AN21" s="281"/>
+      <c r="AO21" s="281"/>
+      <c r="AP21" s="282"/>
+      <c r="AR21" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="AS21" s="148"/>
-      <c r="AT21" s="148"/>
-      <c r="AU21" s="148"/>
-      <c r="AV21" s="148"/>
-      <c r="AW21" s="111" t="s">
+      <c r="AS21" s="149"/>
+      <c r="AT21" s="149"/>
+      <c r="AU21" s="149"/>
+      <c r="AV21" s="149"/>
+      <c r="AW21" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="AX21" s="111"/>
-      <c r="AY21" s="111"/>
-      <c r="AZ21" s="111"/>
-      <c r="BA21" s="111"/>
-      <c r="BB21" s="111"/>
-      <c r="BC21" s="111"/>
-      <c r="BD21" s="93" t="s">
+      <c r="AX21" s="131"/>
+      <c r="AY21" s="131"/>
+      <c r="AZ21" s="131"/>
+      <c r="BA21" s="131"/>
+      <c r="BB21" s="131"/>
+      <c r="BC21" s="131"/>
+      <c r="BD21" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="BE21" s="93"/>
-      <c r="BF21" s="93"/>
-      <c r="BG21" s="93"/>
-      <c r="BH21" s="94"/>
+      <c r="BE21" s="168"/>
+      <c r="BF21" s="168"/>
+      <c r="BG21" s="168"/>
+      <c r="BH21" s="169"/>
       <c r="BI21" s="12"/>
-      <c r="BJ21" s="270"/>
-      <c r="BK21" s="271"/>
-      <c r="BL21" s="271"/>
-      <c r="BM21" s="271"/>
-      <c r="BN21" s="271"/>
-      <c r="BO21" s="271"/>
-      <c r="BP21" s="271"/>
-      <c r="BQ21" s="272"/>
+      <c r="BJ21" s="283"/>
+      <c r="BK21" s="284"/>
+      <c r="BL21" s="284"/>
+      <c r="BM21" s="284"/>
+      <c r="BN21" s="284"/>
+      <c r="BO21" s="284"/>
+      <c r="BP21" s="284"/>
+      <c r="BQ21" s="285"/>
     </row>
     <row r="22" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="O22" s="262"/>
-      <c r="P22" s="263"/>
-      <c r="Q22" s="263"/>
-      <c r="R22" s="263"/>
-      <c r="S22" s="263"/>
-      <c r="T22" s="263"/>
-      <c r="U22" s="263"/>
-      <c r="V22" s="263"/>
-      <c r="W22" s="263"/>
-      <c r="X22" s="263"/>
-      <c r="Y22" s="263"/>
-      <c r="Z22" s="263"/>
-      <c r="AA22" s="263"/>
-      <c r="AB22" s="263"/>
-      <c r="AC22" s="263"/>
-      <c r="AD22" s="263"/>
-      <c r="AE22" s="263"/>
-      <c r="AF22" s="263"/>
-      <c r="AG22" s="263"/>
-      <c r="AH22" s="263"/>
-      <c r="AI22" s="263"/>
-      <c r="AJ22" s="263"/>
-      <c r="AK22" s="263"/>
-      <c r="AL22" s="263"/>
-      <c r="AM22" s="263"/>
-      <c r="AN22" s="263"/>
-      <c r="AO22" s="263"/>
-      <c r="AP22" s="264"/>
-      <c r="AR22" s="217"/>
-      <c r="AS22" s="218"/>
-      <c r="AT22" s="218"/>
-      <c r="AU22" s="218"/>
-      <c r="AV22" s="218"/>
-      <c r="AW22" s="221"/>
-      <c r="AX22" s="221"/>
-      <c r="AY22" s="221"/>
-      <c r="AZ22" s="221"/>
-      <c r="BA22" s="221"/>
-      <c r="BB22" s="221"/>
-      <c r="BC22" s="221"/>
-      <c r="BD22" s="223"/>
-      <c r="BE22" s="223"/>
-      <c r="BF22" s="223"/>
-      <c r="BG22" s="223"/>
-      <c r="BH22" s="224"/>
+      <c r="O22" s="275"/>
+      <c r="P22" s="276"/>
+      <c r="Q22" s="276"/>
+      <c r="R22" s="276"/>
+      <c r="S22" s="276"/>
+      <c r="T22" s="276"/>
+      <c r="U22" s="276"/>
+      <c r="V22" s="276"/>
+      <c r="W22" s="276"/>
+      <c r="X22" s="276"/>
+      <c r="Y22" s="276"/>
+      <c r="Z22" s="276"/>
+      <c r="AA22" s="276"/>
+      <c r="AB22" s="276"/>
+      <c r="AC22" s="276"/>
+      <c r="AD22" s="276"/>
+      <c r="AE22" s="276"/>
+      <c r="AF22" s="276"/>
+      <c r="AG22" s="276"/>
+      <c r="AH22" s="276"/>
+      <c r="AI22" s="276"/>
+      <c r="AJ22" s="276"/>
+      <c r="AK22" s="276"/>
+      <c r="AL22" s="276"/>
+      <c r="AM22" s="276"/>
+      <c r="AN22" s="276"/>
+      <c r="AO22" s="276"/>
+      <c r="AP22" s="277"/>
+      <c r="AR22" s="212"/>
+      <c r="AS22" s="213"/>
+      <c r="AT22" s="213"/>
+      <c r="AU22" s="213"/>
+      <c r="AV22" s="213"/>
+      <c r="AW22" s="216"/>
+      <c r="AX22" s="216"/>
+      <c r="AY22" s="216"/>
+      <c r="AZ22" s="216"/>
+      <c r="BA22" s="216"/>
+      <c r="BB22" s="216"/>
+      <c r="BC22" s="216"/>
+      <c r="BD22" s="218"/>
+      <c r="BE22" s="218"/>
+      <c r="BF22" s="218"/>
+      <c r="BG22" s="218"/>
+      <c r="BH22" s="219"/>
       <c r="BI22" s="5"/>
-      <c r="BJ22" s="270"/>
-      <c r="BK22" s="271"/>
-      <c r="BL22" s="271"/>
-      <c r="BM22" s="271"/>
-      <c r="BN22" s="271"/>
-      <c r="BO22" s="271"/>
-      <c r="BP22" s="271"/>
-      <c r="BQ22" s="272"/>
+      <c r="BJ22" s="283"/>
+      <c r="BK22" s="284"/>
+      <c r="BL22" s="284"/>
+      <c r="BM22" s="284"/>
+      <c r="BN22" s="284"/>
+      <c r="BO22" s="284"/>
+      <c r="BP22" s="284"/>
+      <c r="BQ22" s="285"/>
     </row>
     <row r="23" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="117"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="106"/>
       <c r="O23" s="41"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -7346,95 +7609,95 @@
       <c r="X23" s="41"/>
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
-      <c r="AA23" s="265" t="s">
+      <c r="AA23" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="AB23" s="265"/>
-      <c r="AC23" s="265"/>
-      <c r="AD23" s="265"/>
-      <c r="AE23" s="265"/>
-      <c r="AF23" s="265"/>
-      <c r="AG23" s="265"/>
-      <c r="AH23" s="265"/>
-      <c r="AI23" s="265"/>
-      <c r="AJ23" s="265"/>
-      <c r="AK23" s="266">
+      <c r="AB23" s="278"/>
+      <c r="AC23" s="278"/>
+      <c r="AD23" s="278"/>
+      <c r="AE23" s="278"/>
+      <c r="AF23" s="278"/>
+      <c r="AG23" s="278"/>
+      <c r="AH23" s="278"/>
+      <c r="AI23" s="278"/>
+      <c r="AJ23" s="278"/>
+      <c r="AK23" s="279">
         <v>0</v>
       </c>
-      <c r="AL23" s="266"/>
-      <c r="AM23" s="266"/>
-      <c r="AN23" s="266"/>
-      <c r="AO23" s="266"/>
-      <c r="AP23" s="266"/>
-      <c r="AR23" s="219"/>
-      <c r="AS23" s="220"/>
-      <c r="AT23" s="220"/>
-      <c r="AU23" s="220"/>
-      <c r="AV23" s="220"/>
-      <c r="AW23" s="222"/>
-      <c r="AX23" s="222"/>
-      <c r="AY23" s="222"/>
-      <c r="AZ23" s="222"/>
-      <c r="BA23" s="222"/>
-      <c r="BB23" s="222"/>
-      <c r="BC23" s="222"/>
-      <c r="BD23" s="225"/>
-      <c r="BE23" s="225"/>
-      <c r="BF23" s="225"/>
-      <c r="BG23" s="225"/>
-      <c r="BH23" s="226"/>
+      <c r="AL23" s="279"/>
+      <c r="AM23" s="279"/>
+      <c r="AN23" s="279"/>
+      <c r="AO23" s="279"/>
+      <c r="AP23" s="279"/>
+      <c r="AR23" s="214"/>
+      <c r="AS23" s="215"/>
+      <c r="AT23" s="215"/>
+      <c r="AU23" s="215"/>
+      <c r="AV23" s="215"/>
+      <c r="AW23" s="217"/>
+      <c r="AX23" s="217"/>
+      <c r="AY23" s="217"/>
+      <c r="AZ23" s="217"/>
+      <c r="BA23" s="217"/>
+      <c r="BB23" s="217"/>
+      <c r="BC23" s="217"/>
+      <c r="BD23" s="220"/>
+      <c r="BE23" s="220"/>
+      <c r="BF23" s="220"/>
+      <c r="BG23" s="220"/>
+      <c r="BH23" s="221"/>
       <c r="BI23" s="5"/>
-      <c r="BJ23" s="270"/>
-      <c r="BK23" s="271"/>
-      <c r="BL23" s="271"/>
-      <c r="BM23" s="271"/>
-      <c r="BN23" s="271"/>
-      <c r="BO23" s="271"/>
-      <c r="BP23" s="271"/>
-      <c r="BQ23" s="272"/>
+      <c r="BJ23" s="283"/>
+      <c r="BK23" s="284"/>
+      <c r="BL23" s="284"/>
+      <c r="BM23" s="284"/>
+      <c r="BN23" s="284"/>
+      <c r="BO23" s="284"/>
+      <c r="BP23" s="284"/>
+      <c r="BQ23" s="285"/>
     </row>
     <row r="24" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="214"/>
-      <c r="B24" s="215"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="215"/>
-      <c r="L24" s="215"/>
-      <c r="M24" s="216"/>
-      <c r="O24" s="257"/>
-      <c r="P24" s="257"/>
-      <c r="Q24" s="257"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="257"/>
-      <c r="T24" s="257"/>
-      <c r="U24" s="257"/>
-      <c r="V24" s="257"/>
-      <c r="W24" s="257"/>
-      <c r="X24" s="257"/>
-      <c r="Y24" s="257"/>
-      <c r="Z24" s="257"/>
-      <c r="AA24" s="257"/>
-      <c r="AB24" s="258"/>
-      <c r="AC24" s="258"/>
-      <c r="AD24" s="258"/>
-      <c r="AE24" s="258"/>
-      <c r="AF24" s="258"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="124"/>
-      <c r="AK24" s="259"/>
-      <c r="AL24" s="259"/>
-      <c r="AM24" s="259"/>
-      <c r="AN24" s="259"/>
-      <c r="AO24" s="259"/>
-      <c r="AP24" s="259"/>
+      <c r="A24" s="209"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="210"/>
+      <c r="L24" s="210"/>
+      <c r="M24" s="211"/>
+      <c r="O24" s="270"/>
+      <c r="P24" s="270"/>
+      <c r="Q24" s="270"/>
+      <c r="R24" s="270"/>
+      <c r="S24" s="270"/>
+      <c r="T24" s="270"/>
+      <c r="U24" s="270"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="270"/>
+      <c r="X24" s="270"/>
+      <c r="Y24" s="270"/>
+      <c r="Z24" s="270"/>
+      <c r="AA24" s="270"/>
+      <c r="AB24" s="271"/>
+      <c r="AC24" s="271"/>
+      <c r="AD24" s="271"/>
+      <c r="AE24" s="271"/>
+      <c r="AF24" s="271"/>
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="272"/>
+      <c r="AL24" s="272"/>
+      <c r="AM24" s="272"/>
+      <c r="AN24" s="272"/>
+      <c r="AO24" s="272"/>
+      <c r="AP24" s="272"/>
       <c r="BG24" s="5"/>
       <c r="BH24" s="5"/>
       <c r="BI24" s="5"/>
@@ -7448,34 +7711,34 @@
       <c r="BQ24" s="34"/>
     </row>
     <row r="25" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O25" s="257"/>
-      <c r="P25" s="257"/>
-      <c r="Q25" s="257"/>
-      <c r="R25" s="257"/>
-      <c r="S25" s="257"/>
-      <c r="T25" s="257"/>
-      <c r="U25" s="257"/>
-      <c r="V25" s="257"/>
-      <c r="W25" s="257"/>
-      <c r="X25" s="257"/>
-      <c r="Y25" s="257"/>
-      <c r="Z25" s="257"/>
-      <c r="AA25" s="257"/>
-      <c r="AB25" s="258"/>
-      <c r="AC25" s="258"/>
-      <c r="AD25" s="258"/>
-      <c r="AE25" s="258"/>
-      <c r="AF25" s="258"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="259"/>
-      <c r="AL25" s="259"/>
-      <c r="AM25" s="259"/>
-      <c r="AN25" s="259"/>
-      <c r="AO25" s="259"/>
-      <c r="AP25" s="259"/>
+      <c r="O25" s="270"/>
+      <c r="P25" s="270"/>
+      <c r="Q25" s="270"/>
+      <c r="R25" s="270"/>
+      <c r="S25" s="270"/>
+      <c r="T25" s="270"/>
+      <c r="U25" s="270"/>
+      <c r="V25" s="270"/>
+      <c r="W25" s="270"/>
+      <c r="X25" s="270"/>
+      <c r="Y25" s="270"/>
+      <c r="Z25" s="270"/>
+      <c r="AA25" s="270"/>
+      <c r="AB25" s="271"/>
+      <c r="AC25" s="271"/>
+      <c r="AD25" s="271"/>
+      <c r="AE25" s="271"/>
+      <c r="AF25" s="271"/>
+      <c r="AG25" s="103"/>
+      <c r="AH25" s="103"/>
+      <c r="AI25" s="103"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="272"/>
+      <c r="AL25" s="272"/>
+      <c r="AM25" s="272"/>
+      <c r="AN25" s="272"/>
+      <c r="AO25" s="272"/>
+      <c r="AP25" s="272"/>
       <c r="BG25" s="5"/>
       <c r="BH25" s="5"/>
       <c r="BI25" s="5"/>
@@ -7491,34 +7754,34 @@
     <row r="26" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="257"/>
-      <c r="P26" s="257"/>
-      <c r="Q26" s="257"/>
-      <c r="R26" s="257"/>
-      <c r="S26" s="257"/>
-      <c r="T26" s="257"/>
-      <c r="U26" s="257"/>
-      <c r="V26" s="257"/>
-      <c r="W26" s="257"/>
-      <c r="X26" s="257"/>
-      <c r="Y26" s="257"/>
-      <c r="Z26" s="257"/>
-      <c r="AA26" s="257"/>
-      <c r="AB26" s="258"/>
-      <c r="AC26" s="258"/>
-      <c r="AD26" s="258"/>
-      <c r="AE26" s="258"/>
-      <c r="AF26" s="258"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="259"/>
-      <c r="AL26" s="259"/>
-      <c r="AM26" s="259"/>
-      <c r="AN26" s="259"/>
-      <c r="AO26" s="259"/>
-      <c r="AP26" s="259"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="270"/>
+      <c r="Q26" s="270"/>
+      <c r="R26" s="270"/>
+      <c r="S26" s="270"/>
+      <c r="T26" s="270"/>
+      <c r="U26" s="270"/>
+      <c r="V26" s="270"/>
+      <c r="W26" s="270"/>
+      <c r="X26" s="270"/>
+      <c r="Y26" s="270"/>
+      <c r="Z26" s="270"/>
+      <c r="AA26" s="270"/>
+      <c r="AB26" s="271"/>
+      <c r="AC26" s="271"/>
+      <c r="AD26" s="271"/>
+      <c r="AE26" s="271"/>
+      <c r="AF26" s="271"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="272"/>
+      <c r="AL26" s="272"/>
+      <c r="AM26" s="272"/>
+      <c r="AN26" s="272"/>
+      <c r="AO26" s="272"/>
+      <c r="AP26" s="272"/>
       <c r="BA26" s="2"/>
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
@@ -7540,34 +7803,34 @@
     <row r="27" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="257"/>
-      <c r="P27" s="257"/>
-      <c r="Q27" s="257"/>
-      <c r="R27" s="257"/>
-      <c r="S27" s="257"/>
-      <c r="T27" s="257"/>
-      <c r="U27" s="257"/>
-      <c r="V27" s="257"/>
-      <c r="W27" s="257"/>
-      <c r="X27" s="257"/>
-      <c r="Y27" s="257"/>
-      <c r="Z27" s="257"/>
-      <c r="AA27" s="257"/>
-      <c r="AB27" s="257"/>
-      <c r="AC27" s="257"/>
-      <c r="AD27" s="257"/>
-      <c r="AE27" s="257"/>
-      <c r="AF27" s="257"/>
-      <c r="AG27" s="260"/>
-      <c r="AH27" s="260"/>
-      <c r="AI27" s="260"/>
-      <c r="AJ27" s="260"/>
-      <c r="AK27" s="261"/>
-      <c r="AL27" s="261"/>
-      <c r="AM27" s="261"/>
-      <c r="AN27" s="261"/>
-      <c r="AO27" s="261"/>
-      <c r="AP27" s="261"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="270"/>
+      <c r="R27" s="270"/>
+      <c r="S27" s="270"/>
+      <c r="T27" s="270"/>
+      <c r="U27" s="270"/>
+      <c r="V27" s="270"/>
+      <c r="W27" s="270"/>
+      <c r="X27" s="270"/>
+      <c r="Y27" s="270"/>
+      <c r="Z27" s="270"/>
+      <c r="AA27" s="270"/>
+      <c r="AB27" s="270"/>
+      <c r="AC27" s="270"/>
+      <c r="AD27" s="270"/>
+      <c r="AE27" s="270"/>
+      <c r="AF27" s="270"/>
+      <c r="AG27" s="273"/>
+      <c r="AH27" s="273"/>
+      <c r="AI27" s="273"/>
+      <c r="AJ27" s="273"/>
+      <c r="AK27" s="274"/>
+      <c r="AL27" s="274"/>
+      <c r="AM27" s="274"/>
+      <c r="AN27" s="274"/>
+      <c r="AO27" s="274"/>
+      <c r="AP27" s="274"/>
       <c r="BA27" s="2"/>
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
@@ -7699,21 +7962,21 @@
       <c r="BQ32" s="36"/>
     </row>
     <row r="33" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="115" t="s">
+      <c r="A33" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="117"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
@@ -7733,19 +7996,19 @@
       <c r="BQ33" s="36"/>
     </row>
     <row r="34" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="194"/>
-      <c r="B34" s="195"/>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="196"/>
+      <c r="A34" s="186"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="188"/>
       <c r="BA34" s="2"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
@@ -7765,19 +8028,19 @@
       <c r="BQ34" s="36"/>
     </row>
     <row r="35" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="194"/>
-      <c r="B35" s="195"/>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="195"/>
-      <c r="L35" s="195"/>
-      <c r="M35" s="196"/>
+      <c r="A35" s="186"/>
+      <c r="B35" s="187"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="188"/>
       <c r="BM35" s="36"/>
       <c r="BN35" s="36"/>
       <c r="BO35" s="36"/>
@@ -7807,21 +8070,21 @@
       <c r="BQ36" s="36"/>
     </row>
     <row r="37" spans="1:69" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="117"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="106"/>
       <c r="N37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BM37" s="36"/>
@@ -7831,40 +8094,40 @@
       <c r="BQ37" s="36"/>
     </row>
     <row r="38" spans="1:69" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="168" t="s">
+      <c r="A38" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="170"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="204"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="204"/>
+      <c r="M38" s="205"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="255" t="s">
+      <c r="O38" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="P38" s="255"/>
-      <c r="Q38" s="255"/>
-      <c r="R38" s="255"/>
-      <c r="S38" s="255"/>
-      <c r="T38" s="255"/>
-      <c r="U38" s="255"/>
-      <c r="V38" s="255"/>
-      <c r="W38" s="255"/>
-      <c r="X38" s="255"/>
-      <c r="Y38" s="255"/>
-      <c r="Z38" s="255"/>
-      <c r="AA38" s="255"/>
-      <c r="AB38" s="255"/>
-      <c r="AC38" s="255"/>
-      <c r="AD38" s="255"/>
+      <c r="P38" s="268"/>
+      <c r="Q38" s="268"/>
+      <c r="R38" s="268"/>
+      <c r="S38" s="268"/>
+      <c r="T38" s="268"/>
+      <c r="U38" s="268"/>
+      <c r="V38" s="268"/>
+      <c r="W38" s="268"/>
+      <c r="X38" s="268"/>
+      <c r="Y38" s="268"/>
+      <c r="Z38" s="268"/>
+      <c r="AA38" s="268"/>
+      <c r="AB38" s="268"/>
+      <c r="AC38" s="268"/>
+      <c r="AD38" s="268"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
@@ -7879,59 +8142,59 @@
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
       <c r="AS38" s="2"/>
-      <c r="AW38" s="256"/>
-      <c r="AX38" s="256"/>
-      <c r="AY38" s="256"/>
-      <c r="AZ38" s="256"/>
-      <c r="BA38" s="256"/>
-      <c r="BB38" s="256"/>
-      <c r="BC38" s="256"/>
-      <c r="BD38" s="256"/>
-      <c r="BE38" s="256"/>
-      <c r="BF38" s="256"/>
-      <c r="BG38" s="256"/>
-      <c r="BH38" s="256"/>
-      <c r="BI38" s="256"/>
-      <c r="BJ38" s="256"/>
-      <c r="BK38" s="256"/>
-      <c r="BL38" s="256"/>
-      <c r="BM38" s="256"/>
-      <c r="BN38" s="256"/>
-      <c r="BO38" s="256"/>
-      <c r="BP38" s="256"/>
-      <c r="BQ38" s="256"/>
+      <c r="AW38" s="269"/>
+      <c r="AX38" s="269"/>
+      <c r="AY38" s="269"/>
+      <c r="AZ38" s="269"/>
+      <c r="BA38" s="269"/>
+      <c r="BB38" s="269"/>
+      <c r="BC38" s="269"/>
+      <c r="BD38" s="269"/>
+      <c r="BE38" s="269"/>
+      <c r="BF38" s="269"/>
+      <c r="BG38" s="269"/>
+      <c r="BH38" s="269"/>
+      <c r="BI38" s="269"/>
+      <c r="BJ38" s="269"/>
+      <c r="BK38" s="269"/>
+      <c r="BL38" s="269"/>
+      <c r="BM38" s="269"/>
+      <c r="BN38" s="269"/>
+      <c r="BO38" s="269"/>
+      <c r="BP38" s="269"/>
+      <c r="BQ38" s="269"/>
     </row>
     <row r="39" spans="1:69" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="211"/>
-      <c r="B39" s="212"/>
-      <c r="C39" s="212"/>
-      <c r="D39" s="212"/>
-      <c r="E39" s="212"/>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="212"/>
-      <c r="M39" s="213"/>
+      <c r="A39" s="206"/>
+      <c r="B39" s="207"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="208"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="255"/>
-      <c r="P39" s="255"/>
-      <c r="Q39" s="255"/>
-      <c r="R39" s="255"/>
-      <c r="S39" s="255"/>
-      <c r="T39" s="255"/>
-      <c r="U39" s="255"/>
-      <c r="V39" s="255"/>
-      <c r="W39" s="255"/>
-      <c r="X39" s="255"/>
-      <c r="Y39" s="255"/>
-      <c r="Z39" s="255"/>
-      <c r="AA39" s="255"/>
-      <c r="AB39" s="255"/>
-      <c r="AC39" s="255"/>
-      <c r="AD39" s="255"/>
+      <c r="O39" s="268"/>
+      <c r="P39" s="268"/>
+      <c r="Q39" s="268"/>
+      <c r="R39" s="268"/>
+      <c r="S39" s="268"/>
+      <c r="T39" s="268"/>
+      <c r="U39" s="268"/>
+      <c r="V39" s="268"/>
+      <c r="W39" s="268"/>
+      <c r="X39" s="268"/>
+      <c r="Y39" s="268"/>
+      <c r="Z39" s="268"/>
+      <c r="AA39" s="268"/>
+      <c r="AB39" s="268"/>
+      <c r="AC39" s="268"/>
+      <c r="AD39" s="268"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
@@ -7946,112 +8209,112 @@
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
       <c r="AS39" s="2"/>
-      <c r="AW39" s="256"/>
-      <c r="AX39" s="256"/>
-      <c r="AY39" s="256"/>
-      <c r="AZ39" s="256"/>
-      <c r="BA39" s="256"/>
-      <c r="BB39" s="256"/>
-      <c r="BC39" s="256"/>
-      <c r="BD39" s="256"/>
-      <c r="BE39" s="256"/>
-      <c r="BF39" s="256"/>
-      <c r="BG39" s="256"/>
-      <c r="BH39" s="256"/>
-      <c r="BI39" s="256"/>
-      <c r="BJ39" s="256"/>
-      <c r="BK39" s="256"/>
-      <c r="BL39" s="256"/>
-      <c r="BM39" s="256"/>
-      <c r="BN39" s="256"/>
-      <c r="BO39" s="256"/>
-      <c r="BP39" s="256"/>
-      <c r="BQ39" s="256"/>
+      <c r="AW39" s="269"/>
+      <c r="AX39" s="269"/>
+      <c r="AY39" s="269"/>
+      <c r="AZ39" s="269"/>
+      <c r="BA39" s="269"/>
+      <c r="BB39" s="269"/>
+      <c r="BC39" s="269"/>
+      <c r="BD39" s="269"/>
+      <c r="BE39" s="269"/>
+      <c r="BF39" s="269"/>
+      <c r="BG39" s="269"/>
+      <c r="BH39" s="269"/>
+      <c r="BI39" s="269"/>
+      <c r="BJ39" s="269"/>
+      <c r="BK39" s="269"/>
+      <c r="BL39" s="269"/>
+      <c r="BM39" s="269"/>
+      <c r="BN39" s="269"/>
+      <c r="BO39" s="269"/>
+      <c r="BP39" s="269"/>
+      <c r="BQ39" s="269"/>
     </row>
     <row r="40" spans="1:69" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="168" t="s">
+      <c r="A40" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
-      <c r="K40" s="169"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="170"/>
-      <c r="O40" s="255"/>
-      <c r="P40" s="255"/>
-      <c r="Q40" s="255"/>
-      <c r="R40" s="255"/>
-      <c r="S40" s="255"/>
-      <c r="T40" s="255"/>
-      <c r="U40" s="255"/>
-      <c r="V40" s="255"/>
-      <c r="W40" s="255"/>
-      <c r="X40" s="255"/>
-      <c r="Y40" s="255"/>
-      <c r="Z40" s="255"/>
-      <c r="AA40" s="255"/>
-      <c r="AB40" s="255"/>
-      <c r="AC40" s="255"/>
-      <c r="AD40" s="255"/>
-      <c r="AW40" s="256"/>
-      <c r="AX40" s="256"/>
-      <c r="AY40" s="256"/>
-      <c r="AZ40" s="256"/>
-      <c r="BA40" s="256"/>
-      <c r="BB40" s="256"/>
-      <c r="BC40" s="256"/>
-      <c r="BD40" s="256"/>
-      <c r="BE40" s="256"/>
-      <c r="BF40" s="256"/>
-      <c r="BG40" s="256"/>
-      <c r="BH40" s="256"/>
-      <c r="BI40" s="256"/>
-      <c r="BJ40" s="256"/>
-      <c r="BK40" s="256"/>
-      <c r="BL40" s="256"/>
-      <c r="BM40" s="256"/>
-      <c r="BN40" s="256"/>
-      <c r="BO40" s="256"/>
-      <c r="BP40" s="256"/>
-      <c r="BQ40" s="256"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="204"/>
+      <c r="K40" s="204"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="205"/>
+      <c r="O40" s="268"/>
+      <c r="P40" s="268"/>
+      <c r="Q40" s="268"/>
+      <c r="R40" s="268"/>
+      <c r="S40" s="268"/>
+      <c r="T40" s="268"/>
+      <c r="U40" s="268"/>
+      <c r="V40" s="268"/>
+      <c r="W40" s="268"/>
+      <c r="X40" s="268"/>
+      <c r="Y40" s="268"/>
+      <c r="Z40" s="268"/>
+      <c r="AA40" s="268"/>
+      <c r="AB40" s="268"/>
+      <c r="AC40" s="268"/>
+      <c r="AD40" s="268"/>
+      <c r="AW40" s="269"/>
+      <c r="AX40" s="269"/>
+      <c r="AY40" s="269"/>
+      <c r="AZ40" s="269"/>
+      <c r="BA40" s="269"/>
+      <c r="BB40" s="269"/>
+      <c r="BC40" s="269"/>
+      <c r="BD40" s="269"/>
+      <c r="BE40" s="269"/>
+      <c r="BF40" s="269"/>
+      <c r="BG40" s="269"/>
+      <c r="BH40" s="269"/>
+      <c r="BI40" s="269"/>
+      <c r="BJ40" s="269"/>
+      <c r="BK40" s="269"/>
+      <c r="BL40" s="269"/>
+      <c r="BM40" s="269"/>
+      <c r="BN40" s="269"/>
+      <c r="BO40" s="269"/>
+      <c r="BP40" s="269"/>
+      <c r="BQ40" s="269"/>
     </row>
     <row r="41" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="211"/>
-      <c r="B41" s="212"/>
-      <c r="C41" s="212"/>
-      <c r="D41" s="212"/>
-      <c r="E41" s="212"/>
-      <c r="F41" s="212"/>
-      <c r="G41" s="212"/>
-      <c r="H41" s="212"/>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
-      <c r="K41" s="212"/>
-      <c r="L41" s="212"/>
-      <c r="M41" s="213"/>
-      <c r="AF41" s="249" t="s">
+      <c r="A41" s="206"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="208"/>
+      <c r="AF41" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="AG41" s="249"/>
-      <c r="AH41" s="249"/>
-      <c r="AI41" s="249"/>
-      <c r="AJ41" s="249"/>
-      <c r="AK41" s="249"/>
-      <c r="AL41" s="249"/>
-      <c r="AM41" s="249"/>
-      <c r="AN41" s="249"/>
-      <c r="AO41" s="249"/>
-      <c r="AP41" s="249"/>
-      <c r="AQ41" s="249"/>
-      <c r="AR41" s="249"/>
-      <c r="AS41" s="249"/>
+      <c r="AG41" s="262"/>
+      <c r="AH41" s="262"/>
+      <c r="AI41" s="262"/>
+      <c r="AJ41" s="262"/>
+      <c r="AK41" s="262"/>
+      <c r="AL41" s="262"/>
+      <c r="AM41" s="262"/>
+      <c r="AN41" s="262"/>
+      <c r="AO41" s="262"/>
+      <c r="AP41" s="262"/>
+      <c r="AQ41" s="262"/>
+      <c r="AR41" s="262"/>
+      <c r="AS41" s="262"/>
       <c r="BM41" s="35"/>
       <c r="BN41" s="35"/>
       <c r="BO41" s="35"/>
@@ -8059,598 +8322,598 @@
       <c r="BQ41" s="35"/>
     </row>
     <row r="42" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
-      <c r="G42" s="169"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="169"/>
-      <c r="K42" s="169"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="170"/>
-      <c r="O42" s="115" t="s">
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
+      <c r="J42" s="204"/>
+      <c r="K42" s="204"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="205"/>
+      <c r="O42" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="116"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="116"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="116"/>
-      <c r="AH42" s="116"/>
-      <c r="AI42" s="116"/>
-      <c r="AJ42" s="116"/>
-      <c r="AK42" s="116"/>
-      <c r="AL42" s="116"/>
-      <c r="AM42" s="116"/>
-      <c r="AN42" s="116"/>
-      <c r="AO42" s="116"/>
-      <c r="AP42" s="116"/>
-      <c r="AQ42" s="116"/>
-      <c r="AR42" s="116"/>
-      <c r="AS42" s="116"/>
-      <c r="AT42" s="116"/>
-      <c r="AU42" s="116"/>
-      <c r="AV42" s="116"/>
-      <c r="AW42" s="116"/>
-      <c r="AX42" s="116"/>
-      <c r="AY42" s="117"/>
-      <c r="BA42" s="115" t="s">
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="105"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="105"/>
+      <c r="X42" s="105"/>
+      <c r="Y42" s="105"/>
+      <c r="Z42" s="105"/>
+      <c r="AA42" s="105"/>
+      <c r="AB42" s="105"/>
+      <c r="AC42" s="105"/>
+      <c r="AD42" s="105"/>
+      <c r="AE42" s="105"/>
+      <c r="AF42" s="105"/>
+      <c r="AG42" s="105"/>
+      <c r="AH42" s="105"/>
+      <c r="AI42" s="105"/>
+      <c r="AJ42" s="105"/>
+      <c r="AK42" s="105"/>
+      <c r="AL42" s="105"/>
+      <c r="AM42" s="105"/>
+      <c r="AN42" s="105"/>
+      <c r="AO42" s="105"/>
+      <c r="AP42" s="105"/>
+      <c r="AQ42" s="105"/>
+      <c r="AR42" s="105"/>
+      <c r="AS42" s="105"/>
+      <c r="AT42" s="105"/>
+      <c r="AU42" s="105"/>
+      <c r="AV42" s="105"/>
+      <c r="AW42" s="105"/>
+      <c r="AX42" s="105"/>
+      <c r="AY42" s="106"/>
+      <c r="BA42" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="BB42" s="116"/>
-      <c r="BC42" s="116"/>
-      <c r="BD42" s="116"/>
-      <c r="BE42" s="116"/>
-      <c r="BF42" s="116"/>
-      <c r="BG42" s="116"/>
-      <c r="BH42" s="116"/>
-      <c r="BI42" s="116"/>
-      <c r="BJ42" s="116"/>
-      <c r="BK42" s="116"/>
-      <c r="BL42" s="116"/>
-      <c r="BM42" s="116"/>
-      <c r="BN42" s="116"/>
-      <c r="BO42" s="116"/>
-      <c r="BP42" s="116"/>
-      <c r="BQ42" s="117"/>
+      <c r="BB42" s="105"/>
+      <c r="BC42" s="105"/>
+      <c r="BD42" s="105"/>
+      <c r="BE42" s="105"/>
+      <c r="BF42" s="105"/>
+      <c r="BG42" s="105"/>
+      <c r="BH42" s="105"/>
+      <c r="BI42" s="105"/>
+      <c r="BJ42" s="105"/>
+      <c r="BK42" s="105"/>
+      <c r="BL42" s="105"/>
+      <c r="BM42" s="105"/>
+      <c r="BN42" s="105"/>
+      <c r="BO42" s="105"/>
+      <c r="BP42" s="105"/>
+      <c r="BQ42" s="106"/>
     </row>
     <row r="43" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="171"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="173"/>
-      <c r="O43" s="250" t="s">
+      <c r="A43" s="228"/>
+      <c r="B43" s="229"/>
+      <c r="C43" s="229"/>
+      <c r="D43" s="229"/>
+      <c r="E43" s="229"/>
+      <c r="F43" s="229"/>
+      <c r="G43" s="229"/>
+      <c r="H43" s="229"/>
+      <c r="I43" s="229"/>
+      <c r="J43" s="229"/>
+      <c r="K43" s="229"/>
+      <c r="L43" s="229"/>
+      <c r="M43" s="230"/>
+      <c r="O43" s="263" t="s">
         <v>28</v>
       </c>
-      <c r="P43" s="232"/>
-      <c r="Q43" s="232"/>
-      <c r="R43" s="232"/>
-      <c r="S43" s="232"/>
-      <c r="T43" s="232"/>
-      <c r="U43" s="232"/>
-      <c r="V43" s="232"/>
-      <c r="W43" s="232"/>
-      <c r="X43" s="232" t="s">
+      <c r="P43" s="245"/>
+      <c r="Q43" s="245"/>
+      <c r="R43" s="245"/>
+      <c r="S43" s="245"/>
+      <c r="T43" s="245"/>
+      <c r="U43" s="245"/>
+      <c r="V43" s="245"/>
+      <c r="W43" s="245"/>
+      <c r="X43" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="Y43" s="232"/>
-      <c r="Z43" s="232"/>
-      <c r="AA43" s="232"/>
-      <c r="AB43" s="232"/>
-      <c r="AC43" s="232"/>
-      <c r="AD43" s="232"/>
-      <c r="AE43" s="232"/>
-      <c r="AF43" s="232"/>
-      <c r="AG43" s="232"/>
-      <c r="AH43" s="251" t="s">
+      <c r="Y43" s="245"/>
+      <c r="Z43" s="245"/>
+      <c r="AA43" s="245"/>
+      <c r="AB43" s="245"/>
+      <c r="AC43" s="245"/>
+      <c r="AD43" s="245"/>
+      <c r="AE43" s="245"/>
+      <c r="AF43" s="245"/>
+      <c r="AG43" s="245"/>
+      <c r="AH43" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="AI43" s="251"/>
-      <c r="AJ43" s="251"/>
-      <c r="AK43" s="251"/>
-      <c r="AL43" s="251"/>
-      <c r="AM43" s="251"/>
-      <c r="AN43" s="251"/>
-      <c r="AO43" s="251"/>
-      <c r="AP43" s="251"/>
-      <c r="AQ43" s="232" t="s">
+      <c r="AI43" s="264"/>
+      <c r="AJ43" s="264"/>
+      <c r="AK43" s="264"/>
+      <c r="AL43" s="264"/>
+      <c r="AM43" s="264"/>
+      <c r="AN43" s="264"/>
+      <c r="AO43" s="264"/>
+      <c r="AP43" s="264"/>
+      <c r="AQ43" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="AR43" s="232"/>
-      <c r="AS43" s="232"/>
-      <c r="AT43" s="232"/>
-      <c r="AU43" s="232"/>
-      <c r="AV43" s="232"/>
-      <c r="AW43" s="232"/>
-      <c r="AX43" s="232"/>
-      <c r="AY43" s="233"/>
+      <c r="AR43" s="245"/>
+      <c r="AS43" s="245"/>
+      <c r="AT43" s="245"/>
+      <c r="AU43" s="245"/>
+      <c r="AV43" s="245"/>
+      <c r="AW43" s="245"/>
+      <c r="AX43" s="245"/>
+      <c r="AY43" s="246"/>
       <c r="BA43" s="30"/>
       <c r="BB43" s="2"/>
-      <c r="BC43" s="252" t="s">
+      <c r="BC43" s="265" t="s">
         <v>54</v>
       </c>
-      <c r="BD43" s="252"/>
-      <c r="BE43" s="252"/>
-      <c r="BF43" s="252"/>
-      <c r="BG43" s="252"/>
-      <c r="BH43" s="252"/>
-      <c r="BI43" s="252"/>
-      <c r="BJ43" s="252"/>
-      <c r="BK43" s="252"/>
-      <c r="BL43" s="252"/>
-      <c r="BM43" s="252"/>
-      <c r="BN43" s="252"/>
-      <c r="BO43" s="252"/>
-      <c r="BP43" s="252"/>
-      <c r="BQ43" s="253"/>
+      <c r="BD43" s="265"/>
+      <c r="BE43" s="265"/>
+      <c r="BF43" s="265"/>
+      <c r="BG43" s="265"/>
+      <c r="BH43" s="265"/>
+      <c r="BI43" s="265"/>
+      <c r="BJ43" s="265"/>
+      <c r="BK43" s="265"/>
+      <c r="BL43" s="265"/>
+      <c r="BM43" s="265"/>
+      <c r="BN43" s="265"/>
+      <c r="BO43" s="265"/>
+      <c r="BP43" s="265"/>
+      <c r="BQ43" s="266"/>
     </row>
     <row r="44" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="O44" s="33"/>
-      <c r="P44" s="245" t="s">
+      <c r="P44" s="258" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="245"/>
-      <c r="R44" s="245"/>
-      <c r="S44" s="245"/>
-      <c r="T44" s="245"/>
-      <c r="U44" s="245"/>
-      <c r="V44" s="245"/>
+      <c r="Q44" s="258"/>
+      <c r="R44" s="258"/>
+      <c r="S44" s="258"/>
+      <c r="T44" s="258"/>
+      <c r="U44" s="258"/>
+      <c r="V44" s="258"/>
       <c r="W44" s="4"/>
-      <c r="X44" s="245">
+      <c r="X44" s="258">
         <v>4000</v>
       </c>
-      <c r="Y44" s="245"/>
-      <c r="Z44" s="245"/>
-      <c r="AA44" s="245"/>
-      <c r="AB44" s="245"/>
-      <c r="AC44" s="245"/>
-      <c r="AD44" s="245"/>
-      <c r="AE44" s="245"/>
-      <c r="AF44" s="245"/>
-      <c r="AG44" s="245"/>
-      <c r="AH44" s="245">
+      <c r="Y44" s="258"/>
+      <c r="Z44" s="258"/>
+      <c r="AA44" s="258"/>
+      <c r="AB44" s="258"/>
+      <c r="AC44" s="258"/>
+      <c r="AD44" s="258"/>
+      <c r="AE44" s="258"/>
+      <c r="AF44" s="258"/>
+      <c r="AG44" s="258"/>
+      <c r="AH44" s="258">
         <v>9000</v>
       </c>
-      <c r="AI44" s="245"/>
-      <c r="AJ44" s="245"/>
-      <c r="AK44" s="245"/>
-      <c r="AL44" s="245"/>
-      <c r="AM44" s="245"/>
-      <c r="AN44" s="245"/>
-      <c r="AO44" s="245"/>
-      <c r="AP44" s="245"/>
-      <c r="AQ44" s="79">
+      <c r="AI44" s="258"/>
+      <c r="AJ44" s="258"/>
+      <c r="AK44" s="258"/>
+      <c r="AL44" s="258"/>
+      <c r="AM44" s="258"/>
+      <c r="AN44" s="258"/>
+      <c r="AO44" s="258"/>
+      <c r="AP44" s="258"/>
+      <c r="AQ44" s="74">
         <v>9000</v>
       </c>
-      <c r="AR44" s="79"/>
-      <c r="AS44" s="79"/>
-      <c r="AT44" s="79"/>
-      <c r="AU44" s="79"/>
-      <c r="AV44" s="79"/>
-      <c r="AW44" s="79"/>
-      <c r="AX44" s="79"/>
-      <c r="AY44" s="254"/>
+      <c r="AR44" s="74"/>
+      <c r="AS44" s="74"/>
+      <c r="AT44" s="74"/>
+      <c r="AU44" s="74"/>
+      <c r="AV44" s="74"/>
+      <c r="AW44" s="74"/>
+      <c r="AX44" s="74"/>
+      <c r="AY44" s="267"/>
       <c r="BA44" s="30"/>
       <c r="BB44" s="2"/>
-      <c r="BC44" s="252"/>
-      <c r="BD44" s="252"/>
-      <c r="BE44" s="252"/>
-      <c r="BF44" s="252"/>
-      <c r="BG44" s="252"/>
-      <c r="BH44" s="252"/>
-      <c r="BI44" s="252"/>
-      <c r="BJ44" s="252"/>
-      <c r="BK44" s="252"/>
-      <c r="BL44" s="252"/>
-      <c r="BM44" s="252"/>
-      <c r="BN44" s="252"/>
-      <c r="BO44" s="252"/>
-      <c r="BP44" s="252"/>
-      <c r="BQ44" s="253"/>
+      <c r="BC44" s="265"/>
+      <c r="BD44" s="265"/>
+      <c r="BE44" s="265"/>
+      <c r="BF44" s="265"/>
+      <c r="BG44" s="265"/>
+      <c r="BH44" s="265"/>
+      <c r="BI44" s="265"/>
+      <c r="BJ44" s="265"/>
+      <c r="BK44" s="265"/>
+      <c r="BL44" s="265"/>
+      <c r="BM44" s="265"/>
+      <c r="BN44" s="265"/>
+      <c r="BO44" s="265"/>
+      <c r="BP44" s="265"/>
+      <c r="BQ44" s="266"/>
     </row>
     <row r="45" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="165"/>
-      <c r="O45" s="230" t="s">
+      <c r="B45" s="226"/>
+      <c r="C45" s="226"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="226"/>
+      <c r="J45" s="226"/>
+      <c r="K45" s="226"/>
+      <c r="L45" s="226"/>
+      <c r="M45" s="227"/>
+      <c r="O45" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="P45" s="231"/>
-      <c r="Q45" s="231"/>
-      <c r="R45" s="231"/>
-      <c r="S45" s="231"/>
-      <c r="T45" s="231"/>
-      <c r="U45" s="231"/>
-      <c r="V45" s="231"/>
-      <c r="W45" s="231"/>
-      <c r="X45" s="232" t="s">
+      <c r="P45" s="244"/>
+      <c r="Q45" s="244"/>
+      <c r="R45" s="244"/>
+      <c r="S45" s="244"/>
+      <c r="T45" s="244"/>
+      <c r="U45" s="244"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="244"/>
+      <c r="X45" s="245" t="s">
         <v>43</v>
       </c>
-      <c r="Y45" s="232"/>
-      <c r="Z45" s="232"/>
-      <c r="AA45" s="232"/>
-      <c r="AB45" s="232"/>
-      <c r="AC45" s="232"/>
-      <c r="AD45" s="232"/>
-      <c r="AE45" s="232"/>
-      <c r="AF45" s="232"/>
-      <c r="AG45" s="232"/>
-      <c r="AH45" s="232" t="s">
+      <c r="Y45" s="245"/>
+      <c r="Z45" s="245"/>
+      <c r="AA45" s="245"/>
+      <c r="AB45" s="245"/>
+      <c r="AC45" s="245"/>
+      <c r="AD45" s="245"/>
+      <c r="AE45" s="245"/>
+      <c r="AF45" s="245"/>
+      <c r="AG45" s="245"/>
+      <c r="AH45" s="245" t="s">
         <v>58</v>
       </c>
-      <c r="AI45" s="232"/>
-      <c r="AJ45" s="232"/>
-      <c r="AK45" s="232"/>
-      <c r="AL45" s="232"/>
-      <c r="AM45" s="232"/>
-      <c r="AN45" s="232"/>
-      <c r="AO45" s="232"/>
-      <c r="AP45" s="232"/>
-      <c r="AQ45" s="232" t="s">
+      <c r="AI45" s="245"/>
+      <c r="AJ45" s="245"/>
+      <c r="AK45" s="245"/>
+      <c r="AL45" s="245"/>
+      <c r="AM45" s="245"/>
+      <c r="AN45" s="245"/>
+      <c r="AO45" s="245"/>
+      <c r="AP45" s="245"/>
+      <c r="AQ45" s="245" t="s">
         <v>59</v>
       </c>
-      <c r="AR45" s="232"/>
-      <c r="AS45" s="232"/>
-      <c r="AT45" s="232"/>
-      <c r="AU45" s="232"/>
-      <c r="AV45" s="232"/>
-      <c r="AW45" s="232"/>
-      <c r="AX45" s="232"/>
-      <c r="AY45" s="233"/>
+      <c r="AR45" s="245"/>
+      <c r="AS45" s="245"/>
+      <c r="AT45" s="245"/>
+      <c r="AU45" s="245"/>
+      <c r="AV45" s="245"/>
+      <c r="AW45" s="245"/>
+      <c r="AX45" s="245"/>
+      <c r="AY45" s="246"/>
       <c r="BA45" s="30"/>
       <c r="BB45" s="2"/>
-      <c r="BC45" s="241" t="s">
+      <c r="BC45" s="254" t="s">
         <v>52</v>
       </c>
-      <c r="BD45" s="241"/>
-      <c r="BE45" s="241"/>
-      <c r="BF45" s="241"/>
-      <c r="BG45" s="241"/>
-      <c r="BH45" s="241"/>
-      <c r="BI45" s="241"/>
-      <c r="BJ45" s="241"/>
-      <c r="BK45" s="241"/>
-      <c r="BL45" s="241"/>
-      <c r="BM45" s="241"/>
-      <c r="BN45" s="241"/>
-      <c r="BO45" s="241"/>
+      <c r="BD45" s="254"/>
+      <c r="BE45" s="254"/>
+      <c r="BF45" s="254"/>
+      <c r="BG45" s="254"/>
+      <c r="BH45" s="254"/>
+      <c r="BI45" s="254"/>
+      <c r="BJ45" s="254"/>
+      <c r="BK45" s="254"/>
+      <c r="BL45" s="254"/>
+      <c r="BM45" s="254"/>
+      <c r="BN45" s="254"/>
+      <c r="BO45" s="254"/>
       <c r="BP45" s="17"/>
       <c r="BQ45" s="31"/>
     </row>
     <row r="46" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="163"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="164"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="164"/>
-      <c r="M46" s="165"/>
-      <c r="O46" s="242">
+      <c r="A46" s="225"/>
+      <c r="B46" s="226"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="226"/>
+      <c r="J46" s="226"/>
+      <c r="K46" s="226"/>
+      <c r="L46" s="226"/>
+      <c r="M46" s="227"/>
+      <c r="O46" s="255">
         <v>3000</v>
       </c>
-      <c r="P46" s="243"/>
-      <c r="Q46" s="243"/>
-      <c r="R46" s="243"/>
-      <c r="S46" s="243"/>
-      <c r="T46" s="243"/>
-      <c r="U46" s="243"/>
-      <c r="V46" s="243"/>
-      <c r="W46" s="243"/>
-      <c r="X46" s="244">
+      <c r="P46" s="256"/>
+      <c r="Q46" s="256"/>
+      <c r="R46" s="256"/>
+      <c r="S46" s="256"/>
+      <c r="T46" s="256"/>
+      <c r="U46" s="256"/>
+      <c r="V46" s="256"/>
+      <c r="W46" s="256"/>
+      <c r="X46" s="257">
         <v>10000</v>
       </c>
-      <c r="Y46" s="244"/>
-      <c r="Z46" s="244"/>
-      <c r="AA46" s="244"/>
-      <c r="AB46" s="244"/>
-      <c r="AC46" s="244"/>
-      <c r="AD46" s="244"/>
-      <c r="AE46" s="244"/>
-      <c r="AF46" s="244"/>
-      <c r="AG46" s="244"/>
-      <c r="AH46" s="245">
+      <c r="Y46" s="257"/>
+      <c r="Z46" s="257"/>
+      <c r="AA46" s="257"/>
+      <c r="AB46" s="257"/>
+      <c r="AC46" s="257"/>
+      <c r="AD46" s="257"/>
+      <c r="AE46" s="257"/>
+      <c r="AF46" s="257"/>
+      <c r="AG46" s="257"/>
+      <c r="AH46" s="258">
         <v>500</v>
       </c>
-      <c r="AI46" s="245"/>
-      <c r="AJ46" s="245"/>
-      <c r="AK46" s="245"/>
-      <c r="AL46" s="245"/>
-      <c r="AM46" s="245"/>
-      <c r="AN46" s="245"/>
-      <c r="AO46" s="245"/>
-      <c r="AP46" s="245"/>
-      <c r="AQ46" s="245" t="s">
+      <c r="AI46" s="258"/>
+      <c r="AJ46" s="258"/>
+      <c r="AK46" s="258"/>
+      <c r="AL46" s="258"/>
+      <c r="AM46" s="258"/>
+      <c r="AN46" s="258"/>
+      <c r="AO46" s="258"/>
+      <c r="AP46" s="258"/>
+      <c r="AQ46" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="AR46" s="245"/>
-      <c r="AS46" s="245"/>
-      <c r="AT46" s="245"/>
-      <c r="AU46" s="245"/>
-      <c r="AV46" s="245"/>
-      <c r="AW46" s="245"/>
-      <c r="AX46" s="245"/>
-      <c r="AY46" s="246"/>
+      <c r="AR46" s="258"/>
+      <c r="AS46" s="258"/>
+      <c r="AT46" s="258"/>
+      <c r="AU46" s="258"/>
+      <c r="AV46" s="258"/>
+      <c r="AW46" s="258"/>
+      <c r="AX46" s="258"/>
+      <c r="AY46" s="259"/>
       <c r="BA46" s="30"/>
       <c r="BB46" s="17"/>
-      <c r="BC46" s="247" t="s">
+      <c r="BC46" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="BD46" s="247"/>
-      <c r="BE46" s="247"/>
-      <c r="BF46" s="247"/>
-      <c r="BG46" s="247"/>
-      <c r="BH46" s="247"/>
-      <c r="BI46" s="247"/>
-      <c r="BJ46" s="247"/>
-      <c r="BK46" s="247"/>
-      <c r="BL46" s="247"/>
-      <c r="BM46" s="247"/>
-      <c r="BN46" s="247"/>
-      <c r="BO46" s="247"/>
-      <c r="BP46" s="247"/>
-      <c r="BQ46" s="248"/>
+      <c r="BD46" s="260"/>
+      <c r="BE46" s="260"/>
+      <c r="BF46" s="260"/>
+      <c r="BG46" s="260"/>
+      <c r="BH46" s="260"/>
+      <c r="BI46" s="260"/>
+      <c r="BJ46" s="260"/>
+      <c r="BK46" s="260"/>
+      <c r="BL46" s="260"/>
+      <c r="BM46" s="260"/>
+      <c r="BN46" s="260"/>
+      <c r="BO46" s="260"/>
+      <c r="BP46" s="260"/>
+      <c r="BQ46" s="261"/>
     </row>
     <row r="47" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="208">
+      <c r="A47" s="200">
         <v>0</v>
       </c>
-      <c r="B47" s="209"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="209"/>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
-      <c r="I47" s="209"/>
-      <c r="J47" s="209"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="209"/>
-      <c r="M47" s="210"/>
-      <c r="O47" s="234" t="s">
+      <c r="B47" s="201"/>
+      <c r="C47" s="201"/>
+      <c r="D47" s="201"/>
+      <c r="E47" s="201"/>
+      <c r="F47" s="201"/>
+      <c r="G47" s="201"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="201"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="201"/>
+      <c r="L47" s="201"/>
+      <c r="M47" s="202"/>
+      <c r="O47" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
-      <c r="AA47" s="81"/>
-      <c r="AB47" s="81"/>
-      <c r="AC47" s="81"/>
-      <c r="AD47" s="81"/>
-      <c r="AE47" s="81"/>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="81"/>
-      <c r="AH47" s="81"/>
-      <c r="AI47" s="81"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="81"/>
-      <c r="AL47" s="81"/>
-      <c r="AM47" s="81"/>
-      <c r="AN47" s="81"/>
-      <c r="AO47" s="81"/>
-      <c r="AP47" s="81"/>
-      <c r="AQ47" s="81"/>
-      <c r="AR47" s="81"/>
-      <c r="AS47" s="81"/>
-      <c r="AT47" s="81"/>
-      <c r="AU47" s="81"/>
-      <c r="AV47" s="81"/>
-      <c r="AW47" s="81"/>
-      <c r="AX47" s="81"/>
-      <c r="AY47" s="235"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="76"/>
+      <c r="X47" s="76"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="76"/>
+      <c r="AA47" s="76"/>
+      <c r="AB47" s="76"/>
+      <c r="AC47" s="76"/>
+      <c r="AD47" s="76"/>
+      <c r="AE47" s="76"/>
+      <c r="AF47" s="76"/>
+      <c r="AG47" s="76"/>
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="76"/>
+      <c r="AJ47" s="76"/>
+      <c r="AK47" s="76"/>
+      <c r="AL47" s="76"/>
+      <c r="AM47" s="76"/>
+      <c r="AN47" s="76"/>
+      <c r="AO47" s="76"/>
+      <c r="AP47" s="76"/>
+      <c r="AQ47" s="76"/>
+      <c r="AR47" s="76"/>
+      <c r="AS47" s="76"/>
+      <c r="AT47" s="76"/>
+      <c r="AU47" s="76"/>
+      <c r="AV47" s="76"/>
+      <c r="AW47" s="76"/>
+      <c r="AX47" s="76"/>
+      <c r="AY47" s="248"/>
       <c r="BA47" s="30"/>
       <c r="BB47" s="17"/>
-      <c r="BC47" s="247"/>
-      <c r="BD47" s="247"/>
-      <c r="BE47" s="247"/>
-      <c r="BF47" s="247"/>
-      <c r="BG47" s="247"/>
-      <c r="BH47" s="247"/>
-      <c r="BI47" s="247"/>
-      <c r="BJ47" s="247"/>
-      <c r="BK47" s="247"/>
-      <c r="BL47" s="247"/>
-      <c r="BM47" s="247"/>
-      <c r="BN47" s="247"/>
-      <c r="BO47" s="247"/>
-      <c r="BP47" s="247"/>
-      <c r="BQ47" s="248"/>
+      <c r="BC47" s="260"/>
+      <c r="BD47" s="260"/>
+      <c r="BE47" s="260"/>
+      <c r="BF47" s="260"/>
+      <c r="BG47" s="260"/>
+      <c r="BH47" s="260"/>
+      <c r="BI47" s="260"/>
+      <c r="BJ47" s="260"/>
+      <c r="BK47" s="260"/>
+      <c r="BL47" s="260"/>
+      <c r="BM47" s="260"/>
+      <c r="BN47" s="260"/>
+      <c r="BO47" s="260"/>
+      <c r="BP47" s="260"/>
+      <c r="BQ47" s="261"/>
     </row>
     <row r="48" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="208"/>
-      <c r="B48" s="209"/>
-      <c r="C48" s="209"/>
-      <c r="D48" s="209"/>
-      <c r="E48" s="209"/>
-      <c r="F48" s="209"/>
-      <c r="G48" s="209"/>
-      <c r="H48" s="209"/>
-      <c r="I48" s="209"/>
-      <c r="J48" s="209"/>
-      <c r="K48" s="209"/>
-      <c r="L48" s="209"/>
-      <c r="M48" s="210"/>
-      <c r="O48" s="236"/>
-      <c r="P48" s="237"/>
-      <c r="Q48" s="237"/>
-      <c r="R48" s="237"/>
-      <c r="S48" s="237"/>
-      <c r="T48" s="237"/>
-      <c r="U48" s="237"/>
-      <c r="V48" s="237"/>
-      <c r="W48" s="237"/>
-      <c r="X48" s="237"/>
-      <c r="Y48" s="237"/>
-      <c r="Z48" s="237"/>
-      <c r="AA48" s="237"/>
-      <c r="AB48" s="237"/>
-      <c r="AC48" s="237"/>
-      <c r="AD48" s="237"/>
-      <c r="AE48" s="237"/>
-      <c r="AF48" s="237"/>
-      <c r="AG48" s="237"/>
-      <c r="AH48" s="237"/>
-      <c r="AI48" s="237"/>
-      <c r="AJ48" s="237"/>
-      <c r="AK48" s="237"/>
-      <c r="AL48" s="237"/>
-      <c r="AM48" s="237"/>
-      <c r="AN48" s="237"/>
-      <c r="AO48" s="237"/>
-      <c r="AP48" s="237"/>
-      <c r="AQ48" s="237"/>
-      <c r="AR48" s="237"/>
-      <c r="AS48" s="237"/>
-      <c r="AT48" s="237"/>
-      <c r="AU48" s="237"/>
-      <c r="AV48" s="237"/>
-      <c r="AW48" s="237"/>
-      <c r="AX48" s="237"/>
-      <c r="AY48" s="238"/>
+      <c r="A48" s="200"/>
+      <c r="B48" s="201"/>
+      <c r="C48" s="201"/>
+      <c r="D48" s="201"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="201"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="201"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="201"/>
+      <c r="L48" s="201"/>
+      <c r="M48" s="202"/>
+      <c r="O48" s="249"/>
+      <c r="P48" s="250"/>
+      <c r="Q48" s="250"/>
+      <c r="R48" s="250"/>
+      <c r="S48" s="250"/>
+      <c r="T48" s="250"/>
+      <c r="U48" s="250"/>
+      <c r="V48" s="250"/>
+      <c r="W48" s="250"/>
+      <c r="X48" s="250"/>
+      <c r="Y48" s="250"/>
+      <c r="Z48" s="250"/>
+      <c r="AA48" s="250"/>
+      <c r="AB48" s="250"/>
+      <c r="AC48" s="250"/>
+      <c r="AD48" s="250"/>
+      <c r="AE48" s="250"/>
+      <c r="AF48" s="250"/>
+      <c r="AG48" s="250"/>
+      <c r="AH48" s="250"/>
+      <c r="AI48" s="250"/>
+      <c r="AJ48" s="250"/>
+      <c r="AK48" s="250"/>
+      <c r="AL48" s="250"/>
+      <c r="AM48" s="250"/>
+      <c r="AN48" s="250"/>
+      <c r="AO48" s="250"/>
+      <c r="AP48" s="250"/>
+      <c r="AQ48" s="250"/>
+      <c r="AR48" s="250"/>
+      <c r="AS48" s="250"/>
+      <c r="AT48" s="250"/>
+      <c r="AU48" s="250"/>
+      <c r="AV48" s="250"/>
+      <c r="AW48" s="250"/>
+      <c r="AX48" s="250"/>
+      <c r="AY48" s="251"/>
       <c r="BA48" s="32"/>
       <c r="BB48" s="28"/>
-      <c r="BC48" s="239" t="s">
+      <c r="BC48" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="BD48" s="239"/>
-      <c r="BE48" s="239"/>
-      <c r="BF48" s="239"/>
-      <c r="BG48" s="239"/>
-      <c r="BH48" s="239"/>
-      <c r="BI48" s="239"/>
-      <c r="BJ48" s="239"/>
-      <c r="BK48" s="239"/>
-      <c r="BL48" s="239"/>
-      <c r="BM48" s="239"/>
-      <c r="BN48" s="239"/>
-      <c r="BO48" s="239"/>
-      <c r="BP48" s="239"/>
-      <c r="BQ48" s="240"/>
+      <c r="BD48" s="252"/>
+      <c r="BE48" s="252"/>
+      <c r="BF48" s="252"/>
+      <c r="BG48" s="252"/>
+      <c r="BH48" s="252"/>
+      <c r="BI48" s="252"/>
+      <c r="BJ48" s="252"/>
+      <c r="BK48" s="252"/>
+      <c r="BL48" s="252"/>
+      <c r="BM48" s="252"/>
+      <c r="BN48" s="252"/>
+      <c r="BO48" s="252"/>
+      <c r="BP48" s="252"/>
+      <c r="BQ48" s="253"/>
     </row>
     <row r="49" spans="1:69" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="208"/>
-      <c r="B49" s="209"/>
-      <c r="C49" s="209"/>
-      <c r="D49" s="209"/>
-      <c r="E49" s="209"/>
-      <c r="F49" s="209"/>
-      <c r="G49" s="209"/>
-      <c r="H49" s="209"/>
-      <c r="I49" s="209"/>
-      <c r="J49" s="209"/>
-      <c r="K49" s="209"/>
-      <c r="L49" s="209"/>
-      <c r="M49" s="210"/>
-      <c r="O49" s="75" t="s">
+      <c r="A49" s="200"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="201"/>
+      <c r="F49" s="201"/>
+      <c r="G49" s="201"/>
+      <c r="H49" s="201"/>
+      <c r="I49" s="201"/>
+      <c r="J49" s="201"/>
+      <c r="K49" s="201"/>
+      <c r="L49" s="201"/>
+      <c r="M49" s="202"/>
+      <c r="O49" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="75"/>
-      <c r="T49" s="75"/>
-      <c r="U49" s="75"/>
-      <c r="V49" s="75"/>
-      <c r="W49" s="75"/>
-      <c r="X49" s="75"/>
-      <c r="Y49" s="75"/>
-      <c r="Z49" s="75"/>
-      <c r="AA49" s="75"/>
-      <c r="AB49" s="75"/>
-      <c r="AC49" s="75"/>
-      <c r="AD49" s="75"/>
-      <c r="AE49" s="75"/>
-      <c r="AF49" s="75"/>
-      <c r="AG49" s="75"/>
-      <c r="AH49" s="75"/>
-      <c r="AI49" s="75"/>
-      <c r="AJ49" s="75"/>
-      <c r="AK49" s="75"/>
-      <c r="AL49" s="75"/>
-      <c r="AM49" s="75"/>
-      <c r="AN49" s="75"/>
-      <c r="AO49" s="75"/>
-      <c r="AP49" s="75"/>
-      <c r="AQ49" s="75"/>
-      <c r="AR49" s="75"/>
-      <c r="AS49" s="75"/>
-      <c r="AT49" s="75"/>
-      <c r="AU49" s="75"/>
-      <c r="AV49" s="75"/>
-      <c r="AW49" s="75"/>
-      <c r="AX49" s="75"/>
-      <c r="AY49" s="75"/>
-      <c r="AZ49" s="75"/>
-      <c r="BA49" s="75"/>
-      <c r="BB49" s="75"/>
-      <c r="BC49" s="75"/>
-      <c r="BD49" s="75"/>
-      <c r="BE49" s="75"/>
-      <c r="BF49" s="75"/>
-      <c r="BG49" s="75"/>
-      <c r="BH49" s="75"/>
-      <c r="BI49" s="75"/>
-      <c r="BJ49" s="75"/>
-      <c r="BK49" s="75"/>
-      <c r="BL49" s="75"/>
-      <c r="BM49" s="75"/>
-      <c r="BN49" s="75"/>
-      <c r="BO49" s="75"/>
-      <c r="BP49" s="75"/>
-      <c r="BQ49" s="75"/>
+      <c r="P49" s="231"/>
+      <c r="Q49" s="231"/>
+      <c r="R49" s="231"/>
+      <c r="S49" s="231"/>
+      <c r="T49" s="231"/>
+      <c r="U49" s="231"/>
+      <c r="V49" s="231"/>
+      <c r="W49" s="231"/>
+      <c r="X49" s="231"/>
+      <c r="Y49" s="231"/>
+      <c r="Z49" s="231"/>
+      <c r="AA49" s="231"/>
+      <c r="AB49" s="231"/>
+      <c r="AC49" s="231"/>
+      <c r="AD49" s="231"/>
+      <c r="AE49" s="231"/>
+      <c r="AF49" s="231"/>
+      <c r="AG49" s="231"/>
+      <c r="AH49" s="231"/>
+      <c r="AI49" s="231"/>
+      <c r="AJ49" s="231"/>
+      <c r="AK49" s="231"/>
+      <c r="AL49" s="231"/>
+      <c r="AM49" s="231"/>
+      <c r="AN49" s="231"/>
+      <c r="AO49" s="231"/>
+      <c r="AP49" s="231"/>
+      <c r="AQ49" s="231"/>
+      <c r="AR49" s="231"/>
+      <c r="AS49" s="231"/>
+      <c r="AT49" s="231"/>
+      <c r="AU49" s="231"/>
+      <c r="AV49" s="231"/>
+      <c r="AW49" s="231"/>
+      <c r="AX49" s="231"/>
+      <c r="AY49" s="231"/>
+      <c r="AZ49" s="231"/>
+      <c r="BA49" s="231"/>
+      <c r="BB49" s="231"/>
+      <c r="BC49" s="231"/>
+      <c r="BD49" s="231"/>
+      <c r="BE49" s="231"/>
+      <c r="BF49" s="231"/>
+      <c r="BG49" s="231"/>
+      <c r="BH49" s="231"/>
+      <c r="BI49" s="231"/>
+      <c r="BJ49" s="231"/>
+      <c r="BK49" s="231"/>
+      <c r="BL49" s="231"/>
+      <c r="BM49" s="231"/>
+      <c r="BN49" s="231"/>
+      <c r="BO49" s="231"/>
+      <c r="BP49" s="231"/>
+      <c r="BQ49" s="231"/>
     </row>
     <row r="50" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
